--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Serengeti Dante Brown Tortoise / Gold Mirror Polarized Drivers Sunglasses 7702</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>Great item, great quality. Fast sender</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Buyer: e***l</t>
+          <t>Buyer: c***d</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DITA ENDURANCE 79 Black Silver / Dark Gray Sunglasses DTS104 60mm</t>
+          <t>Carrera Champion Rubber Black / Gray Sunglasses BIL 62mm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Top top top 👍</t>
+          <t>Item exactly as described, fast shipping A+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Buyer: 0***s</t>
+          <t>Buyer: c***7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FENDI FF 0119 AQM Black Eyeglasses 50mm 119</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>This was my 3 rd acquisition of this particular eye glass frame—so I knew exactly what it should be—and it was/is! I’m very pleased.</t>
+          <t>Very nice item and the shipping was very quick.  I would definitely recommend this seller and I would not hesitate to deal with again in the future.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buyer: 8***w</t>
+          <t>Buyer: 6***t</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,19 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tom Ford CHRISTOPHER 02 Shiny Black / Gray Sunglasses TF633 001 0633 49mm</t>
+          <t>Tom Ford 5587-B 053 Tortoise / Blue Block Eyeglasses TF5587 053 53mm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A+ Seller , Fast Shipping , As Described!!! 
-Highly Recommended ✅ 
-Thank You</t>
+          <t>Really good communication with seller, very helpful, despatched quickly, item exactly as described. Recommended</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buyer: p***f</t>
+          <t>Buyer: v***d</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -578,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Serengeti SMALL AVIATOR Pink / Sedona Polarized Sunglasses 7093 53mm</t>
+          <t>ZERORH+ TITANO Silver Gray Titanium Eyeglasses RH195-01 55mm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The fit of the small frame is perfect on my narrow face.  Very pleased with item.  Seller shipped right away and came in the original Serengeti box with case and cloth.  They also enclosed glass cleaner and other accessories.  I would definitely recommend this seller.</t>
+          <t>Love them!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buyer: p***r</t>
+          <t>Buyer: 1***o</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -605,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Serengeti MERANO Brown Fade Polarized Driver Sunglasses 7241 57mm</t>
+          <t>Tom Ford 5313 001 Shiny Black Eyeglasses TF5313 001 55mm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Very nice aaaa+++++</t>
+          <t>Super service and super glasses! Thank you</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Buyer: t***u</t>
+          <t>Buyer: o***k</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Past 6 months</t>
+          <t>Past month</t>
         </is>
       </c>
     </row>
@@ -632,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZERORH+ TITANO Blue Eyeglasses RH195-02 55mm</t>
+          <t>Tag Heuer 501 004 Tortoise Brown Eyeglasses TH501-004 Spring Hinges 57mm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brand new prescription eye glass</t>
+          <t>Item as pictured and described</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Buyer: o***e</t>
+          <t>Buyer: u***s</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Past 6 months</t>
+          <t>Past month</t>
         </is>
       </c>
     </row>
@@ -659,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY Gold / Drivers Gradient Sunglasses 7096</t>
+          <t>Barton Perreira HEIST Pewter Matte Black / Blue Gradient Sunglasses MDT PEW STB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thank-you!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+          <t>Item arrived promptly and as described</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Buyer: 0***-</t>
+          <t>Buyer: 0***7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Past 6 months</t>
+          <t>Past month</t>
         </is>
       </c>
     </row>
@@ -686,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tom Ford Thea Shiny Black / Green Sunglasses TF366 01G 57mm</t>
+          <t>Tom Ford 5590-B 052 Havana Ruthenium / Blue Block Eyeglasses TF5590 052 50mm</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Excellent 5 star service. Thank you.</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: c***f</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Past 6 months</t>
+          <t>Past month</t>
         </is>
       </c>
     </row>
@@ -713,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tom Ford 5304 001 Shiny Black Eyeglasses TF5304 001 54mm</t>
+          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Great quality, 1st class seller. thanks!</t>
+          <t>Bought these to replace another set of frames (same model) that I've had for many years. They're very comfortable, and I'm relieved to have found an identical replacement. Item arrived several weeks before the estimated delivery date. Thanks!</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Buyer: d***e</t>
+          <t>Buyer: 5***a</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Past 6 months</t>
+          <t>Past month</t>
         </is>
       </c>
     </row>
@@ -740,17 +738,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tag Heuer 3722-018 Reflex Burgundy Titanium Eyeglasses 3722 018 55mm</t>
+          <t>Tag Heuer AUTOMATIC 883 203 Chocolate / Brown Outdoors Sunglasses TH0883 203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Just as described.  100% authentic.  Highly recommend seller</t>
+          <t>Thank you!</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Buyer: e***z</t>
+          <t>Buyer: t***7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -767,17 +765,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bolle ANACONDA Dark Tortoise / True Light Brown Sunglasses 10511 64mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Good seller, nice add-ons to the purchase free of charge. Fast shipping too</t>
+          <t>Excellent quality, good price and fast shipping</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Buyer: r***-</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -794,17 +792,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FLEXON 470 Shiny Natural Dark Red Eyeglasses 51mm Marchon</t>
+          <t>Tom Ford 5474 32E Gold Eyeglasses + Brown Clip TF5474-32E 53mm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Beautiful eyeglass frames.</t>
+          <t>Top class, thanks</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Buyer: 1***0</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -821,17 +819,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Serengeti Como Satin Dark Gun / Sedona Bi Mirror Polarized Sunglasses 8396 64mm</t>
+          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 54mm</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Arrived quickly in perfect condition</t>
+          <t>Aritkel kam wie beschrieben und sehr gut verpackt an.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Buyer: o***e</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -848,17 +846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Serengeti MARTINO Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
+          <t>Tag Heuer 3052 003 Reflex Gray Eyeglasses TH3052-003 47mm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Good seller.</t>
+          <t>Thank you very much</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Buyer: m***a</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -875,17 +873,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY Gold / Drivers Gradient Sunglasses 7096</t>
+          <t>Tom Ford 5489 052 Havana Eyeglasses TF5489 052 48mm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Perfect, item as described, packaged well and delivered fast.</t>
+          <t>Thank you so much for getting me these frames in such a timely fashion. Your process from start to finish was outstanding and I love my new frames again thanks for a positive experience!!!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Buyer: 1***1</t>
+          <t>Buyer: 4***t</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -902,19 +900,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Serengeti MARTINO Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
+          <t>MONCLER MC014-V03 Green Gunmetal Titanium Eyeglasses MC 014-V03 52mm</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ottimo articolo
-efficiente spedizione e consegna
-molto soddisfatto</t>
+          <t>I positively love these frames!! Just wish they came with original case.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Buyer: m***s</t>
+          <t>Buyer: a***n</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -931,17 +927,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tom Ford 5679 008 Gunmetal Aviator Titanium Eyeglasses FT5679 008 56mm</t>
+          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GREAT THANKS !!!!</t>
+          <t>It was great experience and product, bought it for my husband and he loved them</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Buyer: a***c</t>
+          <t>Buyer: o***o</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -958,17 +954,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SILHOUETTE 1567 Purple Rimless Eyeglasses 406053 52mm SMALL</t>
+          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>As Described!</t>
+          <t>Fast shipping...thank you.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Buyer: s***l</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -980,22 +976,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Negative feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Lacoste Eyeglasses Sunglasses Medium Green Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>I need to return item</t>
+          <t>Very Fast shipping, good comunnication, great communication A++++</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Buyer: 1***s</t>
+          <t>Buyer: o***d</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1012,17 +1008,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Serengeti DANTE Shiny Dark Gunmetal / Drivers Sunglasses 7888 63mm</t>
+          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Great Seller!</t>
+          <t>As promised and on time! 5 stars</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Buyer: 8***7</t>
+          <t>Buyer: t***_</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1039,17 +1035,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Serengeti EGEO Sanded Black / Polarized Drivers Sunglasses 8677 55mm</t>
+          <t>Tom Ford 5408 052 Dark Havana Eyeglasses TF5408 052 56mm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Very good customer 👍</t>
+          <t>Great quality product!</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Buyer: h***o</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1066,17 +1062,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MONTBLANC 646S 01N Black / Green Sunglasses MB646S 01N 54mm</t>
+          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>On time and as promised</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Buyer: _***t</t>
+          <t>Buyer: t***_</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1093,17 +1089,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tom Ford MIRANDA 130 28G Rose Gold / Brown Gradient Sunglasses TF130 28G 68mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Love these!</t>
+          <t>Excellent item, low price, and extremely fast shipping</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Buyer: 1***r</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1120,17 +1116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>MONTBLANC MB0723 001 Shiny Black Eyeglasses MB 723 001 55mm</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I didn’t know anyone could ship that fast!!! Great product at a fair price! Amazing seller!!</t>
+          <t>as described, would do business with again, AAA+++</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Buyer: l***r</t>
+          <t>Buyer: r***r</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1147,17 +1143,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bolle VORTEX Shiny Black / Photo Amber Sunglasses 11412 136mm</t>
+          <t>Tom Ford IVANNA 372 53W Havana / Blue Gradient Sunglasses TF372 53W 64mm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pleased to find these so that I can keep using my old Bolle Vortex RX insert in a new frame (not to mention the other eyeshields) since Bolle don’t do spares for the Vortex any longer. Much cheaper and less wasteful than starting with a new prescription pair of cycling glasses. Impressed by the delivery time (8 days from order).</t>
+          <t>Pretty</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Buyer: 4***e</t>
+          <t>Buyer: 1***r</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1174,18 +1170,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tom Ford 5304 001 Shiny Black Eyeglasses TF5304 001 54mm</t>
+          <t>Tom Ford NIKA 523 52F Dark Havana / Purple Gradient Sunglasses TF523 52F 56mm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Authentic eyewear at great prices &amp; speedy delivery: thank you, Sunray City! Thank you also for adding a range of useful freebies to my Tom Ford order while keeping the delivery free. 
-Definitely will be coming back.</t>
+          <t>Absolutely beautiful. Came with a little cleaning kit. I will buy from here again. 🫶🏼</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Buyer: w***t</t>
+          <t>Buyer: g***i</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1202,17 +1197,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Tom Ford 5207 083 Havana Eyeglasses TF5207 083 49mm</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Great value and great seller.  Will buy again from Sunray City</t>
+          <t>Professional. Quick and exactly as described.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Buyer: e***n</t>
+          <t>Buyer: d***r</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1229,17 +1224,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tom Ford 5369 018 Silver Round Eyeglasses TF5369 018 46mm</t>
+          <t>ZERORH+ FORMULA Brown &amp; Blue Eyeglasses RH222 222-05 53mm</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fast shipping top shelf Quality 👌</t>
+          <t>good</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Buyer: 8***o</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1256,17 +1251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vuarnet EDGE 1613 Silver / Gray VL 1613 0006 1136 Sunglasses 52mm</t>
+          <t>ZERORH+ FORMULA Eyeglasses RH217</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Great service. Thanks!</t>
+          <t>good!</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Buyer: a***u</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1283,17 +1278,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tom Ford Christopher Shiny Black Sunglasses TF633 001 0633 49mm</t>
+          <t>Tag Heuer 7603-002 Track Brown Havana Orange Eyeglasses TH7603 002 50mm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fast and looks perfect.</t>
+          <t>Great seller. Fast shipping. Thank you.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Buyer: 9***o</t>
+          <t>Buyer: i***r</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1310,17 +1305,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tom Ford JOHN 746 16N Silver / Green Sunglasses TF746-16N 62mm</t>
+          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Thank you</t>
+          <t>Great Price, easy transaction and great experience. SunRayCity also included accessories I didn't expect. Nice touch!</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Buyer: b***r</t>
+          <t>Buyer: u***r</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1332,22 +1327,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Negative feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MONTBLANC 646S 01N Black / Green Sunglasses MB646S 01N 54mm</t>
+          <t>Tag Heuer 7604 003 Track Navy Blue Gray Eyeglasses 7604-003 56mm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Product arrived without original box, the seller did not solve my problem, I think I bought non-original sunglasses.// vendedor no indica que los lentes de sol vienen sin su caja original, le consulté sobre la situación pero no resolvió mi problema, dudo sobre la originalidad del producto!</t>
+          <t>Love these frames!</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Buyer: m***x</t>
+          <t>Buyer: n***r</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1364,17 +1359,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tom Ford 5679 008 Gunmetal Aviator Titanium Eyeglasses FT5679 008 56mm</t>
+          <t>Rayban Aviator 3025 L0205 Gold / G-15 Sunglasses Made in Italy 58mm</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Quick dispatch and delivery! Thank you! Would happily do business again! 👍🏼</t>
+          <t>The seller is A+++++++.
+Thank you very much.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Buyer: o***0</t>
+          <t>Buyer: f***e</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1391,17 +1387,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tom Ford Christopher Shiny Black Sunglasses TF633 001 0633 49mm</t>
+          <t>Tom Ford 5421 074 Rose Pink Eyeglasses TF5421 074 53mm</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Love them!</t>
+          <t>Excellent brand new frames.Fast delivery, perfect transaction. Thanks</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: e***1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1418,17 +1414,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bolle VANADIUM Matte Silver Polarized Cobaltz Sunglasses 3-906-246-116 61mm</t>
+          <t>Serengeti Martino Dark Tortoise / Green Polarized Sunglasses 7528</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Those glasses are awesome!</t>
+          <t>+++TOP+++</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Buyer: l***p</t>
+          <t>Buyer: e***d</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1445,17 +1441,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DITA DAY TRIPPER 22031 B Tortoise Gold / Brown Sunglasses 22031-B 55mm</t>
+          <t>Tom Ford 5007 Q41 Marble Brown Eyeglasses TF5007 Q41 51mm</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Great seller.  Fast shipping and glasses came with everything as of I bought them from the store.</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Buyer: 7***7</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1472,17 +1468,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Serengeti ALESSIO Dark Tortoise / Polarized Drivers Sunglasses 8674 62mm</t>
+          <t>Tom Ford 5424 001 Black Eyeglasses TF5424 001 55mm</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>My daughter-in-law loves them</t>
+          <t>Flawless transaction!  Was not sure about the size but better than expected!!</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: z***e</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1499,17 +1495,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Tom Ford 5762 052 Dark Havana / Blue Block Eyeglasses TF5762-B 052 55mm</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>It was very rady, and I can recommend this gentleman. I am very happy, thanks for extra gify 😁😉</t>
+          <t>Exactly as described, brand new with no defects, came with certificate of authenticity. Lightning fast shipping and delivery plus seller included some extras, such as cleaner and microfibre cloth which is highly appreciated. Would definitely recommend. Wonderful experience, A+++ Thank you !!!</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Buyer: 9***5</t>
+          <t>Buyer: z***o</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1521,22 +1517,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Neutral feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tag Heuer Racer 9204 101 Matte Black / Gray Outdoor Sunglasses 9204 101 68mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Not as expected</t>
+          <t>Great seller.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Buyer: 3***l</t>
+          <t>Buyer: -***x</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1553,17 +1549,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tag Heuer 27 Degree 6021 Matte Black Gray / Gray Polarized Sunglasses TH6021 103</t>
+          <t>Adidas AF23 50 6057 INVOKE Black / Night Flash Eyeglasses AF23 506057 53mm</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>I have received it (and your gifts!) correctly, thank you very very much!</t>
+          <t>Fantastic seller! They ship very quickly and will negotiate if you use the offer button. They are very fair and with the item they include some extras, which is appreciated. Next time I’m looking for frames at an excellent price, I will shop here. Many thanks.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Buyer: u***c</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1580,22 +1576,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tom Ford 5307 001 Black &amp; Gold Eyeglasses TF5307 001 52mm</t>
+          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Great Transcation, Many Thanks</t>
+          <t>Exactly what was advertised, with extras I appreciated but didn't expect, such as cleaner and extra microfiber cloths. Would buy from this seller again!</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buyer: n***n</t>
+          <t>Buyer: 8***7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>Past 6 months</t>
         </is>
       </c>
     </row>
@@ -1607,22 +1603,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tom Ford 5679 008 Gunmetal Aviator Titanium Eyeglasses FT5679 008 56mm</t>
+          <t>Carrera 5011 Camouflage Pink / Pink Sunglasses 5011/S 8GW 54mm</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Great seller</t>
+          <t>Happy with the glasses. Prompt delivery.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Buyer: 3***2</t>
+          <t>Buyer: i***6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>Past 6 months</t>
         </is>
       </c>
     </row>
@@ -1634,23 +1630,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FENDI FF 0334 086 Dark Havana Eyeglasses 334 51mm</t>
+          <t>Tom Ford 5375 056 Dark Havana Eyeglasses TF5375 056 Asian Fit 55mm</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Love these, already had them in black but lost them.
-Perfect 🤩 would recommend! Love the service.⭐️⭐️⭐️⭐️⭐️ Thank you.</t>
+          <t>Items arrived as listed. I'll purchase from the seller again.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Buyer: l***l</t>
+          <t>Buyer: _***_</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>Past 6 months</t>
         </is>
       </c>
     </row>
@@ -1662,18 +1657,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dynamic Labs Fog Stopper Drops Anti Reflective AR Lenses + Gel Spray Cleaner</t>
+          <t>Tom Ford 5207 005 Dark Brown Eyeglasses TF5207 005 49mm</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Greta product 
-Great customer service</t>
+          <t>Thanks!  As described. A+</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Buyer: .***.</t>
+          <t>Buyer: s***t</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1685,22 +1679,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Positive feedback rating</t>
+          <t>Negative feedback rating</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Serengeti MEDIUM AVIATOR Shiny Gunmetal / Polarized Sedona Sunglasses 8088 59mm</t>
+          <t>PROSHADE Sun Visor Lanyard 3 In 1 Eyewear Case</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>great sun glasses, great ebayer</t>
+          <t>Nothing against the seller, item was as described but it doesn’t work. Visor does not stay up and straight.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Buyer: p***8</t>
+          <t>Buyer: y***o</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1717,17 +1711,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VUARNET Shiny Black / Polarized Gray PC 2000 Sunglasses VL 1307 0001 1721 55mm</t>
+          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Item as described. Safely packaged and quickly shipped. A+</t>
+          <t>Qualitative good product as described</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Buyer: n***n</t>
+          <t>Buyer: n***i</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1744,17 +1738,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tom Ford MIRANDA Shiny Gunmetal / Gray Gradient Sunglasses TF130 08B 68mm</t>
+          <t>Tom Ford 5455 056 Havana Amber Oval Eyeglasses TF5455 056 50mm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fabulous thank you!</t>
+          <t>Thanks I love them . I hand them and they were hard to find. 💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Buyer: p***s</t>
+          <t>Buyer: u***5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1771,17 +1765,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Orgreen HAYES 799 Matte Brown Tortoise / Sandblasted Titanium Eyeglasses 51mm</t>
+          <t>Tag Heuer 8007 003 Trends Chocolate Havane Black Eyeglasses 8007-003 56mm</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Received item swiftly and well packaged to ensure item would not become damaged in mail.  Thank you</t>
+          <t>Quick, highly recommended seller! Thanks!</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Buyer: u***l</t>
+          <t>Buyer: 2***2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1798,17 +1792,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Serengeti MARTINO Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
+          <t>Tom Ford 5291 052 Brown Turquoise Eyeglasses TF5291 052 55mm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Perfect!</t>
+          <t>Nice glasses, fast shipping great seller</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Buyer: t***o</t>
+          <t>Buyer: b***b</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1825,17 +1819,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Celine CL 50004I 053 Blonde Havana Eyeglasses CL50004I 053 48mm</t>
+          <t>Tom Ford 5304 093 Gray Stripe Eyeglasses TF5304 093 54mm</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Great seller! Thank you so much and God bless you ♥️♥️♥️</t>
+          <t>Excellent! Thanks!!!</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Buyer: z***a</t>
+          <t>Buyer: p***o</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1852,17 +1846,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Orgreen HANZO 301 Matte White / Matte Light Blue Titanium Eyeglasses 58mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260 64mm</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fast shipping! Great seller! Great selection on hard to find glasses</t>
+          <t>Thank you</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1879,17 +1873,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tom Ford CAINE 800 01A Shiny Black Gold / Gray Sunglasses TF800 01A 62mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>As described, very happy, thanks</t>
+          <t>Terrific Seller</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Buyer: m***9</t>
+          <t>Buyer: t***3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1906,17 +1900,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Barton Perreira KEMP Black Pewter Eyeglasses BLA PEW Asian Fit 47mm</t>
+          <t>SPY CALIBER Soft Matte Black / Happy Gray Green Sunglasses 673374973863 59mm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Thanks!</t>
+          <t>Perfect!  Crazy fast shipping too.  A+++</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Buyer: w***y</t>
+          <t>Buyer: i***h</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1933,17 +1927,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SILHOUETTE 1565 Purple Rimless Eyeglasses 406051 53mm SMALL</t>
+          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Everything was perfect.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Buyer: r***r</t>
+          <t>Buyer: o***n</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1960,17 +1954,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tag Heuer 27 Degree 6041 211 Tortoise / Brown Sunglasses TH6041-211 59mm</t>
+          <t>Tom Ford 5313 055 Dark Havana Eyeglasses TF5313 055 55mm</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A++++++</t>
+          <t>Thank you very much.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Buyer: h***8</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1987,17 +1981,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Vuarnet ICE 1709 Matte Black / Gray Polarized VL170900011622 Sunglasses 51mm</t>
+          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>As advertised, new flawless item.</t>
+          <t>Perfect thank you</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Buyer: _***e</t>
+          <t>Buyer: a***l</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2014,17 +2008,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tom Ford 5679 026 Rose Gold Aviator Titanium Eyeglasses FT5679 026 56mm</t>
+          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SUPER SATISFIED</t>
+          <t>Exactly as described.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: 4***4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2041,17 +2035,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>REVO TATE Gunmetal / Polarized Blue Sunglasses 1079 00 BL 61mm</t>
+          <t>Adidas A628 50 6054 Black Eyeglasses 628 506054 55mm</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Excellent seller A÷÷÷!!!</t>
+          <t>Seller helped me verify that these will work with my existing lenses. I'm a repeat customer and have had excellent results with SunRayCity!</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Buyer: h***s</t>
+          <t>Buyer: m***i</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2068,17 +2062,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Orgreen BARBARELLA 331 Matte Red / Matte Black Titanium Eyeglasses 51mm</t>
+          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>as described - fast shipping - thanks!</t>
+          <t>Thanks for a great product!</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Buyer: r***r</t>
+          <t>Buyer: 8***g</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2095,17 +2089,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0109 0001 2721 65mm</t>
+          <t>Tom Ford 5483 028 Shiny Rose Gold Titanium Eyeglasses TF5483 028 52mm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Buyer: e***r</t>
+          <t>Buyer: u***9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2122,17 +2116,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FLEXON 505 Blue Suede Eyeglasses 505-430 47mm Marchon</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Perfect!! Thx, ebayer A++++</t>
+          <t>Excellent seller. Great products. Fast delivery and also received some extra bonuses which was a delightful surprise. Highly recommended and will purchase more.  A+++++</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Buyer: i***s</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2149,17 +2143,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Perfect! New in box.</t>
+          <t>Seller has agreed to send the item again........when it arrives I will be happy!</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Buyer: s***l</t>
+          <t>Buyer: s***e</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2176,17 +2170,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>REVO TATE Gunmetal / Polarized Blue Sunglasses 1079 00 BL 61mm</t>
+          <t>Giorgio Armani 456 PRP X7 Brown / Brown Sunglasses 60mm</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Perfect, and fast shipping.  A+</t>
+          <t>Great seller fast delivery very pleased￼A+++++</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Buyer: g***r</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2203,17 +2197,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0109 0001 2721 65mm</t>
+          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A little different than I expected but perfectly happy with the glasses</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Buyer: u***5</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2230,17 +2224,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VUARNET Matte Gray / Polarized Brown PC 2000 Sunglasses VL 0120 R011 2721</t>
+          <t>Tom Ford 5504 052 Dark Havana Gold Eyeglasses TF5504 052 54mm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Item Came as described:-)</t>
+          <t>Fast shipping, Accurate item,  Great seller. I would definitely do business with again.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Buyer: u***i</t>
+          <t>Buyer: l***_</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2257,17 +2251,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Orgreen NIKITA 327 Matte Purple Black / Matte Pink Titanium Eyeglasses 51mm</t>
+          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Very happy with all aspects of this my first international purchase.   So pleased to be able to get the exact same frames that have served me so well these last many years and are not available in my country.  Thank you!</t>
+          <t>Got here ahead of time and was exactly as ordered</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Buyer: f***a</t>
+          <t>Buyer: j***6</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2284,17 +2278,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DITA DAY TRIPPER 22031 B Tortoise Gold / Brown Sunglasses 22031-B 55mm</t>
+          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Excellent product, fast shipping, great seller! A++++++</t>
+          <t>Alles bestens! Gerne wieder. Vielen Dank!</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Buyer: e***2</t>
+          <t>Buyer: o***o</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2311,17 +2305,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VUARNET Matte &amp; Shiny Black / Green PX 3000 Sunglasses VL 1306 P00A 1121 58mm</t>
+          <t>Tom Ford CHRISTOPHER 02 Shiny Black / Gray Sunglasses TF633 001 0633 49mm</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Absolutely perfect pair of sunglasses. Exactly as they looked in the photos.</t>
+          <t>Amazing seller . Flawless transaction</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Buyer: e***v</t>
+          <t>Buyer: j***l</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2338,17 +2332,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>I have received the product.</t>
+          <t>Quick delivery. Item was nicely packed. Recommended ebayer. A+++++++++ Thanks!</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Buyer: c***c</t>
+          <t>Buyer: l***0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2365,17 +2359,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Bolle Parole / Vigilante Sunglasses Nose Pads Matte Black Set x 1 209PL75200</t>
+          <t>MONCLER MC512-V04 Striped Gray Eyeglasses MC 512-V04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Extremely hard item to locate, packed well, and shipped quickly.  All good; thanks.</t>
+          <t>THANK YOU... A+ SELLER.....</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Buyer: a***4</t>
+          <t>Buyer: o***2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2392,17 +2386,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Serengeti 7873 LUCA / LIPARI / NUVINO / NUVOLA / ROTOLARE Nose Pads &amp; Screws</t>
+          <t>Tag Heuer 821 009 Automatic Gray Orange Eyeglasses 0821-009 56mm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Safe packaging &amp; delivery within the promised time window. Seller is the only known spare parts supplier worldwide. NO problems at all - PERFECT!</t>
+          <t>Really smooth transaction, speedy delivery too, can highly recommend.....</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Buyer: 6***6</t>
+          <t>Buyer: m***2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2419,17 +2413,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0109 0001 2721 65mm</t>
+          <t>Moncler MC507-01 Tortoise / Gray Pelvoux Sunglasses MC 507-01 58mm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Good seller. Fast shipping. Everything as expected</t>
+          <t>Received faster than expected. Very good quality, with certificate of authentication. I had this for over 10 years and lost them in the water this year. Really happy to have been able to get them again!</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Buyer: p***h</t>
+          <t>Buyer: d***8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2446,17 +2440,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Serengeti BRANDO Satin Black / Drivers Gradient Sunglasses 7887 58mm</t>
+          <t>Tom Ford 5514 083 Violet Eyeglasses TF5514 083 54mm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Great sunglasses, great ebayer</t>
+          <t>Great seller with fantastic communication. Fast Shipping and Perfect Condition. Thank you!</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Buyer: p***8</t>
+          <t>Buyer: s***i</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2473,17 +2467,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(Private listing)</t>
+          <t>Adidas AF20 00 6052 INVOKE Shiny Brown / Orange Eyeglasses AF20 006052 56mm</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A pleasure to do business with.</t>
+          <t>Perfect.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Seller:</t>
+          <t>Buyer: n***g</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2500,17 +2494,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tom Ford Mathias 143 28B Gold / Gray Gradient Sunglasses TF143 28B</t>
+          <t>Tom Ford 5586-B 001 Black Blue Block Eyeglasses TF5586 001 56mm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Arrived as described and on time excellent service ⭐️</t>
+          <t>A+++</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Buyer: s***n</t>
+          <t>Buyer: y***7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2527,17 +2521,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tom Ford ARNAUD 625 52V Havana Gold / Blue Sunglasses TF625 52V 53mm</t>
+          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Great easy purchase</t>
+          <t>Great item, exactly as described and fast international shipping. Thanks</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Buyer: 6***o</t>
+          <t>Buyer: u***o</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2554,17 +2548,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BALENCIAGA BA 5082 055 Tortoise Eyeglasses 49mm</t>
+          <t>Carrera 7015 Xcede Matte Black / Gray Polarized Sunglasses 7015/S 03P 61mm</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>lovely and exquisite just as pictured, fast and prompt shipping</t>
+          <t>Outstanding transaction! Super fast responses and shipping! These sunglasses are PERFECT! Thanks for the great service and fast shipping! Awesome seller!</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Buyer: i***a</t>
+          <t>Buyer: k***v</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2581,22 +2575,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tom Ford JAMESON 752 55V Shiny Black / Blue Sunglasses TF752 55V 50mm</t>
+          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A+++++++++++++++</t>
+          <t>Love these frames as they are so comfortable.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Buyer: 5***5</t>
+          <t>Buyer: 6***m</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2608,22 +2602,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZERORH+ TAURUS Ruthenium Eyeglasses RH169-04 54mm</t>
+          <t>GUCCI GG0060O 004 Flowers Multicolor Eyeglasses GG 600 49mm</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>First rate communication, easy transaction....and particularly important in a segment where there's lots of fly-by-night operators, what sunraycity delivered was entirely genuine...can't recommend enough and will use them again.</t>
+          <t>Thank you SunRayCity!  I love this frame, and you helped me replace the same ones that I lost! I appreciate your sending this so quickly and the other little goodies you includes. I’m so happy!</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Buyer: o***a</t>
+          <t>Buyer: o***e</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2635,22 +2629,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Tom Ford 5291 005 Black Turquoise Eyeglasses TF5291 005 55mm</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Excellent seller. Fast shipping.</t>
+          <t>A+++++</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Buyer: o***b</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2662,22 +2656,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZERORH+ TANDEM Gray Eyeglasses RH142-01 56mm</t>
+          <t>Tom Ford Ekaterina 363 71Z Bordeaux / Purple Gradient Sunglasses TF363 71Z 150mm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Very nice eBayer with fast transaction and nice items.</t>
+          <t>Item in perfect condition and arrived promptly.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Buyer: -***0</t>
+          <t>Buyer: n***k</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2683,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tom Ford Karmen Black / Gray Gradient Sunglasses TF329 01B 57mm</t>
+          <t>Tom Ford 5226 083 Purple Tortoise Eyeglasses TF5226 083 54mm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thank you! Safely received</t>
+          <t>The seller was right on about the product 
+Everyone likes the eye frame on me I’m not to share yet once I see my eye doctor in fall I get my new lenses in I’m not saying I don’t like them their different from other eyeglass frames that’s for sure</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Buyer: a***s</t>
+          <t>Buyer: r***m</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2716,22 +2711,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Serengeti SAN REMO Satin Black Gray Strp / Green Polarized 555nm Sunglasses 7604</t>
+          <t>Tom Ford NINA 373 01B Black Gold / Gray Gradient Sunglasses TF373 01B 56mm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>these are very nice</t>
+          <t>Love these sunglasses! My favorite Tom Ford style ever. They arrived sooner than expected and well packaged. Although a vintage style, these are new. I was delighted to find them on eBay!</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Buyer: k***p</t>
+          <t>Buyer: h***2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2743,22 +2738,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Oakley Field Jacket Polished Black / Prizm Road Sunglasses 9402-01 64mm</t>
+          <t>Tag Heuer 825 009 Gray Orange Eyeglasses TH825-009 57mm</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>BUENAS TARDES. EL PEDIDO HA LLEGADO HOY 03/07/2023.LAS GAFAS VIENEN EMBALADAS PERFECTAMENTE Y A LA ENTREGA HE PAGADO LOS ARANCELES CORRESPONDIENTES,EN ÉSTE CASO HAN SIDO 38,38€. LAS GAFAS SON EXACTAMENTE EL MODELO QUE HABÍA ELEGIDO.VENDEDOR EXCELENTE.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Buyer: i***b</t>
+          <t>Buyer: b***-</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2770,22 +2765,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Orgreen COURTNEY 692 Matte Burgundy Red / Sandblasted Copper Eyeglasses 52mm</t>
+          <t>Tom Ford 5424 056A Light Havana Purple Eyeglasses TF5424 056A 53mm</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Exactly as described.  Will use again!!</t>
+          <t>great vendor. Frames exactly as described , brand new with case cleaning cloth and sunglass cover. Excellent--will purchase again from vendor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Buyer: l***3</t>
+          <t>Buyer: 2***m</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2797,17 +2792,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Orgreen SPARKLE 727 Matte Pine / Matte Old Rose Titanium Eyeglasses 52mm</t>
+          <t>MONTBLANC MB0674 013 Satin Ruthenium Eyeglasses MB 674 013 56mm</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Alles super 👍🏼</t>
+          <t>All good, great price and delivered as advertised</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Buyer: a***i</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2824,17 +2819,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tom Ford SABRINA 764 01B Shiny Black / Gray Gradient Sunglasses TF764 01B 58mm</t>
+          <t>Barton Perreira SAMUEL Black Eyeglasses BLA 50mm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Good work!!!</t>
+          <t>Love my glasses they were as expected fast shipping too!</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Buyer: r***r</t>
+          <t>Buyer: a***-</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2851,17 +2846,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FLEXON 463 White Red Rimless Eyeglasses 52mm Marchon</t>
+          <t>Adidas AF23 50 6054 INVOKE Black /Gray Eyeglasses AF23 506054 53mm</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fast and efficient. Thank you.</t>
+          <t>An excellent seller! The item shipped out quickly and came with a tracking number.  Shipping was very fast and secure. Am very pleased with my item.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Buyer: s***k</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2878,12 +2873,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tom Ford SNOWDON Black / Gray Sunglasses TF237 05B 50mm</t>
+          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A+++++++++++++++++</t>
+          <t>A++++++++++++++++</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2905,17 +2900,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0113 R010 2721</t>
+          <t>Bolle Draft Crystal Smoke / Photochromic Rose Gun Sunglasses 11470</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Thanks</t>
+          <t>Great item great price fast shipping thank you</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Buyer: r***g</t>
+          <t>Buyer: d***e</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2932,17 +2927,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FLEXON 515 Black Chrome Oval Rimless Eyeglasses 515-001 47mm Marchon</t>
+          <t>Serengeti Martino Shiny Black / Sedona Polarized Sunglasses 7840</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GOOD TRANSACTION   THX.</t>
+          <t>Sunglasses were delivered as new.  Great shape.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Buyer: b***b</t>
+          <t>Buyer: 8***b</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2959,17 +2954,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Serengeti TREVISO 24h LEMANS Satin Gold / Drivers Sunglasses 8484 63mm</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Gray Gradient Sunglasses EST ANG SMT</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Great seller.</t>
+          <t>FAST SHIPPING THANK YOU A+</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Buyer: 3***8</t>
+          <t>Buyer: e***n</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2986,17 +2981,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tom Ford ELIOTT Matte Black / Blue Gradient Sunglasses TF335 02W 60mm</t>
+          <t>Serengeti Sangro Satin Black / Polarized Drivers Sunglasses 6998</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Original, fast lighting delivery excelent customer service, muy Contento!</t>
+          <t>recommend this seller</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Buyer: a***l</t>
+          <t>Buyer: i***n</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3013,17 +3008,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0113 R010 2721</t>
+          <t>Carrera 42 Horn Black / Gray Gradient Sunglasses 42/S 7J3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>fast shipping - great transaction.</t>
+          <t>Gréât seller and auction. Thx</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Buyer: k***k</t>
+          <t>Buyer: 1***0</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3040,17 +3035,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Green PC 2000 Sunglasses VL 1308 0001 1721</t>
+          <t>MONCLER MC010-S05 Gray / Gray Sunglasses MC 010-S05</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>good seller thank</t>
+          <t>Thank you very fast</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Buyer: o***t</t>
+          <t>Buyer: n***5</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3067,17 +3062,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bolle VAPOR Liquid Silver / Polarized INX Sunglasses 62mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Perfecto muchas gracias .. super recomendables... si tubieras el rojo y lente expejados los compraba también</t>
+          <t>Fast shipping, great item, would definitely buy from again</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Buyer: 1***a</t>
+          <t>Buyer: g***m</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3094,17 +3089,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bolle Parole Performance  Sunglasses Matte Black/A-SES 4 Lens Set 69mm</t>
+          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Perfect new glasses, as advertised. Shipped immediately. Very happy with this seller</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Buyer: s***a</t>
+          <t>Buyer: h***w</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3121,17 +3116,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tag Heuer 27 Degree 6044 Tortoise / Brown Sunglasses TH6044 211 65mm</t>
+          <t>Tag Heuer 802 011 Automatic Matte Black White Eyeglasses 802-011</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thank you so much...  Have a good time. .</t>
+          <t>Thanks for the great transaction! Frames are awesome and shipping was fast. Highly recommended!!</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Buyer: o***u</t>
+          <t>Buyer: h***a</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3148,17 +3143,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tom Ford Jennifer Brown &amp; Gold / Brown Polarized Sunglasses TF008 48H TF8 61mm</t>
+          <t>Tom Ford 5460 045 Honey Eyeglasses TF5460 045 49mm</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>The glasses arrived new condition without damage</t>
+          <t>Good seller, no hassle.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Buyer: n***a</t>
+          <t>Buyer: c***b</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3175,17 +3170,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tom Ford GIA 766 57G Champagne / Brown Gradient Sunglasses TF766 57G 63mm</t>
+          <t>Adidas AF40 006054 CONVERTOR Matte Dark Brown / Orange Eyeglasses 55mm Adaptable</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Beautiful glasses. Item as described! Super fast shipping!</t>
+          <t>very fast shipping</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Buyer: 4***8</t>
+          <t>Buyer: e***3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3202,17 +3197,18 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Serengeti 7873 LUCA / LIPARI / NUVINO / NUVOLA / ROTOLARE Nose Pads &amp; Screws</t>
+          <t>Tom Ford HAYES 934 01E Shiny Black / Brown Sunglasses TF934 01E 59mm</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Been looking for Serengeti rubber nose piece replacements.  These are  good deal!</t>
+          <t>Great transaction, fast shipping - Thx!!
+A+</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Buyer: h***o</t>
+          <t>Buyer: _***s</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3229,17 +3225,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Serengeti Luigi Espresso Brown Tannery / Polarized Drivers Sunglasses 7381 60mm</t>
+          <t>Tag Heuer 3012 001 Reflex Black Gray Clear Eyeglasses TH3012 001 47mm</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Fast delivery. Item well packaged.</t>
+          <t>love these</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Buyer: r***8</t>
+          <t>Buyer: e***i</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3256,17 +3252,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Tom Ford 5172 018 Silver Round Eyeglasses TF5172 018 40mm SMALL</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>My son is thrilled. I've been looking for 6 months for these pilot non polarized sunglasses and they are not available anywhere.</t>
+          <t>As expected</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Buyer: c***n</t>
+          <t>Buyer: t***t</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3283,17 +3279,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Serengeti BERGAMO Matte Black / Sedona Phd 2.0 Polarized Sunglasses 8810</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Very cool sunglasses! Thanks!</t>
+          <t>Brilliant service thank you</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Buyer: o***t</t>
+          <t>Buyer: i***l</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3310,17 +3306,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Serengeti Prato Gunmetal / Green 555nm Sunglasses GG6787</t>
+          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Perfect.</t>
+          <t>the better adidas glasses frame, low weight, best fit</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Buyer: o***t</t>
+          <t>Buyer: v***8</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3332,22 +3328,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Positive feedback rating</t>
+          <t>Neutral feedback rating</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FLEXON 2204 Antique Light Gold Eyeglasses LGHTGEP 46mm Marchon</t>
+          <t>Tom Ford 5365 024 Beige Eyeglasses TF5365 024 54mm</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>My experience was great and I would definitely recommend this seller.</t>
+          <t>I think these are seconds.  The coloring was inconsistent.  Either from firing or ? .</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Buyer: t***h</t>
+          <t>Buyer: a***i</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3364,17 +3360,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FLEXON 2204 Shiny Brown Eyeglasses SHN BRN 44mm Marchon</t>
+          <t>Tom Ford 5304 052 Dark Havana Eyeglasses TF5304 052 54mm</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>The experience was great. I would recommend this seller to anyone.</t>
+          <t>Was able to contact the seller. Since it s a global shipping I recommend at least putting the product in a plastic bag properly just in case or cover the lense cleaner cap with a tape. Glasses was in good condition and seller communication was prompt.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Buyer: t***h</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3391,17 +3387,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Serengeti RIANO Shiny Gun Drivers Gradient Sunglasses 7432</t>
+          <t>Serengeti Milazzo Matte Black Polarized 555nm Sunglasses 6903</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>My sunglasses were delivered as promised and on time. Would recommend this seller to anyone.</t>
+          <t>Got them grate sunglasses ever made.
+Best Regards</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Buyer: s***1</t>
+          <t>Buyer: 2***f</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3418,17 +3415,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Barton Perreira DUTCHIE Black Tortoise / Gray Sunglasses TDG VGY 57mm</t>
+          <t>Adidas A644 40 6052 Green Eyeglasses 644 406052 52mm</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A++++++ Seller!!!</t>
+          <t>easy buy. great glasses and recieved some nice extras along with them. thank you very much. will purchase again.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Buyer: a***l</t>
+          <t>Buyer: o***g</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3445,17 +3442,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>MontBlanc Silver / Gray Sunglasses MB457S 16A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Great item at a good price.  Fast shipping.  Highly recommend this seller.</t>
+          <t>Great product and fast shopping. Thank you! A+++++++</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Buyer: e***n</t>
+          <t>Buyer: .***5</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3472,17 +3469,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tom Ford STACY 452 02G Matte Black / Gold Mirrored Sunglasses TF452 02G 57mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Item exactly as described. Shipped quickly. Thank you!</t>
+          <t>Nice product.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Buyer: o***a</t>
+          <t>Buyer: r***a</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3499,17 +3496,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0113 R010 2721</t>
+          <t>Tag Heuer 27 Degree 6041 Matte Black / Gray Polyvalent Sunglasses TH6041 101</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Awesome! I'm buying another pair!</t>
+          <t>I bought my second pair of these. A happy purchase and service. Thank you.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Buyer: d***d</t>
+          <t>Buyer: m***w</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3526,17 +3523,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Orgreen HAYES 781 Matte Blue Nights / Matte True Red Titanium Eyeglasses 51mm</t>
+          <t>Adidas A621 40 6053 Red Eyeglasses 621 406053 50mm</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Item arrived as described.  Thanks</t>
+          <t>Item exactly as described and shipping was very quick. Thank you!</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Buyer: l***d</t>
+          <t>Buyer: k***k</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3553,17 +3550,18 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FENDI FF 0223 000 Rose Gold Eyeglasses 49mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Wow so perfect!!!</t>
+          <t>Top quality!! Very Happy!! Fantastic item! 
+Super quick post! Excellent top seller! Best quality product !!</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Buyer: 3***i</t>
+          <t>Buyer: d***r</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3580,17 +3578,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Serengeti TREVISO 24h LEMANS Satin Gold / Drivers Sunglasses 8484</t>
+          <t>Tom Ford 5415 001 Black Eyeglasses TF5415 001 50mm</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fantastic product at a great price ,super fast and free shipping ,very pleased ,great seller thank you very much .</t>
+          <t>Five star seller.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Buyer: e***h</t>
+          <t>Buyer: n***f</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3607,17 +3605,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Serengeti Pisa Shiny Black Polarized Drivers Sunglasses 6823 62mm</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rare item, quick delivery. Thanks.</t>
+          <t>Accurately photographed and described! Great bargain.It is so pretty and soft. It was packaged very nicely and included a personal thank you.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Buyer: a***r</t>
+          <t>Buyer: a***0</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3634,17 +3632,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Bolle Hamilton Shiny Black / True Neutral Smoke TNS Sunglasses 11282</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Good contact and information, product as described, international shipping was good value but a bit later than the estimate</t>
+          <t>Just as advertised. Quick shipping and a few freebies.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Buyer: e***v</t>
+          <t>Buyer: w***r</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3661,17 +3659,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Tag Heuer 823 004 Automatic Blue Gray Eyeglasses TH823-004 52mm</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Thank you !</t>
+          <t>Very fast shipping!</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Buyer: k***7</t>
+          <t>Buyer: k***e</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3688,17 +3686,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Serengeti Dante Shiny Dark Gunmetal / Drivers Sunglasses 7888 63mm</t>
+          <t>MONTBLANC MB593 01D Shiny Black / Gray Polarized Sunglasses MB 593 01D</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Great, fast service. The glasses are everything I wanted!!!</t>
+          <t>Everything came as expected. A+</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Buyer: 7***p</t>
+          <t>Buyer: y***n</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3715,17 +3713,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DITA NOMAD Navy Gold / Brown Gradient Sunglasses DRX-2080-D-T 51mm 2080 D</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>excellent!</t>
+          <t>A+++ Seller. Gr8 quality product , very reasonably priced &amp; delivery was quick. Thank u.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Buyer: 5***_</t>
+          <t>Buyer: a***4</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3742,17 +3740,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tom Ford Carla 157 48F Brown / Brown Gradient Sunglasses TF157 48F 66mm</t>
+          <t>ZERORH+ FUXION Matte Black / Grey Polarized Sunglasses RH777-04 CARL ZEISS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Absolutely what I wanted! Thank you &amp; I'll be ordering from you again!</t>
+          <t>super!!!</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Buyer: t***a</t>
+          <t>Buyer: l***t</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3769,19 +3767,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Tom Ford 5757 052 Dark Havana / Blue Block Eyeglasses TF5757-B 052 52mm</t>
+          <t>Moncler MC507-05 Crystal / Brown Pelvoux Sunglasses MC 507-05</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Perfect transaction in every way. 
-Thanks a lot . 
-Recommended eBay seller .</t>
+          <t>Great experience. Great value. Great customer service.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Buyer: a***m</t>
+          <t>Buyer: g***t</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3798,17 +3794,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SERENGETI LUCA Shiny Black Polarized Phd Drivers Sunglasses 7799</t>
+          <t>Adidas AF20 00 6058 INVOKE Onix / Black Eyeglasses AF20 006058 54mm</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Great glasses. Good service thanks</t>
+          <t>Awesome!</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Buyer: j***j</t>
+          <t>Buyer: ****w</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3825,17 +3821,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Serengeti VOLARE 8494 Satin Black / Polarized Drivers Sunglasses Folding 54mm</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Extremely fast shipping ! The extras were a very nice and unexpected touch.  Thank you for an excellent transaction.  Would not hesitate to buy from you again.</t>
+          <t>Excellent. Very fast shipping. Many thanks.</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Buyer: p***8</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3852,17 +3848,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Orgreen INCEPTION 5P Sandblasted Penta Grey Titanium 56mm</t>
+          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>One of if not the best Seller on eBay, shipping is fast, items as described and communication was outstanding. 10/10</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Buyer: c***e</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3879,17 +3875,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tag Heuer URBAN 551 002 Shiny Black Red Eyeglasses T551-002 57mm</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Excellent transaction, Great seller, Highly recommended!  A+++</t>
+          <t>Excellent. Very fast shipping. Many thanks.</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3906,17 +3902,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FLEXON 178 Havana Natural Eyeglasses HAVNAT 46mm Marchon</t>
+          <t>Adidas A628 40 6053 Chocolate Brown Eyeglasses 628 406053 55mm</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Thank You ...</t>
+          <t>as described</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Buyer: 7***7</t>
+          <t>Buyer: w***_</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3933,17 +3929,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Serengeti STRATO Satin Black / Polarized Phd Sedona Sunglasses 7681 64mm</t>
+          <t>ZERORH+ ZETHA Matte Black / Green Sunglasses RH771-02 ZEISS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>As described Thank you</t>
+          <t>The best seller on the ebay!!!! Thank you!</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Buyer: 8***5</t>
+          <t>Buyer: e***n</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3960,17 +3956,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tom Ford Whitney Shiny Black / Polarized Gray Sunglasses TF009 01D TF9 64 mm</t>
+          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 56mm</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Item exactly as described. great communication. Def buy from again A++</t>
+          <t>Bin so froh dieses Gestell bekommen zu haben! Dann noch zu einem mega Preis. Die Lieferung war super schnell innerhalb von 11 Tagen. 19 Tage eher als angekündigt. Ich würde bei Sunraycity jederzeit wieder kaufen!</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Buyer: a***2</t>
+          <t>Buyer: v***8</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3987,17 +3983,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tom Ford William Silver Gunmetal / Green Polarized Sunglasses TF207 14R</t>
+          <t>Tom Ford 5694 030 Clear Gold Eyeglasses TF5694 030 54mm</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Arrived early. Many thanks a+++</t>
+          <t>Quality of the glasses is great! I found this style while visiting my optometry and the price is insane even with insurance. I'm so glad I was able to find a seller who has a reasonable priced stock. Thank you very much!</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Buyer: e***3</t>
+          <t>Buyer: i***n</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4014,17 +4010,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Silhouette TITAN DYNAMICS 2877 Blue Oval Eyeglasses 606058 47mm</t>
+          <t>Adidas AF13 50 6056 STREAMLIGHT Black Eyeglasses AF13 506056 52mm</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Seller contacted me to answer my questions and explain frame measurements to me and was extremely helpful.  Frames arrived earlier than promised and in the promised condition.  Seller then got back to me with an additional item that I had been looking for and couldn’t find!  I will be ordering another pair of frames from this seller right away.  Bravo!</t>
+          <t>Nice looking item. Fast delivery, thank you</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Buyer: s***i</t>
+          <t>Buyer: r***a</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4041,17 +4037,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Adidas AF22 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF22 406053 54mm</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>It's all good....</t>
+          <t>Arrived well in advance. Great vendor. Thank you.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Buyer: b***t</t>
+          <t>Buyer: j***.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4068,17 +4064,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Tom Ford Colette Gunmetal Black / Gray Gradient Sunglasses TF250 08C</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>It's all good....</t>
+          <t>Fast shipping, thanks!</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Buyer: b***t</t>
+          <t>Buyer: 1***e</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4095,17 +4091,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Serengeti 7873 LUCA / LIPARI / NUVINO / NUVOLA / ROTOLARE Nose Pads &amp; Screws</t>
+          <t>Tag Heuer 0552-005 B URBAN Matte Black Red Eyeglasses TH552-005 57mm</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Items lost in post and seller couldn't have been more helpful sorted it all out. Safe seller.</t>
+          <t>Best seller, really recommended</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Buyer: n***6</t>
+          <t>Buyer: g***b</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4122,17 +4118,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Serengeti 7873 LUCA / LIPARI / NUVINO / NUVOLA / ROTOLARE Nose Pads &amp; Screws</t>
+          <t>Tod's 28 5901F Shiny Black / Gradient Brown Sunglasses TO 0028 01F</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Item as described. Fast shipping. Thank you!</t>
+          <t>Thank you very much for your fast &amp; easy transaction</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Buyer: r***a</t>
+          <t>Buyer: 8***s</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4149,17 +4145,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Silhouette TITAN DYNAMICS 2877 Matte Black Oval Eyeglasses 506057 47mm</t>
+          <t>MONTBLANC MB0732 016  Shiny Palladium Eyeglasses MB 732 016 51mm</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Excellent communication. Great product. Fast shipping. Thank you!</t>
+          <t>Very nice product, fast shipping.</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Buyer: 1***e</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4176,17 +4172,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bolle VANADIUM Matte Silver Polarized Cobaltz Sunglasses 3-906-246-116 61mm</t>
+          <t>Adidas AF22 50 6054 INVOKE Black Eyeglasses AF22 506054 54mm</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Recived exactly what is listed.</t>
+          <t>Thank You very much, again, best experience.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Buyer: p***x</t>
+          <t>Buyer: s***v</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4203,17 +4199,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>VUARNET Shiny Black / Polarized Gray PC 2000 Sunglasses VL 1307 0001 1721 55mm</t>
+          <t>St Dupont 721 6052 Silver / Green Sunglasses 65mm</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Fast delivery!!!</t>
+          <t>Item exactly as described, came quicker than expected. Thanks for a smooth transaction!</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Buyer: m***o</t>
+          <t>Buyer: 2***a</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4230,17 +4226,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tag Heuer RACER 9205 Matte Black / Green Polarized Sunglasses TH9205 301 65mm</t>
+          <t>Adidas A674 40 6060 Copper Eyeglasses 674 406060 50mm</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Awesome thank you  quick service</t>
+          <t>A+ Seller!</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Buyer: v***n</t>
+          <t>Buyer: d***1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4257,17 +4253,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Serengeti Luigi Gun Black Tannery / Polarized Green Sunglasses 7382 60mm</t>
+          <t>Tom Ford William 207 09J Gunmetal Gray / Brown Aviator Sunglasses TF207 09J</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Pleased to deal with you</t>
+          <t>Xactly as promised.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Buyer: v***l</t>
+          <t>Buyer: 1***0</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4284,17 +4280,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Serengeti 8423 Brera / Verdi Screw and Washer Kit 8423SP</t>
+          <t>Tom Ford 5313 098 Green Horn Eyeglasses TF5313 098 55mm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Thanks!  As described</t>
+          <t>Incredibly grateful to this seller! Frames were perfect and they were able to expedite the shipping for me so I could get my prescription made in time for a trip. Thank you!</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Buyer: x***2</t>
+          <t>Buyer: b***a</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4306,23 +4302,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Neutral feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tom Ford ELIOTT Black Gold / Gray Gradient Sunglasses TF335 01P</t>
+          <t>St Dupont 728 6052 Matte Silver / Blue Sunglasses 70mm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>For a branded new item, the true packaging is poor. The box is missing and the case does not close properly .. 
-Other items included were scattered in the shipping envelope.</t>
+          <t>Got refund quickly after item was returned</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Buyer: y***5</t>
+          <t>Buyer: 8***j</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4339,17 +4334,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Orgreen Denmark TAURUS 758 Matte Fog Grey Titanium Eyeglasses 50mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>thanx</t>
+          <t>Exactly what I needed. This was perfect &amp; in excellent condition.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Buyer: o***l</t>
+          <t>Buyer: l***c</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4366,17 +4361,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Serengeti Da Vinci Henna / Sedona Sunglasses 6729 52mm</t>
+          <t>Tom Ford Eliott Black Silver / Blue Gradient Sunglasses TF335 02W</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Great specs and wonderful seller to deal with .Thank you. AAAAAAA+++++++</t>
+          <t>Nice sunglasses, thank u.</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Buyer: l***_</t>
+          <t>Buyer: _***d</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4393,17 +4388,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tag Heuer 3583 003 AUTOMATIC Matte Black Dark Brown Eyeglasses TH3583 003 61mm</t>
+          <t>Tag Heuer Ayrton Senna 0253 Matte Black / Green Outdoors Sunglasses TH 253 301</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Great glasses. Fast communication and shipping. Great seller.</t>
+          <t>Excellent service ! FAST DELIVERY!!  Thanks.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Buyer: z***j</t>
+          <t>Buyer: 0***1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4420,17 +4415,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>MONCLER MC023-V02 White Gold Eyeglasses MC 023-V02</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Product was advertised as polarized, but I thought it wasn’t. Sent message to seller. Really quick and polite response. Was indeed non-polarized, so ad wasn’t correct. Package dispatched directly after order and payment. Product received well packaged. Happy.</t>
+          <t>Great transaction. Highly recommended seller</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Buyer: s***o</t>
+          <t>Buyer: x***o</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4447,17 +4442,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Tom Ford 685 Julie Shiny Black Dark Havana / Brown Sunglasses TF685 05E 52mm</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>A++++++++</t>
+          <t>Excellent shopping experience.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4474,17 +4469,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tom Ford MARKO Gunmetal / Gray Sunglasses TF144 08B 58mm</t>
+          <t>MontBlanc Silver Black / Gray Sunglasses MB458S 16B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Authentic Tom Fords, Fast shipping!</t>
+          <t>Excellent product, though not in original box. But otherwise great.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Buyer: t***h</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4501,17 +4496,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tag Heuer 8109 013 TRENDS Gray Black Titanium Eyeglasses TH8109-013 56mm</t>
+          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Many Thanks A++++ 💫💫💫💫💫 Awesome, Really fast delivery.</t>
+          <t>Excellent frames as described. Thank you!</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Buyer: 8***s</t>
+          <t>Buyer: v***v</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4528,17 +4523,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tag Heuer REFLEX 3051 002 Shiny Black Red Eyeglasses 3051-002 49mm</t>
+          <t>Tom Ford Rickie Gold Black / Gray Gradient Sunglasses TF179 01B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Excellent seller, item as described, perfectly packed! Will check out more regularly what they sell. PERFECT! Thank you!</t>
+          <t>Trustworthy seller just as described</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Buyer: g***e</t>
+          <t>Buyer: -***z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4555,17 +4550,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Silhouette TITAN DYNAMICS 2877 Brown Oval Titanium Eyeglasses 406053 44mm</t>
+          <t>CARRERA VENT-X Gray &amp; Brown / Brown Polarized Sunglasses 6CL PK</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Great with nice extras !  Very much appreciated !</t>
+          <t>Good deal thank you</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Buyer: a***7</t>
+          <t>Buyer: 3***p</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4582,17 +4577,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>VUARNET Matte Gray / Polarized Brown PC 2000 Sunglasses VL 0120 R011 2721</t>
+          <t>JULBO DIRT Black / Gray Sunglasses 369 122</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Great service.  Thank you!  Speedy shipping!  Great seller!! Great Communication!!</t>
+          <t>Perfect.. thank you!!!</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Buyer: e***x</t>
+          <t>Buyer: a***m</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4609,17 +4604,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tag Heuer Racer 9205 Matte Gray / Gray Polarized Sunglasses TH9205 803 65mm</t>
+          <t>Carrera Carrerino 11 003 Black Yellow / Gray Gradient Sunglasses 55mm</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nice sunglasses..amazing!!</t>
+          <t>Very Fast, Very Friendly  Safe Seller  A+++++  Thank You !</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Buyer: r***m</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4636,17 +4631,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tom Ford Whitney Shiny Black / Polarized Gray Sunglasses TF009 01D TF9 64 mm</t>
+          <t>Tom Ford NIKA Shiny Black / Blue Gradient Sunglasses TF523 01W</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Thank you for your promptness and accurate description! Mahalo!</t>
+          <t>Quick Shipping and just as described!</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Buyer: a***s</t>
+          <t>Buyer: d***i</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4663,17 +4658,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Serengeti Prato Gunmetal / Green 555nm Sunglasses GG6787</t>
+          <t>MontBlanc Gold / Polarized Brown Sunglasses MB703S 32H 703 61mm</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Thanks Lee</t>
+          <t>Moshe of Sunraycity provides excellent service from my initial question to the  dispatching of goods. The item has arrived package with surprise gift and a personal care card. Definitely a business worth supporting.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Buyer: u***r</t>
+          <t>Buyer: t***m</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4690,17 +4685,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tag Heuer Racer 9204 Brown / Precision Brown Polarized Sunglasses TH9204 202</t>
+          <t>Serengeti Trapani Shiny Silver Smoke / 555nm Sunglasses 7603 60mm</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Perfect.fast postage 5 star seller</t>
+          <t>Your package that you sent arrived on time</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Buyer: r***t</t>
+          <t>Buyer: t***v</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4717,17 +4712,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Serengeti Prato Gunmetal / Green 555nm Sunglasses GG6787</t>
+          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Expédition rapide et emballage soigné. Merci</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Buyer: o***4</t>
+          <t>Buyer: l***p</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4744,17 +4739,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tom Ford HUCK 665 53V Havana Gold / Blue Sunglasses TF665-53V 58mm</t>
+          <t>Bolle Stormy Shiny Black TNS Sunglasses 11177</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Bought a few Items from here and have always been excellent!</t>
+          <t>Authentic product. Fast shipping and great transaction. Thank you!</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Buyer: c***1</t>
+          <t>Buyer: 6***i</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4771,17 +4766,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Barton Perreira GINSBERG Gold Eyeglasses GOL 46mm</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Great transaction!</t>
+          <t>Great eyeglasses + excellent transaction. Thank you!</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Buyer: g***_</t>
+          <t>Buyer: 2***e</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4798,17 +4793,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Serengeti VERONA 7306 Pearl / Drivers Sunglasses 60mm</t>
+          <t>Serengeti Assisi Matte Brown / Polarized Phd Drivers Sunglasses 7996</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Good Deal Thanks!!</t>
+          <t>Fast delivery, good communication</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Buyer: 9***i</t>
+          <t>Buyer: o***s</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4825,18 +4820,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tom Ford 5747 001 Shiny Black Gold / Blue Block Eyeglasses TF5747 001 54mm</t>
+          <t>Tom Ford 5430 052 Dark Havana Eyeglasses TF5430 052 56mm</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Love the package!  Great glasses at a bargain price.
-Plus excellent customer service.</t>
+          <t>Very easy deal and fast delivery. Thanks!</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Buyer: 4***a</t>
+          <t>Buyer: p***r</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4853,17 +4847,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Serengeti TREVISO 24h LEMANS Satin Gold / Drivers Sunglasses 8484</t>
+          <t>Tom Ford 5272-005 Black Gold Eyeglasses TF5272 005 53mm</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Great pair of sunglasses. Is my favorite Serengettis. Thank you! 5*****</t>
+          <t>Great service!</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Buyer: i***a</t>
+          <t>Buyer: r***1</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4880,17 +4874,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FLEXON 659 Blue Shadow Eyeglasses 659-412 50mm Marchon</t>
+          <t>Serengeti TREVISO 24h LEMANS Satin Gunmetal / Green Polarized Sunglasses 8483</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>A++++</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Buyer: y***m</t>
+          <t>Buyer: 6***0</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4907,17 +4901,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FLEXON 43 Tortoise Antique Brown Oval Eyeglasses Autoflex 47mm TORBRN Marchon</t>
+          <t>Tag Heuer 842 008 Automatic Matte Blue Gray Eyeglasses TH842-008 54mm</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>I would buy again from this seller!!!!</t>
+          <t>Great dealer, A++++++++++++ product, fast shipping</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Buyer: e***0</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4934,17 +4928,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>VUARNET Matte Gray / Polarized Brown PC 2000 Sunglasses VL 0120 R011 2721</t>
+          <t>Serengeti Martino Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Great ebayer</t>
+          <t>Producto en excelente estado</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Buyer: l***h</t>
+          <t>Buyer: 9***g</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4961,17 +4955,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0113 R010 2721</t>
+          <t>Tom Ford 5628 005 Asian Fit Shiny Black / Blue Block Eyeglasses TF5628 005 54mm</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>all well received as described</t>
+          <t>Thanks!</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Buyer: m***z</t>
+          <t>Buyer: m***m</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4988,17 +4982,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Spy Hailwood Shiny Black / Gray Sunglasses</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>I liked them so much, I bought another pair!</t>
+          <t>Fast shipping!!! Great sunglasses!!!!</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Buyer: g***_</t>
+          <t>Buyer: 0***r</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5015,17 +5009,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tag Heuer 3942 013 REFLEX Titanium Gray Silver Eyeglasses TH3942-013 60mm</t>
+          <t>Tom Ford 5353 001 Shiny Black Gold Eyeglasses TF5353 001 52mm</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>great seller</t>
+          <t>Amazing seller, well packaged, speedy shipping, highly recommended A++++++++++++++</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Buyer: d***n</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5042,17 +5036,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tom Ford Dimitry Matte Black / Blue Gradient Sunglasses TF334 02W</t>
+          <t>Tom Ford Magnus Gold / Brown Sunglasses TF193 28E</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Glasses were bomb!</t>
+          <t>Excellent seller and exceptional team.  Smooth transaction and highly recommended.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Buyer: j***s</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5069,17 +5063,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tom Ford MIRANDA Shiny Gunmetal / Gray Gradient Sunglasses TF130 08B 68mm</t>
+          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Love my Sunglasses, great seller! super fast shipping. Highly recommend!</t>
+          <t>Best seller ever, amazing communication, highly recommended</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Buyer: d***l</t>
+          <t>Buyer: _***l</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5096,17 +5090,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tom Ford JAKE 827 28B Rose Gold / Gray Gradient Sunglasses TF827 28B 56mm</t>
+          <t>Serengeti Luigi Gun Black Tannery / Polarized Green Sunglasses 7382</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Very fast shipper!</t>
+          <t>pleased to deal with you. I'm definitely a fan of Serengeti. Perfect pair of sunglasses.</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Buyer: c***1</t>
+          <t>Buyer: v***l</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5123,17 +5117,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tag Heuer 8108 014 TRENDS Orange Eyeglasses TH8108-014 54mm</t>
+          <t>Adidas A3 40 6051 Copper Brown Eyeglasses A003 40 6051 50mm</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Alles in Ordnung - 1A Qalität - schnelle Lieferung - gerne wieder - vielen Dank</t>
+          <t>Got it plus some nice bonus items with my glasses frames.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Buyer: n***g</t>
+          <t>Buyer: p***7</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5150,17 +5144,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tom Ford MIRANDA 130 28B Rose Gold / Gray Gradient Sunglasses TF130 28B 68mm</t>
+          <t>Tom Ford 5527 066 Red Eyeglasses TF5527 066 50mm</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Alles super, immer wieder gerne!</t>
+          <t>GREAT TRANSACTION!!</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Buyer: s***t</t>
+          <t>Buyer: l***6</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5177,17 +5171,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SILHOUETTE 1565 Purple Rimless Eyeglasses 406051 53mm SMALL</t>
+          <t>Barton Perreira REECE Black / Vintage Blue Sunglasses BLA VBL 52mm</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>perfect transaction!!!!  I lost my set like these and have been looking for another pair just like them for almost a year. I finally found them and they are perfect.!!!! thank you so much!!!</t>
+          <t>Perfect Seller and Transaction.  5*****</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Buyer: _***c</t>
+          <t>Buyer: 0***0</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5204,17 +5198,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Celine CL 400191 01C Black / Gray Mirror Sunglasses 56mm</t>
+          <t>Serengeti Strato Satin Black / Polarized Phd Sedona Sunglasses 7681</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Got here fast and a genuine product! Love my sunglasses thank you</t>
+          <t>Just what I ordered. Thank you.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Buyer: t***s</t>
+          <t>Buyer: r***c</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5231,17 +5225,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tag Heuer 3941 011 REFLEX Titanium Gray Silver Eyeglasses TH3941-011 56mm</t>
+          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>great seller</t>
+          <t>Lightning fast shipping and great transaction.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Buyer: d***n</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5258,17 +5252,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Serengeti NUVINO Shiny Brown / Polarized Phd Drivers Sunglasses 7316</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>Great transaction, thank you</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Buyer: l***-</t>
+          <t>Buyer: j***j</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5285,17 +5279,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Serengeti 7873 LUCA / LIPARI / NUVINO / NUVOLA / ROTOLARE Nose Pads &amp; Screws</t>
+          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>fit ok</t>
+          <t>EXCELLENT FAST SELLER !!  ITEM EXACTLY AS DESCRIBED.  FULLY LEGIT ...</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Buyer: u***h</t>
+          <t>Buyer: .***.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5312,17 +5306,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0109 0001 2721 65mm</t>
+          <t>Serengeti NUVINO Shiny Black / Polarized Phd Cool Photo Gray CPG Sunglasses 7318</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fast shipping</t>
+          <t>Thanks item as described and shipped fast.  Thanks.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Buyer: 2***3</t>
+          <t>Buyer: h***e</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5339,17 +5333,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Serengeti VELOCITY 6691 Black / Drivers Gradient Sunglasses 60mm</t>
+          <t>Serengeti Larino Carbon Fiber / Polarized Phd CPG Sunglasses 7710</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Exactly as described,  very well packed, fast shipping</t>
+          <t>Thank You!!</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Buyer: i***r</t>
+          <t>Buyer: o***3</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5366,17 +5360,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tom Ford Dylan Shiny Black  Havana / Green Sunglasses TF446 05N</t>
+          <t>Tom Ford Nicholai Gold / Brown Sunglasses TF189 28J James Bond</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Excellent seller!!!!!!!!! Amazing!!!!!!</t>
+          <t>Very happy and arrived within a few weeks</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Buyer: s***h</t>
+          <t>Buyer: u***s</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5393,17 +5387,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tom Ford 5747 055 Dark Havana Blue / Blue Block Eyeglasses TF5747 055 54mm</t>
+          <t>Tom Ford 5475 32E Gold Eyeglasses TF5475-32E with Magnetic Brown Clip 54mm</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Excellent communication, exactly as described, unbelievable price - Fantastic seller! A+++</t>
+          <t>Fantastic, love these Glasses… very good company and will certainly purchase from them again</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Buyer: c***d</t>
+          <t>Buyer: b***a</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5420,17 +5414,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DITA Bluebird Two Brown Swirl Gold / Brown Gradient Sunglasses DRX-21011-B 65mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Love love love my new Dita sunnies. They arrived sooner than expected and are perfect! Thanks so much.</t>
+          <t>Great seller...item exactly as presented.. thank you</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Buyer: w***w</t>
+          <t>Buyer: a***p</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5447,17 +5441,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tag Heuer Ayrton Senna 0253 Black Yellow / Polarized Gray Sunglasses TH 253 111</t>
+          <t>Tom Ford 5420 074 Matte Pink Rose Eyeglasses TF5420 074 54mm</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Product as advertised. Promptly shipped</t>
+          <t>Beautiful frames!</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Buyer: 9***6</t>
+          <t>Buyer: d***a</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5474,17 +5468,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>VUARNET Shiny Black / Polarized Gray PC 2000 Sunglasses VL 1307 0001 1721 55mm</t>
+          <t>Bolle Vortex Shiny Black / Gray PC True Neutral Smoke TNS Sunglasses 11858</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>alles bestens..</t>
+          <t>Great sunglasses thanks !!!</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Buyer: d***l</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5501,17 +5495,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bolle Performance Parole Sunglasses Matte Black/A-SES 4 Lens Set</t>
+          <t>Tom Ford 5527 052 Havana Eyeglasses TF5527 052 50mm</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Excellent customer service interaction. Excellent product, exactly as described. Supper fast shipping. I recommend this seller and their products.</t>
+          <t>Good product</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Buyer: -***h</t>
+          <t>Buyer: c***a</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5528,17 +5522,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tag Heuer Ayrton Senna Racer 9205 Black &amp; Yellow / Gray Sunglasses TH9205 108</t>
+          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tal y como se describe en el anuncio llegó antes de tiempo volveré a comprar</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Buyer: o***m</t>
+          <t>Buyer: c***a</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5555,17 +5549,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Serengeti LEANDRO GLACIER Satin Tortoise / Polarized Drivers Sunglasses 8587</t>
+          <t>Tom Ford 5586-B 052 Havana Blue Block Eyeglasses TF5586 052 56mm</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Venditore affidabile, serio e veloce nella spedizione++++saluti dall'Italia</t>
+          <t>Everything was as expected and communicated. Very happy!</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Buyer: n***_</t>
+          <t>Buyer: m***a</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5582,17 +5576,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>VUARNET Matte Black / Polarized Brown PC 2000 Sunglasses VL 0113 R010 2721</t>
+          <t>Tom Ford BRADBURY Shiny Rose Gold / Gray Sunglasses TF525 28A</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Perfect, as described. Quick shipping!!</t>
+          <t>Great seller, great quality, received cleaning agent as well and item came way before time.</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Buyer: n***u</t>
+          <t>Buyer: p***0</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5609,17 +5603,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Serengeti SARCA Tortoise / Sedona Polarized Sunglasses 6966</t>
+          <t>Barton Perreira GINSBERG Matte Black Eyeglasses MAB 46mm</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>A+Fast Shipping! Great Deal! Thanks CB!🤘🏻</t>
+          <t>++++++++++++++ as advertised +++++++++++++</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Buyer: u***a</t>
+          <t>Buyer: u***l</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5636,17 +5630,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tom Ford ELIOTT Black Gold / Gray Gradient Sunglasses TF335 01P</t>
+          <t>Serengeti Verucchio Shiny Black / Polarized Phd CPG Sunglasses 7440</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>love them!! thank you for amazing communication, and great product -  WILL BE BACKKK</t>
+          <t>I got it. thanks.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Buyer: g***t</t>
+          <t>Buyer: l***a</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5663,17 +5657,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Serengeti 7873 LUCA / LIPARI / NUVINO / NUVOLA / ROTOLARE Nose Pads &amp; Screws</t>
+          <t>Tom Ford 5346 052 Dark Havana Eyeglasses TF5346 052 53mm</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Thanks for the super fast shipping! You took great care in packaging. I’ll take it from here. 😊👍🏽</t>
+          <t>Speedy shipping, careful packaging, will do business again!</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Buyer: g***i</t>
+          <t>Buyer: h***a</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5690,17 +5684,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tom Ford Dylan Shiny Black  Havana / Green Sunglasses TF446 05N</t>
+          <t>Spy Logan Shiny Black / Gray Sunglasses</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Satisfied customer, legit product, very fast shipping</t>
+          <t>wonderful seller,  I highly recommend others to this seller, wonderful communication and service,  I'm very happy with my purchase,  thank you. It fits perfect, will definitely buy another.</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Buyer: m***e</t>
+          <t>Buyer: d***d</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5717,17 +5711,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tom Ford Dylan Shiny Black  Havana / Green Sunglasses TF446 05N</t>
+          <t>Persol 3097S 101857 Light Brown / Brown Polarized Sunglasses PO3097</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Excellent seller!!!!!!!!! Amazing!!!!!!</t>
+          <t>They included a free mask!</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Buyer: s***h</t>
+          <t>Buyer: m***k</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5744,17 +5738,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Serengeti TREVISO 24h LEMANS Satin Gunmetal / Green Polarized Sunglasses 8483</t>
+          <t>Serengeti Dante Shiny Silver / 555nm Green Sunglasses 7314</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Excellent seller. Item as described. Fast shipment. Highly recommended.</t>
+          <t>Very fast shipping with great communication!!</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Buyer: m***a</t>
+          <t>Buyer: v***v</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5771,17 +5765,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Serengeti Luigi Espresso Brown Tannery / Polarized Drivers Sunglasses 7381 60mm</t>
+          <t>MONCLER MC019-V01 Gray Eyeglasses MC 019-V01</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>A+ Would purchase again</t>
+          <t>Very happy with item, thank you.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Buyer: c***c</t>
+          <t>Buyer: t***i</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5793,22 +5787,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Neutral feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tom Ford MIRANDA Rose Gold Ivory / Brown Gradient Sunglasses TF130 28F 68mm</t>
+          <t>Tom Ford ARNAUD 625 52V Havana Gold / Blue Sunglasses TF625 52V 53mm</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>the sunglasses are nice , but it leaves marks on your nose after wearing them .I have cheaper glasses that doesn't do that</t>
+          <t>AAA+++ Great seller!</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Buyer: o***g</t>
+          <t>Buyer: d***d</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5825,17 +5819,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Serengeti Pisa Shiny Black Polarized Drivers Sunglasses 6823 62mm</t>
+          <t>Tom Ford Marko Gunmetal / Gray Sunglasses TF144 08B</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Thank you, item as described</t>
+          <t>very happy with the purchase and experience.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Buyer: a***1</t>
+          <t>Buyer: 2***r</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5852,17 +5846,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>VUARNET Shiny Black / Polarized Gray PC 2000 Sunglasses VL 1307 0001 1721 55mm</t>
+          <t>Tom Ford NIKA Black Ivory / Gray Gradient Sunglasses TF523 01B</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Great seller A++++</t>
+          <t>Beautiful item</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Buyer: m***i</t>
+          <t>Buyer: w***0</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">

--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
+          <t>Adidas AF37 106055 Matte Black / Blue Eyeglasses AF37 10 6055 52mm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Great item, great quality. Fast sender</t>
+          <t>The frames were exactly as described and I received them in a timely manner!! Would purchase from seller again!!!</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Buyer: c***d</t>
+          <t>Buyer: s***1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carrera Champion Rubber Black / Gray Sunglasses BIL 62mm</t>
+          <t>Tom Ford 5516 055 Light Havana Gold / Blue Block Eyeglasses TF5516 055 48mm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Item exactly as described, fast shipping A+</t>
+          <t>Awesome. Thank y</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Buyer: c***7</t>
+          <t>Buyer: o***b</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
+          <t>Tom Ford 5873 005 Shiny Black Tortoise / Blue Block Eyeglasses TF5873-B 005 49mm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Very nice item and the shipping was very quick.  I would definitely recommend this seller and I would not hesitate to deal with again in the future.</t>
+          <t>Thanks for a great pair of glasses. Quick shipping!!!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buyer: 6***t</t>
+          <t>Buyer: 7***1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,17 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tom Ford 5587-B 053 Tortoise / Blue Block Eyeglasses TF5587 053 53mm</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Really good communication with seller, very helpful, despatched quickly, item exactly as described. Recommended</t>
+          <t>Great item, great quality. Fast sender</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buyer: v***d</t>
+          <t>Buyer: c***d</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZERORH+ TITANO Silver Gray Titanium Eyeglasses RH195-01 55mm</t>
+          <t>Carrera Champion Rubber Black / Gray Sunglasses BIL 62mm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Love them!</t>
+          <t>Item exactly as described, fast shipping A+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buyer: 1***o</t>
+          <t>Buyer: c***7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tom Ford 5313 001 Shiny Black Eyeglasses TF5313 001 55mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Super service and super glasses! Thank you</t>
+          <t>Very nice item and the shipping was very quick.  I would definitely recommend this seller and I would not hesitate to deal with again in the future.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Buyer: o***k</t>
+          <t>Buyer: 6***t</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tag Heuer 501 004 Tortoise Brown Eyeglasses TH501-004 Spring Hinges 57mm</t>
+          <t>Tom Ford 5587-B 053 Tortoise / Blue Block Eyeglasses TF5587 053 53mm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Item as pictured and described</t>
+          <t>Really good communication with seller, very helpful, despatched quickly, item exactly as described. Recommended</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Buyer: u***s</t>
+          <t>Buyer: v***d</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Pewter Matte Black / Blue Gradient Sunglasses MDT PEW STB</t>
+          <t>ZERORH+ TITANO Silver Gray Titanium Eyeglasses RH195-01 55mm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Item arrived promptly and as described</t>
+          <t>Love them!</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Buyer: 0***7</t>
+          <t>Buyer: 1***o</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tom Ford 5590-B 052 Havana Ruthenium / Blue Block Eyeglasses TF5590 052 50mm</t>
+          <t>Tom Ford 5313 001 Shiny Black Eyeglasses TF5313 001 55mm</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Highly recommended</t>
+          <t>Super service and super glasses! Thank you</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buyer: c***f</t>
+          <t>Buyer: o***k</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
+          <t>Tag Heuer 501 004 Tortoise Brown Eyeglasses TH501-004 Spring Hinges 57mm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bought these to replace another set of frames (same model) that I've had for many years. They're very comfortable, and I'm relieved to have found an identical replacement. Item arrived several weeks before the estimated delivery date. Thanks!</t>
+          <t>Item as pictured and described</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Buyer: 5***a</t>
+          <t>Buyer: u***s</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Past month</t>
+          <t>Past 6 months</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tag Heuer AUTOMATIC 883 203 Chocolate / Brown Outdoors Sunglasses TH0883 203</t>
+          <t>Barton Perreira HEIST Pewter Matte Black / Blue Gradient Sunglasses MDT PEW STB</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thank you!</t>
+          <t>Item arrived promptly and as described</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Buyer: t***7</t>
+          <t>Buyer: 0***7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
+          <t>Tom Ford 5590-B 052 Havana Ruthenium / Blue Block Eyeglasses TF5590 052 50mm</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Excellent quality, good price and fast shipping</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Buyer: 0***e</t>
+          <t>Buyer: c***f</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tom Ford 5474 32E Gold Eyeglasses + Brown Clip TF5474-32E 53mm</t>
+          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Top class, thanks</t>
+          <t>Bought these to replace another set of frames (same model) that I've had for many years. They're very comfortable, and I'm relieved to have found an identical replacement. Item arrived several weeks before the estimated delivery date. Thanks!</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: 5***a</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -819,17 +819,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 54mm</t>
+          <t>Tag Heuer AUTOMATIC 883 203 Chocolate / Brown Outdoors Sunglasses TH0883 203</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Aritkel kam wie beschrieben und sehr gut verpackt an.</t>
+          <t>Thank you!</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: t***7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -846,17 +846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tag Heuer 3052 003 Reflex Gray Eyeglasses TH3052-003 47mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thank you very much</t>
+          <t>Excellent quality, good price and fast shipping</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tom Ford 5489 052 Havana Eyeglasses TF5489 052 48mm</t>
+          <t>Tom Ford 5474 32E Gold Eyeglasses + Brown Clip TF5474-32E 53mm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thank you so much for getting me these frames in such a timely fashion. Your process from start to finish was outstanding and I love my new frames again thanks for a positive experience!!!</t>
+          <t>Top class, thanks</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Buyer: 4***t</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MONCLER MC014-V03 Green Gunmetal Titanium Eyeglasses MC 014-V03 52mm</t>
+          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 54mm</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>I positively love these frames!! Just wish they came with original case.</t>
+          <t>Aritkel kam wie beschrieben und sehr gut verpackt an.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Buyer: a***n</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
+          <t>Tag Heuer 3052 003 Reflex Gray Eyeglasses TH3052-003 47mm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>It was great experience and product, bought it for my husband and he loved them</t>
+          <t>Thank you very much</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Buyer: o***o</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
+          <t>Tom Ford 5489 052 Havana Eyeglasses TF5489 052 48mm</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fast shipping...thank you.</t>
+          <t>Thank you so much for getting me these frames in such a timely fashion. Your process from start to finish was outstanding and I love my new frames again thanks for a positive experience!!!</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: 4***t</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lacoste Eyeglasses Sunglasses Medium Green Hard Case With Cloth</t>
+          <t>MONCLER MC014-V03 Green Gunmetal Titanium Eyeglasses MC 014-V03 52mm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Very Fast shipping, good comunnication, great communication A++++</t>
+          <t>I positively love these frames!! Just wish they came with original case.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Buyer: o***d</t>
+          <t>Buyer: a***n</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
+          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>As promised and on time! 5 stars</t>
+          <t>It was great experience and product, bought it for my husband and he loved them</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Buyer: t***_</t>
+          <t>Buyer: o***o</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tom Ford 5408 052 Dark Havana Eyeglasses TF5408 052 56mm</t>
+          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Great quality product!</t>
+          <t>Fast shipping...thank you.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
+          <t>Lacoste Eyeglasses Sunglasses Medium Green Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>On time and as promised</t>
+          <t>Very Fast shipping, good comunnication, great communication A++++</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Buyer: t***_</t>
+          <t>Buyer: o***d</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
+          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Excellent item, low price, and extremely fast shipping</t>
+          <t>As promised and on time! 5 stars</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Buyer: 0***e</t>
+          <t>Buyer: t***_</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MONTBLANC MB0723 001 Shiny Black Eyeglasses MB 723 001 55mm</t>
+          <t>Tom Ford 5408 052 Dark Havana Eyeglasses TF5408 052 56mm</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>as described, would do business with again, AAA+++</t>
+          <t>Great quality product!</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Buyer: r***r</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tom Ford IVANNA 372 53W Havana / Blue Gradient Sunglasses TF372 53W 64mm</t>
+          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pretty</t>
+          <t>On time and as promised</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Buyer: 1***r</t>
+          <t>Buyer: t***_</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1170,17 +1170,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tom Ford NIKA 523 52F Dark Havana / Purple Gradient Sunglasses TF523 52F 56mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Absolutely beautiful. Came with a little cleaning kit. I will buy from here again. 🫶🏼</t>
+          <t>Excellent item, low price, and extremely fast shipping</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Buyer: g***i</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tom Ford 5207 083 Havana Eyeglasses TF5207 083 49mm</t>
+          <t>MONTBLANC MB0723 001 Shiny Black Eyeglasses MB 723 001 55mm</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Professional. Quick and exactly as described.</t>
+          <t>as described, would do business with again, AAA+++</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Buyer: d***r</t>
+          <t>Buyer: r***r</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1224,17 +1224,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZERORH+ FORMULA Brown &amp; Blue Eyeglasses RH222 222-05 53mm</t>
+          <t>Tom Ford IVANNA 372 53W Havana / Blue Gradient Sunglasses TF372 53W 64mm</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Pretty</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: 1***r</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZERORH+ FORMULA Eyeglasses RH217</t>
+          <t>Tom Ford NIKA 523 52F Dark Havana / Purple Gradient Sunglasses TF523 52F 56mm</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>good!</t>
+          <t>Absolutely beautiful. Came with a little cleaning kit. I will buy from here again. 🫶🏼</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: g***i</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tag Heuer 7603-002 Track Brown Havana Orange Eyeglasses TH7603 002 50mm</t>
+          <t>Tom Ford 5207 083 Havana Eyeglasses TF5207 083 49mm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Great seller. Fast shipping. Thank you.</t>
+          <t>Professional. Quick and exactly as described.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Buyer: i***r</t>
+          <t>Buyer: d***r</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
+          <t>ZERORH+ FORMULA Brown &amp; Blue Eyeglasses RH222 222-05 53mm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Great Price, easy transaction and great experience. SunRayCity also included accessories I didn't expect. Nice touch!</t>
+          <t>good</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Buyer: u***r</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tag Heuer 7604 003 Track Navy Blue Gray Eyeglasses 7604-003 56mm</t>
+          <t>ZERORH+ FORMULA Eyeglasses RH217</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Love these frames!</t>
+          <t>good!</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Buyer: n***r</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1359,99 +1359,99 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Tag Heuer 7603-002 Track Brown Havana Orange Eyeglasses TH7603 002 50mm</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Great seller. Fast shipping. Thank you.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Buyer: i***r</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Past 6 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Great Price, easy transaction and great experience. SunRayCity also included accessories I didn't expect. Nice touch!</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Buyer: u***r</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Past 6 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tag Heuer 7604 003 Track Navy Blue Gray Eyeglasses 7604-003 56mm</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Love these frames!</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Buyer: n***r</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Past 6 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Rayban Aviator 3025 L0205 Gold / G-15 Sunglasses Made in Italy 58mm</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>The seller is A+++++++.
 Thank you very much.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Buyer: f***e</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Past 6 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Tom Ford 5421 074 Rose Pink Eyeglasses TF5421 074 53mm</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Excellent brand new frames.Fast delivery, perfect transaction. Thanks</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Buyer: e***1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Past 6 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Serengeti Martino Dark Tortoise / Green Polarized Sunglasses 7528</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>+++TOP+++</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Buyer: e***d</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Past 6 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Tom Ford 5007 Q41 Marble Brown Eyeglasses TF5007 Q41 51mm</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tom Ford 5424 001 Black Eyeglasses TF5424 001 55mm</t>
+          <t>Tom Ford 5421 074 Rose Pink Eyeglasses TF5421 074 53mm</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Flawless transaction!  Was not sure about the size but better than expected!!</t>
+          <t>Excellent brand new frames.Fast delivery, perfect transaction. Thanks</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Buyer: z***e</t>
+          <t>Buyer: e***1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1495,17 +1495,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tom Ford 5762 052 Dark Havana / Blue Block Eyeglasses TF5762-B 052 55mm</t>
+          <t>Serengeti Martino Dark Tortoise / Green Polarized Sunglasses 7528</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Exactly as described, brand new with no defects, came with certificate of authenticity. Lightning fast shipping and delivery plus seller included some extras, such as cleaner and microfibre cloth which is highly appreciated. Would definitely recommend. Wonderful experience, A+++ Thank you !!!</t>
+          <t>+++TOP+++</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Buyer: z***o</t>
+          <t>Buyer: e***d</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1522,17 +1522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
+          <t>Tom Ford 5007 Q41 Marble Brown Eyeglasses TF5007 Q41 51mm</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Great seller.</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Buyer: -***x</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adidas AF23 50 6057 INVOKE Black / Night Flash Eyeglasses AF23 506057 53mm</t>
+          <t>Tom Ford 5424 001 Black Eyeglasses TF5424 001 55mm</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fantastic seller! They ship very quickly and will negotiate if you use the offer button. They are very fair and with the item they include some extras, which is appreciated. Next time I’m looking for frames at an excellent price, I will shop here. Many thanks.</t>
+          <t>Flawless transaction!  Was not sure about the size but better than expected!!</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: z***e</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
+          <t>Tom Ford 5762 052 Dark Havana / Blue Block Eyeglasses TF5762-B 052 55mm</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Exactly what was advertised, with extras I appreciated but didn't expect, such as cleaner and extra microfiber cloths. Would buy from this seller again!</t>
+          <t>Exactly as described, brand new with no defects, came with certificate of authenticity. Lightning fast shipping and delivery plus seller included some extras, such as cleaner and microfibre cloth which is highly appreciated. Would definitely recommend. Wonderful experience, A+++ Thank you !!!</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buyer: 8***7</t>
+          <t>Buyer: z***o</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Carrera 5011 Camouflage Pink / Pink Sunglasses 5011/S 8GW 54mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Happy with the glasses. Prompt delivery.</t>
+          <t>Great seller.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Buyer: i***6</t>
+          <t>Buyer: -***x</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1630,17 +1630,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tom Ford 5375 056 Dark Havana Eyeglasses TF5375 056 Asian Fit 55mm</t>
+          <t>Adidas AF23 50 6057 INVOKE Black / Night Flash Eyeglasses AF23 506057 53mm</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Items arrived as listed. I'll purchase from the seller again.</t>
+          <t>Fantastic seller! They ship very quickly and will negotiate if you use the offer button. They are very fair and with the item they include some extras, which is appreciated. Next time I’m looking for frames at an excellent price, I will shop here. Many thanks.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Buyer: _***_</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tom Ford 5207 005 Dark Brown Eyeglasses TF5207 005 49mm</t>
+          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Thanks!  As described. A+</t>
+          <t>Exactly what was advertised, with extras I appreciated but didn't expect, such as cleaner and extra microfiber cloths. Would buy from this seller again!</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Buyer: s***t</t>
+          <t>Buyer: 8***7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1679,22 +1679,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Negative feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROSHADE Sun Visor Lanyard 3 In 1 Eyewear Case</t>
+          <t>Carrera 5011 Camouflage Pink / Pink Sunglasses 5011/S 8GW 54mm</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nothing against the seller, item was as described but it doesn’t work. Visor does not stay up and straight.</t>
+          <t>Happy with the glasses. Prompt delivery.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Buyer: y***o</t>
+          <t>Buyer: i***6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
+          <t>Tom Ford 5375 056 Dark Havana Eyeglasses TF5375 056 Asian Fit 55mm</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Qualitative good product as described</t>
+          <t>Items arrived as listed. I'll purchase from the seller again.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Buyer: n***i</t>
+          <t>Buyer: _***_</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1738,17 +1738,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tom Ford 5455 056 Havana Amber Oval Eyeglasses TF5455 056 50mm</t>
+          <t>Tom Ford 5207 005 Dark Brown Eyeglasses TF5207 005 49mm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Thanks I love them . I hand them and they were hard to find. 💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿</t>
+          <t>Thanks!  As described. A+</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Buyer: u***5</t>
+          <t>Buyer: s***t</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1760,22 +1760,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Positive feedback rating</t>
+          <t>Negative feedback rating</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tag Heuer 8007 003 Trends Chocolate Havane Black Eyeglasses 8007-003 56mm</t>
+          <t>PROSHADE Sun Visor Lanyard 3 In 1 Eyewear Case</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Quick, highly recommended seller! Thanks!</t>
+          <t>Nothing against the seller, item was as described but it doesn’t work. Visor does not stay up and straight.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Buyer: 2***2</t>
+          <t>Buyer: y***o</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tom Ford 5291 052 Brown Turquoise Eyeglasses TF5291 052 55mm</t>
+          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nice glasses, fast shipping great seller</t>
+          <t>Qualitative good product as described</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Buyer: b***b</t>
+          <t>Buyer: n***i</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1819,17 +1819,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tom Ford 5304 093 Gray Stripe Eyeglasses TF5304 093 54mm</t>
+          <t>Tom Ford 5455 056 Havana Amber Oval Eyeglasses TF5455 056 50mm</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Excellent! Thanks!!!</t>
+          <t>Thanks I love them . I hand them and they were hard to find. 💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Buyer: p***o</t>
+          <t>Buyer: u***5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260 64mm</t>
+          <t>Tag Heuer 8007 003 Trends Chocolate Havane Black Eyeglasses 8007-003 56mm</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Thank you</t>
+          <t>Quick, highly recommended seller! Thanks!</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: 2***2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1873,17 +1873,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
+          <t>Tom Ford 5291 052 Brown Turquoise Eyeglasses TF5291 052 55mm</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Terrific Seller</t>
+          <t>Nice glasses, fast shipping great seller</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Buyer: t***3</t>
+          <t>Buyer: b***b</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1900,17 +1900,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SPY CALIBER Soft Matte Black / Happy Gray Green Sunglasses 673374973863 59mm</t>
+          <t>Tom Ford 5304 093 Gray Stripe Eyeglasses TF5304 093 54mm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Perfect!  Crazy fast shipping too.  A+++</t>
+          <t>Excellent! Thanks!!!</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Buyer: i***h</t>
+          <t>Buyer: p***o</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1927,17 +1927,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260 64mm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Everything was perfect.</t>
+          <t>Thank you</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Buyer: o***n</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1954,17 +1954,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tom Ford 5313 055 Dark Havana Eyeglasses TF5313 055 55mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Thank you very much.</t>
+          <t>Terrific Seller</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Buyer: o***i</t>
+          <t>Buyer: t***3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
+          <t>SPY CALIBER Soft Matte Black / Happy Gray Green Sunglasses 673374973863 59mm</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Perfect thank you</t>
+          <t>Perfect!  Crazy fast shipping too.  A+++</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Buyer: a***l</t>
+          <t>Buyer: i***h</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2008,17 +2008,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
+          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Exactly as described.</t>
+          <t>Everything was perfect.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Buyer: 4***4</t>
+          <t>Buyer: o***n</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2035,17 +2035,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Adidas A628 50 6054 Black Eyeglasses 628 506054 55mm</t>
+          <t>Tom Ford 5313 055 Dark Havana Eyeglasses TF5313 055 55mm</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Seller helped me verify that these will work with my existing lenses. I'm a repeat customer and have had excellent results with SunRayCity!</t>
+          <t>Thank you very much.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Buyer: m***i</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2062,17 +2062,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
+          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Thanks for a great product!</t>
+          <t>Perfect thank you</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Buyer: 8***g</t>
+          <t>Buyer: a***l</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tom Ford 5483 028 Shiny Rose Gold Titanium Eyeglasses TF5483 028 52mm</t>
+          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>Exactly as described.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Buyer: u***9</t>
+          <t>Buyer: 4***4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
+          <t>Adidas A628 50 6054 Black Eyeglasses 628 506054 55mm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Excellent seller. Great products. Fast delivery and also received some extra bonuses which was a delightful surprise. Highly recommended and will purchase more.  A+++++</t>
+          <t>Seller helped me verify that these will work with my existing lenses. I'm a repeat customer and have had excellent results with SunRayCity!</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Buyer: o***i</t>
+          <t>Buyer: m***i</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2143,17 +2143,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
+          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Seller has agreed to send the item again........when it arrives I will be happy!</t>
+          <t>Thanks for a great product!</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Buyer: s***e</t>
+          <t>Buyer: 8***g</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Giorgio Armani 456 PRP X7 Brown / Brown Sunglasses 60mm</t>
+          <t>Tom Ford 5483 028 Shiny Rose Gold Titanium Eyeglasses TF5483 028 52mm</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Great seller fast delivery very pleased￼A+++++</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: u***9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>Excellent seller. Great products. Fast delivery and also received some extra bonuses which was a delightful surprise. Highly recommended and will purchase more.  A+++++</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2224,17 +2224,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tom Ford 5504 052 Dark Havana Gold Eyeglasses TF5504 052 54mm</t>
+          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fast shipping, Accurate item,  Great seller. I would definitely do business with again.</t>
+          <t>Seller has agreed to send the item again........when it arrives I will be happy!</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Buyer: l***_</t>
+          <t>Buyer: s***e</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2251,17 +2251,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
+          <t>Giorgio Armani 456 PRP X7 Brown / Brown Sunglasses 60mm</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Got here ahead of time and was exactly as ordered</t>
+          <t>Great seller fast delivery very pleased￼A+++++</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Buyer: j***6</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
+          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Alles bestens! Gerne wieder. Vielen Dank!</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Buyer: o***o</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2305,17 +2305,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tom Ford CHRISTOPHER 02 Shiny Black / Gray Sunglasses TF633 001 0633 49mm</t>
+          <t>Tom Ford 5504 052 Dark Havana Gold Eyeglasses TF5504 052 54mm</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Amazing seller . Flawless transaction</t>
+          <t>Fast shipping, Accurate item,  Great seller. I would definitely do business with again.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Buyer: j***l</t>
+          <t>Buyer: l***_</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2332,17 +2332,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
+          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Quick delivery. Item was nicely packed. Recommended ebayer. A+++++++++ Thanks!</t>
+          <t>Got here ahead of time and was exactly as ordered</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Buyer: l***0</t>
+          <t>Buyer: j***6</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MONCLER MC512-V04 Striped Gray Eyeglasses MC 512-V04</t>
+          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>THANK YOU... A+ SELLER.....</t>
+          <t>Alles bestens! Gerne wieder. Vielen Dank!</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Buyer: o***2</t>
+          <t>Buyer: o***o</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2386,17 +2386,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tag Heuer 821 009 Automatic Gray Orange Eyeglasses 0821-009 56mm</t>
+          <t>Tom Ford CHRISTOPHER 02 Shiny Black / Gray Sunglasses TF633 001 0633 49mm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Really smooth transaction, speedy delivery too, can highly recommend.....</t>
+          <t>Amazing seller . Flawless transaction</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Buyer: m***2</t>
+          <t>Buyer: j***l</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2413,17 +2413,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Moncler MC507-01 Tortoise / Gray Pelvoux Sunglasses MC 507-01 58mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Received faster than expected. Very good quality, with certificate of authentication. I had this for over 10 years and lost them in the water this year. Really happy to have been able to get them again!</t>
+          <t>Quick delivery. Item was nicely packed. Recommended ebayer. A+++++++++ Thanks!</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Buyer: d***8</t>
+          <t>Buyer: l***0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2440,17 +2440,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tom Ford 5514 083 Violet Eyeglasses TF5514 083 54mm</t>
+          <t>MONCLER MC512-V04 Striped Gray Eyeglasses MC 512-V04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Great seller with fantastic communication. Fast Shipping and Perfect Condition. Thank you!</t>
+          <t>THANK YOU... A+ SELLER.....</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Buyer: s***i</t>
+          <t>Buyer: o***2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2467,17 +2467,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6052 INVOKE Shiny Brown / Orange Eyeglasses AF20 006052 56mm</t>
+          <t>Tag Heuer 821 009 Automatic Gray Orange Eyeglasses 0821-009 56mm</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Perfect.</t>
+          <t>Really smooth transaction, speedy delivery too, can highly recommend.....</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Buyer: n***g</t>
+          <t>Buyer: m***2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2494,17 +2494,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tom Ford 5586-B 001 Black Blue Block Eyeglasses TF5586 001 56mm</t>
+          <t>Moncler MC507-01 Tortoise / Gray Pelvoux Sunglasses MC 507-01 58mm</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A+++</t>
+          <t>Received faster than expected. Very good quality, with certificate of authentication. I had this for over 10 years and lost them in the water this year. Really happy to have been able to get them again!</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Buyer: y***7</t>
+          <t>Buyer: d***8</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
+          <t>Tom Ford 5514 083 Violet Eyeglasses TF5514 083 54mm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Great item, exactly as described and fast international shipping. Thanks</t>
+          <t>Great seller with fantastic communication. Fast Shipping and Perfect Condition. Thank you!</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Buyer: u***o</t>
+          <t>Buyer: s***i</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2548,22 +2548,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Carrera 7015 Xcede Matte Black / Gray Polarized Sunglasses 7015/S 03P 61mm</t>
+          <t>Adidas AF20 00 6052 INVOKE Shiny Brown / Orange Eyeglasses AF20 006052 56mm</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Outstanding transaction! Super fast responses and shipping! These sunglasses are PERFECT! Thanks for the great service and fast shipping! Awesome seller!</t>
+          <t>Perfect.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Buyer: k***v</t>
+          <t>Buyer: n***g</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Past year</t>
+          <t>More than a year ago</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
+          <t>Tom Ford 5586-B 001 Black Blue Block Eyeglasses TF5586 001 56mm</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Love these frames as they are so comfortable.</t>
+          <t>A+++</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Buyer: 6***m</t>
+          <t>Buyer: y***7</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GUCCI GG0060O 004 Flowers Multicolor Eyeglasses GG 600 49mm</t>
+          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Thank you SunRayCity!  I love this frame, and you helped me replace the same ones that I lost! I appreciate your sending this so quickly and the other little goodies you includes. I’m so happy!</t>
+          <t>Great item, exactly as described and fast international shipping. Thanks</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Buyer: o***e</t>
+          <t>Buyer: u***o</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tom Ford 5291 005 Black Turquoise Eyeglasses TF5291 005 55mm</t>
+          <t>Carrera 7015 Xcede Matte Black / Gray Polarized Sunglasses 7015/S 03P 61mm</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A+++++</t>
+          <t>Outstanding transaction! Super fast responses and shipping! These sunglasses are PERFECT! Thanks for the great service and fast shipping! Awesome seller!</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: k***v</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2656,17 +2656,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tom Ford Ekaterina 363 71Z Bordeaux / Purple Gradient Sunglasses TF363 71Z 150mm</t>
+          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Item in perfect condition and arrived promptly.</t>
+          <t>Love these frames as they are so comfortable.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Buyer: n***k</t>
+          <t>Buyer: 6***m</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2683,99 +2683,99 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>GUCCI GG0060O 004 Flowers Multicolor Eyeglasses GG 600 49mm</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Thank you SunRayCity!  I love this frame, and you helped me replace the same ones that I lost! I appreciate your sending this so quickly and the other little goodies you includes. I’m so happy!</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Buyer: o***e</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Tom Ford 5291 005 Black Turquoise Eyeglasses TF5291 005 55mm</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A+++++</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Buyer: l***e</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Tom Ford Ekaterina 363 71Z Bordeaux / Purple Gradient Sunglasses TF363 71Z 150mm</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Item in perfect condition and arrived promptly.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Buyer: n***k</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>Tom Ford 5226 083 Purple Tortoise Eyeglasses TF5226 083 54mm</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>The seller was right on about the product 
 Everyone likes the eye frame on me I’m not to share yet once I see my eye doctor in fall I get my new lenses in I’m not saying I don’t like them their different from other eyeglass frames that’s for sure</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Buyer: r***m</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Tom Ford NINA 373 01B Black Gold / Gray Gradient Sunglasses TF373 01B 56mm</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Love these sunglasses! My favorite Tom Ford style ever. They arrived sooner than expected and well packaged. Although a vintage style, these are new. I was delighted to find them on eBay!</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Buyer: h***2</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Tag Heuer 825 009 Gray Orange Eyeglasses TH825-009 57mm</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>BUENAS TARDES. EL PEDIDO HA LLEGADO HOY 03/07/2023.LAS GAFAS VIENEN EMBALADAS PERFECTAMENTE Y A LA ENTREGA HE PAGADO LOS ARANCELES CORRESPONDIENTES,EN ÉSTE CASO HAN SIDO 38,38€. LAS GAFAS SON EXACTAMENTE EL MODELO QUE HABÍA ELEGIDO.VENDEDOR EXCELENTE.</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Buyer: b***-</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Tom Ford 5424 056A Light Havana Purple Eyeglasses TF5424 056A 53mm</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>great vendor. Frames exactly as described , brand new with case cleaning cloth and sunglass cover. Excellent--will purchase again from vendor</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Buyer: 2***m</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MONTBLANC MB0674 013 Satin Ruthenium Eyeglasses MB 674 013 56mm</t>
+          <t>Tom Ford NINA 373 01B Black Gold / Gray Gradient Sunglasses TF373 01B 56mm</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>All good, great price and delivered as advertised</t>
+          <t>Love these sunglasses! My favorite Tom Ford style ever. They arrived sooner than expected and well packaged. Although a vintage style, these are new. I was delighted to find them on eBay!</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: h***2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2819,17 +2819,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Barton Perreira SAMUEL Black Eyeglasses BLA 50mm</t>
+          <t>Tag Heuer 825 009 Gray Orange Eyeglasses TH825-009 57mm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Love my glasses they were as expected fast shipping too!</t>
+          <t>BUENAS TARDES. EL PEDIDO HA LLEGADO HOY 03/07/2023.LAS GAFAS VIENEN EMBALADAS PERFECTAMENTE Y A LA ENTREGA HE PAGADO LOS ARANCELES CORRESPONDIENTES,EN ÉSTE CASO HAN SIDO 38,38€. LAS GAFAS SON EXACTAMENTE EL MODELO QUE HABÍA ELEGIDO.VENDEDOR EXCELENTE.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Buyer: a***-</t>
+          <t>Buyer: b***-</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Adidas AF23 50 6054 INVOKE Black /Gray Eyeglasses AF23 506054 53mm</t>
+          <t>Tom Ford 5424 056A Light Havana Purple Eyeglasses TF5424 056A 53mm</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>An excellent seller! The item shipped out quickly and came with a tracking number.  Shipping was very fast and secure. Am very pleased with my item.</t>
+          <t>great vendor. Frames exactly as described , brand new with case cleaning cloth and sunglass cover. Excellent--will purchase again from vendor</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: 2***m</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2873,17 +2873,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
+          <t>MONTBLANC MB0674 013 Satin Ruthenium Eyeglasses MB 674 013 56mm</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A++++++++++++++++</t>
+          <t>All good, great price and delivered as advertised</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Buyer: 5***5</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bolle Draft Crystal Smoke / Photochromic Rose Gun Sunglasses 11470</t>
+          <t>Barton Perreira SAMUEL Black Eyeglasses BLA 50mm</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Great item great price fast shipping thank you</t>
+          <t>Love my glasses they were as expected fast shipping too!</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Buyer: d***e</t>
+          <t>Buyer: a***-</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Serengeti Martino Shiny Black / Sedona Polarized Sunglasses 7840</t>
+          <t>Adidas AF23 50 6054 INVOKE Black /Gray Eyeglasses AF23 506054 53mm</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sunglasses were delivered as new.  Great shape.</t>
+          <t>An excellent seller! The item shipped out quickly and came with a tracking number.  Shipping was very fast and secure. Am very pleased with my item.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Buyer: 8***b</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Gold Tortoise / Gray Gradient Sunglasses EST ANG SMT</t>
+          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FAST SHIPPING THANK YOU A+</t>
+          <t>A++++++++++++++++</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Buyer: e***n</t>
+          <t>Buyer: 5***5</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2981,17 +2981,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Serengeti Sangro Satin Black / Polarized Drivers Sunglasses 6998</t>
+          <t>Bolle Draft Crystal Smoke / Photochromic Rose Gun Sunglasses 11470</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>recommend this seller</t>
+          <t>Great item great price fast shipping thank you</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Buyer: i***n</t>
+          <t>Buyer: d***e</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Carrera 42 Horn Black / Gray Gradient Sunglasses 42/S 7J3</t>
+          <t>Serengeti Martino Shiny Black / Sedona Polarized Sunglasses 7840</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Gréât seller and auction. Thx</t>
+          <t>Sunglasses were delivered as new.  Great shape.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Buyer: 1***0</t>
+          <t>Buyer: 8***b</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3035,17 +3035,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MONCLER MC010-S05 Gray / Gray Sunglasses MC 010-S05</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Gray Gradient Sunglasses EST ANG SMT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Thank you very fast</t>
+          <t>FAST SHIPPING THANK YOU A+</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Buyer: n***5</t>
+          <t>Buyer: e***n</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
+          <t>Serengeti Sangro Satin Black / Polarized Drivers Sunglasses 6998</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Fast shipping, great item, would definitely buy from again</t>
+          <t>recommend this seller</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Buyer: g***m</t>
+          <t>Buyer: i***n</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
+          <t>Carrera 42 Horn Black / Gray Gradient Sunglasses 42/S 7J3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Gréât seller and auction. Thx</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Buyer: h***w</t>
+          <t>Buyer: 1***0</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tag Heuer 802 011 Automatic Matte Black White Eyeglasses 802-011</t>
+          <t>MONCLER MC010-S05 Gray / Gray Sunglasses MC 010-S05</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thanks for the great transaction! Frames are awesome and shipping was fast. Highly recommended!!</t>
+          <t>Thank you very fast</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Buyer: h***a</t>
+          <t>Buyer: n***5</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3143,17 +3143,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tom Ford 5460 045 Honey Eyeglasses TF5460 045 49mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Good seller, no hassle.</t>
+          <t>Fast shipping, great item, would definitely buy from again</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Buyer: c***b</t>
+          <t>Buyer: g***m</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Adidas AF40 006054 CONVERTOR Matte Dark Brown / Orange Eyeglasses 55mm Adaptable</t>
+          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>very fast shipping</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Buyer: e***3</t>
+          <t>Buyer: h***w</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3197,99 +3197,99 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>Tag Heuer 802 011 Automatic Matte Black White Eyeglasses 802-011</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Thanks for the great transaction! Frames are awesome and shipping was fast. Highly recommended!!</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Buyer: h***a</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Tom Ford 5460 045 Honey Eyeglasses TF5460 045 49mm</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Good seller, no hassle.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Buyer: c***b</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Adidas AF40 006054 CONVERTOR Matte Dark Brown / Orange Eyeglasses 55mm Adaptable</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>very fast shipping</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Buyer: e***3</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>Tom Ford HAYES 934 01E Shiny Black / Brown Sunglasses TF934 01E 59mm</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Great transaction, fast shipping - Thx!!
 A+</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Buyer: _***s</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Tag Heuer 3012 001 Reflex Black Gray Clear Eyeglasses TH3012 001 47mm</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>love these</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Buyer: e***i</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Tom Ford 5172 018 Silver Round Eyeglasses TF5172 018 40mm SMALL</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>As expected</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Buyer: t***t</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Brilliant service thank you</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Buyer: i***l</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3306,17 +3306,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
+          <t>Tag Heuer 3012 001 Reflex Black Gray Clear Eyeglasses TH3012 001 47mm</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>the better adidas glasses frame, low weight, best fit</t>
+          <t>love these</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Buyer: v***8</t>
+          <t>Buyer: e***i</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3328,22 +3328,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Neutral feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tom Ford 5365 024 Beige Eyeglasses TF5365 024 54mm</t>
+          <t>Tom Ford 5172 018 Silver Round Eyeglasses TF5172 018 40mm SMALL</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>I think these are seconds.  The coloring was inconsistent.  Either from firing or ? .</t>
+          <t>As expected</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Buyer: a***i</t>
+          <t>Buyer: t***t</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3360,17 +3360,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tom Ford 5304 052 Dark Havana Eyeglasses TF5304 052 54mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Was able to contact the seller. Since it s a global shipping I recommend at least putting the product in a plastic bag properly just in case or cover the lense cleaner cap with a tape. Glasses was in good condition and seller communication was prompt.</t>
+          <t>Brilliant service thank you</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: i***l</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3387,99 +3387,99 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>the better adidas glasses frame, low weight, best fit</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Buyer: v***8</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Neutral feedback rating</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Tom Ford 5365 024 Beige Eyeglasses TF5365 024 54mm</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>I think these are seconds.  The coloring was inconsistent.  Either from firing or ? .</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Buyer: a***i</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Tom Ford 5304 052 Dark Havana Eyeglasses TF5304 052 54mm</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Was able to contact the seller. Since it s a global shipping I recommend at least putting the product in a plastic bag properly just in case or cover the lense cleaner cap with a tape. Glasses was in good condition and seller communication was prompt.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Buyer: l***s</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>Serengeti Milazzo Matte Black Polarized 555nm Sunglasses 6903</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Got them grate sunglasses ever made.
 Best Regards</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Buyer: 2***f</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Adidas A644 40 6052 Green Eyeglasses 644 406052 52mm</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>easy buy. great glasses and recieved some nice extras along with them. thank you very much. will purchase again.</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Buyer: o***g</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>MontBlanc Silver / Gray Sunglasses MB457S 16A</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Great product and fast shopping. Thank you! A+++++++</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Buyer: .***5</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Nice product.</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Buyer: r***a</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3496,17 +3496,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tag Heuer 27 Degree 6041 Matte Black / Gray Polyvalent Sunglasses TH6041 101</t>
+          <t>Adidas A644 40 6052 Green Eyeglasses 644 406052 52mm</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>I bought my second pair of these. A happy purchase and service. Thank you.</t>
+          <t>easy buy. great glasses and recieved some nice extras along with them. thank you very much. will purchase again.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Buyer: m***w</t>
+          <t>Buyer: o***g</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3523,17 +3523,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Adidas A621 40 6053 Red Eyeglasses 621 406053 50mm</t>
+          <t>MontBlanc Silver / Gray Sunglasses MB457S 16A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Item exactly as described and shipping was very quick. Thank you!</t>
+          <t>Great product and fast shopping. Thank you! A+++++++</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Buyer: k***k</t>
+          <t>Buyer: .***5</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3555,94 +3555,94 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>Nice product.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Buyer: r***a</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Tag Heuer 27 Degree 6041 Matte Black / Gray Polyvalent Sunglasses TH6041 101</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>I bought my second pair of these. A happy purchase and service. Thank you.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Buyer: m***w</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Adidas A621 40 6053 Red Eyeglasses 621 406053 50mm</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Item exactly as described and shipping was very quick. Thank you!</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Buyer: k***k</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>Top quality!! Very Happy!! Fantastic item! 
 Super quick post! Excellent top seller! Best quality product !!</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Buyer: d***r</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Tom Ford 5415 001 Black Eyeglasses TF5415 001 50mm</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Five star seller.</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Buyer: n***f</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Accurately photographed and described! Great bargain.It is so pretty and soft. It was packaged very nicely and included a personal thank you.</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Buyer: a***0</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Bolle Hamilton Shiny Black / True Neutral Smoke TNS Sunglasses 11282</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Just as advertised. Quick shipping and a few freebies.</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Buyer: w***r</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3659,17 +3659,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tag Heuer 823 004 Automatic Blue Gray Eyeglasses TH823-004 52mm</t>
+          <t>Tom Ford 5415 001 Black Eyeglasses TF5415 001 50mm</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Very fast shipping!</t>
+          <t>Five star seller.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Buyer: k***e</t>
+          <t>Buyer: n***f</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MONTBLANC MB593 01D Shiny Black / Gray Polarized Sunglasses MB 593 01D</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Everything came as expected. A+</t>
+          <t>Accurately photographed and described! Great bargain.It is so pretty and soft. It was packaged very nicely and included a personal thank you.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Buyer: y***n</t>
+          <t>Buyer: a***0</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3713,17 +3713,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Bolle Hamilton Shiny Black / True Neutral Smoke TNS Sunglasses 11282</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>A+++ Seller. Gr8 quality product , very reasonably priced &amp; delivery was quick. Thank u.</t>
+          <t>Just as advertised. Quick shipping and a few freebies.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Buyer: a***4</t>
+          <t>Buyer: w***r</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3740,17 +3740,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ZERORH+ FUXION Matte Black / Grey Polarized Sunglasses RH777-04 CARL ZEISS</t>
+          <t>Tag Heuer 823 004 Automatic Blue Gray Eyeglasses TH823-004 52mm</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>super!!!</t>
+          <t>Very fast shipping!</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Buyer: l***t</t>
+          <t>Buyer: k***e</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Moncler MC507-05 Crystal / Brown Pelvoux Sunglasses MC 507-05</t>
+          <t>MONTBLANC MB593 01D Shiny Black / Gray Polarized Sunglasses MB 593 01D</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Great experience. Great value. Great customer service.</t>
+          <t>Everything came as expected. A+</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Buyer: g***t</t>
+          <t>Buyer: y***n</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6058 INVOKE Onix / Black Eyeglasses AF20 006058 54mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Awesome!</t>
+          <t>A+++ Seller. Gr8 quality product , very reasonably priced &amp; delivery was quick. Thank u.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Buyer: ****w</t>
+          <t>Buyer: a***4</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3821,17 +3821,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
+          <t>ZERORH+ FUXION Matte Black / Grey Polarized Sunglasses RH777-04 CARL ZEISS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Excellent. Very fast shipping. Many thanks.</t>
+          <t>super!!!</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: l***t</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
+          <t>Moncler MC507-05 Crystal / Brown Pelvoux Sunglasses MC 507-05</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Great experience. Great value. Great customer service.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Buyer: 0***e</t>
+          <t>Buyer: g***t</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3875,17 +3875,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
+          <t>Adidas AF20 00 6058 INVOKE Onix / Black Eyeglasses AF20 006058 54mm</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Excellent. Very fast shipping. Many thanks.</t>
+          <t>Awesome!</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: ****w</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3902,17 +3902,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Adidas A628 40 6053 Chocolate Brown Eyeglasses 628 406053 55mm</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>as described</t>
+          <t>Excellent. Very fast shipping. Many thanks.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Buyer: w***_</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3929,17 +3929,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ZERORH+ ZETHA Matte Black / Green Sunglasses RH771-02 ZEISS</t>
+          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>The best seller on the ebay!!!! Thank you!</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Buyer: e***n</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 56mm</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bin so froh dieses Gestell bekommen zu haben! Dann noch zu einem mega Preis. Die Lieferung war super schnell innerhalb von 11 Tagen. 19 Tage eher als angekündigt. Ich würde bei Sunraycity jederzeit wieder kaufen!</t>
+          <t>Excellent. Very fast shipping. Many thanks.</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Buyer: v***8</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3983,17 +3983,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tom Ford 5694 030 Clear Gold Eyeglasses TF5694 030 54mm</t>
+          <t>Adidas A628 40 6053 Chocolate Brown Eyeglasses 628 406053 55mm</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Quality of the glasses is great! I found this style while visiting my optometry and the price is insane even with insurance. I'm so glad I was able to find a seller who has a reasonable priced stock. Thank you very much!</t>
+          <t>as described</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Buyer: i***n</t>
+          <t>Buyer: w***_</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4010,17 +4010,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Adidas AF13 50 6056 STREAMLIGHT Black Eyeglasses AF13 506056 52mm</t>
+          <t>ZERORH+ ZETHA Matte Black / Green Sunglasses RH771-02 ZEISS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Nice looking item. Fast delivery, thank you</t>
+          <t>The best seller on the ebay!!!! Thank you!</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Buyer: r***a</t>
+          <t>Buyer: e***n</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Adidas AF22 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF22 406053 54mm</t>
+          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 56mm</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Arrived well in advance. Great vendor. Thank you.</t>
+          <t>Bin so froh dieses Gestell bekommen zu haben! Dann noch zu einem mega Preis. Die Lieferung war super schnell innerhalb von 11 Tagen. 19 Tage eher als angekündigt. Ich würde bei Sunraycity jederzeit wieder kaufen!</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Buyer: j***.</t>
+          <t>Buyer: v***8</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4064,17 +4064,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tom Ford Colette Gunmetal Black / Gray Gradient Sunglasses TF250 08C</t>
+          <t>Tom Ford 5694 030 Clear Gold Eyeglasses TF5694 030 54mm</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Fast shipping, thanks!</t>
+          <t>Quality of the glasses is great! I found this style while visiting my optometry and the price is insane even with insurance. I'm so glad I was able to find a seller who has a reasonable priced stock. Thank you very much!</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Buyer: 1***e</t>
+          <t>Buyer: i***n</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tag Heuer 0552-005 B URBAN Matte Black Red Eyeglasses TH552-005 57mm</t>
+          <t>Adidas AF13 50 6056 STREAMLIGHT Black Eyeglasses AF13 506056 52mm</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Best seller, really recommended</t>
+          <t>Nice looking item. Fast delivery, thank you</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Buyer: g***b</t>
+          <t>Buyer: r***a</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4118,17 +4118,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Tod's 28 5901F Shiny Black / Gradient Brown Sunglasses TO 0028 01F</t>
+          <t>Adidas AF22 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF22 406053 54mm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Thank you very much for your fast &amp; easy transaction</t>
+          <t>Arrived well in advance. Great vendor. Thank you.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Buyer: 8***s</t>
+          <t>Buyer: j***.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4145,17 +4145,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MONTBLANC MB0732 016  Shiny Palladium Eyeglasses MB 732 016 51mm</t>
+          <t>Tom Ford Colette Gunmetal Black / Gray Gradient Sunglasses TF250 08C</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Very nice product, fast shipping.</t>
+          <t>Fast shipping, thanks!</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: 1***e</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Adidas AF22 50 6054 INVOKE Black Eyeglasses AF22 506054 54mm</t>
+          <t>Tag Heuer 0552-005 B URBAN Matte Black Red Eyeglasses TH552-005 57mm</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Thank You very much, again, best experience.</t>
+          <t>Best seller, really recommended</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Buyer: s***v</t>
+          <t>Buyer: g***b</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4199,17 +4199,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>St Dupont 721 6052 Silver / Green Sunglasses 65mm</t>
+          <t>Tod's 28 5901F Shiny Black / Gradient Brown Sunglasses TO 0028 01F</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Item exactly as described, came quicker than expected. Thanks for a smooth transaction!</t>
+          <t>Thank you very much for your fast &amp; easy transaction</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Buyer: 2***a</t>
+          <t>Buyer: 8***s</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4226,17 +4226,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Adidas A674 40 6060 Copper Eyeglasses 674 406060 50mm</t>
+          <t>MONTBLANC MB0732 016  Shiny Palladium Eyeglasses MB 732 016 51mm</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A+ Seller!</t>
+          <t>Very nice product, fast shipping.</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Buyer: d***1</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4253,17 +4253,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tom Ford William 207 09J Gunmetal Gray / Brown Aviator Sunglasses TF207 09J</t>
+          <t>Adidas AF22 50 6054 INVOKE Black Eyeglasses AF22 506054 54mm</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Xactly as promised.</t>
+          <t>Thank You very much, again, best experience.</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Buyer: 1***0</t>
+          <t>Buyer: s***v</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4280,17 +4280,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tom Ford 5313 098 Green Horn Eyeglasses TF5313 098 55mm</t>
+          <t>St Dupont 721 6052 Silver / Green Sunglasses 65mm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Incredibly grateful to this seller! Frames were perfect and they were able to expedite the shipping for me so I could get my prescription made in time for a trip. Thank you!</t>
+          <t>Item exactly as described, came quicker than expected. Thanks for a smooth transaction!</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Buyer: b***a</t>
+          <t>Buyer: 2***a</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4307,17 +4307,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>St Dupont 728 6052 Matte Silver / Blue Sunglasses 70mm</t>
+          <t>Adidas A674 40 6060 Copper Eyeglasses 674 406060 50mm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Got refund quickly after item was returned</t>
+          <t>A+ Seller!</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Buyer: 8***j</t>
+          <t>Buyer: d***1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Tom Ford William 207 09J Gunmetal Gray / Brown Aviator Sunglasses TF207 09J</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Exactly what I needed. This was perfect &amp; in excellent condition.</t>
+          <t>Xactly as promised.</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Buyer: l***c</t>
+          <t>Buyer: 1***0</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4361,17 +4361,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tom Ford Eliott Black Silver / Blue Gradient Sunglasses TF335 02W</t>
+          <t>Tom Ford 5313 098 Green Horn Eyeglasses TF5313 098 55mm</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Nice sunglasses, thank u.</t>
+          <t>Incredibly grateful to this seller! Frames were perfect and they were able to expedite the shipping for me so I could get my prescription made in time for a trip. Thank you!</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Buyer: _***d</t>
+          <t>Buyer: b***a</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4388,17 +4388,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tag Heuer Ayrton Senna 0253 Matte Black / Green Outdoors Sunglasses TH 253 301</t>
+          <t>St Dupont 728 6052 Matte Silver / Blue Sunglasses 70mm</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Excellent service ! FAST DELIVERY!!  Thanks.</t>
+          <t>Got refund quickly after item was returned</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Buyer: 0***1</t>
+          <t>Buyer: 8***j</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4415,17 +4415,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MONCLER MC023-V02 White Gold Eyeglasses MC 023-V02</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Great transaction. Highly recommended seller</t>
+          <t>Exactly what I needed. This was perfect &amp; in excellent condition.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Buyer: x***o</t>
+          <t>Buyer: l***c</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tom Ford 685 Julie Shiny Black Dark Havana / Brown Sunglasses TF685 05E 52mm</t>
+          <t>Tom Ford Eliott Black Silver / Blue Gradient Sunglasses TF335 02W</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Excellent shopping experience.</t>
+          <t>Nice sunglasses, thank u.</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: _***d</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4469,17 +4469,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MontBlanc Silver Black / Gray Sunglasses MB458S 16B</t>
+          <t>Tag Heuer Ayrton Senna 0253 Matte Black / Green Outdoors Sunglasses TH 253 301</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Excellent product, though not in original box. But otherwise great.</t>
+          <t>Excellent service ! FAST DELIVERY!!  Thanks.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: 0***1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4496,17 +4496,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
+          <t>MONCLER MC023-V02 White Gold Eyeglasses MC 023-V02</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Excellent frames as described. Thank you!</t>
+          <t>Great transaction. Highly recommended seller</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Buyer: v***v</t>
+          <t>Buyer: x***o</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4523,17 +4523,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tom Ford Rickie Gold Black / Gray Gradient Sunglasses TF179 01B</t>
+          <t>Tom Ford 685 Julie Shiny Black Dark Havana / Brown Sunglasses TF685 05E 52mm</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Trustworthy seller just as described</t>
+          <t>Excellent shopping experience.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Buyer: -***z</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4550,17 +4550,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CARRERA VENT-X Gray &amp; Brown / Brown Polarized Sunglasses 6CL PK</t>
+          <t>MontBlanc Silver Black / Gray Sunglasses MB458S 16B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Good deal thank you</t>
+          <t>Excellent product, though not in original box. But otherwise great.</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Buyer: 3***p</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4577,17 +4577,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>JULBO DIRT Black / Gray Sunglasses 369 122</t>
+          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Perfect.. thank you!!!</t>
+          <t>Excellent frames as described. Thank you!</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Buyer: a***m</t>
+          <t>Buyer: v***v</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4604,17 +4604,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Carrera Carrerino 11 003 Black Yellow / Gray Gradient Sunglasses 55mm</t>
+          <t>Tom Ford Rickie Gold Black / Gray Gradient Sunglasses TF179 01B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Very Fast, Very Friendly  Safe Seller  A+++++  Thank You !</t>
+          <t>Trustworthy seller just as described</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: -***z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4631,17 +4631,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tom Ford NIKA Shiny Black / Blue Gradient Sunglasses TF523 01W</t>
+          <t>CARRERA VENT-X Gray &amp; Brown / Brown Polarized Sunglasses 6CL PK</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Quick Shipping and just as described!</t>
+          <t>Good deal thank you</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Buyer: d***i</t>
+          <t>Buyer: 3***p</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MontBlanc Gold / Polarized Brown Sunglasses MB703S 32H 703 61mm</t>
+          <t>JULBO DIRT Black / Gray Sunglasses 369 122</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Moshe of Sunraycity provides excellent service from my initial question to the  dispatching of goods. The item has arrived package with surprise gift and a personal care card. Definitely a business worth supporting.</t>
+          <t>Perfect.. thank you!!!</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Buyer: t***m</t>
+          <t>Buyer: a***m</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4685,17 +4685,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Serengeti Trapani Shiny Silver Smoke / 555nm Sunglasses 7603 60mm</t>
+          <t>Carrera Carrerino 11 003 Black Yellow / Gray Gradient Sunglasses 55mm</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Your package that you sent arrived on time</t>
+          <t>Very Fast, Very Friendly  Safe Seller  A+++++  Thank You !</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Buyer: t***v</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
+          <t>Tom Ford NIKA Shiny Black / Blue Gradient Sunglasses TF523 01W</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>Quick Shipping and just as described!</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Buyer: l***p</t>
+          <t>Buyer: d***i</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4739,17 +4739,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Bolle Stormy Shiny Black TNS Sunglasses 11177</t>
+          <t>MontBlanc Gold / Polarized Brown Sunglasses MB703S 32H 703 61mm</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Authentic product. Fast shipping and great transaction. Thank you!</t>
+          <t>Moshe of Sunraycity provides excellent service from my initial question to the  dispatching of goods. The item has arrived package with surprise gift and a personal care card. Definitely a business worth supporting.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Buyer: 6***i</t>
+          <t>Buyer: t***m</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4766,17 +4766,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Barton Perreira GINSBERG Gold Eyeglasses GOL 46mm</t>
+          <t>Serengeti Trapani Shiny Silver Smoke / 555nm Sunglasses 7603 60mm</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Great eyeglasses + excellent transaction. Thank you!</t>
+          <t>Your package that you sent arrived on time</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Buyer: 2***e</t>
+          <t>Buyer: t***v</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4793,17 +4793,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Serengeti Assisi Matte Brown / Polarized Phd Drivers Sunglasses 7996</t>
+          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Fast delivery, good communication</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Buyer: o***s</t>
+          <t>Buyer: l***p</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4820,17 +4820,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tom Ford 5430 052 Dark Havana Eyeglasses TF5430 052 56mm</t>
+          <t>Bolle Stormy Shiny Black TNS Sunglasses 11177</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Very easy deal and fast delivery. Thanks!</t>
+          <t>Authentic product. Fast shipping and great transaction. Thank you!</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Buyer: p***r</t>
+          <t>Buyer: 6***i</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tom Ford 5272-005 Black Gold Eyeglasses TF5272 005 53mm</t>
+          <t>Barton Perreira GINSBERG Gold Eyeglasses GOL 46mm</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Great service!</t>
+          <t>Great eyeglasses + excellent transaction. Thank you!</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Buyer: r***1</t>
+          <t>Buyer: 2***e</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Serengeti TREVISO 24h LEMANS Satin Gunmetal / Green Polarized Sunglasses 8483</t>
+          <t>Serengeti Assisi Matte Brown / Polarized Phd Drivers Sunglasses 7996</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>Fast delivery, good communication</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Buyer: 6***0</t>
+          <t>Buyer: o***s</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4901,17 +4901,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tag Heuer 842 008 Automatic Matte Blue Gray Eyeglasses TH842-008 54mm</t>
+          <t>Tom Ford 5430 052 Dark Havana Eyeglasses TF5430 052 56mm</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Great dealer, A++++++++++++ product, fast shipping</t>
+          <t>Very easy deal and fast delivery. Thanks!</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: p***r</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4928,17 +4928,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Serengeti Martino Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
+          <t>Tom Ford 5272-005 Black Gold Eyeglasses TF5272 005 53mm</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Producto en excelente estado</t>
+          <t>Great service!</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Buyer: 9***g</t>
+          <t>Buyer: r***1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tom Ford 5628 005 Asian Fit Shiny Black / Blue Block Eyeglasses TF5628 005 54mm</t>
+          <t>Serengeti TREVISO 24h LEMANS Satin Gunmetal / Green Polarized Sunglasses 8483</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Thanks!</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Buyer: m***m</t>
+          <t>Buyer: 6***0</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Spy Hailwood Shiny Black / Gray Sunglasses</t>
+          <t>Tag Heuer 842 008 Automatic Matte Blue Gray Eyeglasses TH842-008 54mm</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Fast shipping!!! Great sunglasses!!!!</t>
+          <t>Great dealer, A++++++++++++ product, fast shipping</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Buyer: 0***r</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5009,17 +5009,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tom Ford 5353 001 Shiny Black Gold Eyeglasses TF5353 001 52mm</t>
+          <t>Serengeti Martino Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Amazing seller, well packaged, speedy shipping, highly recommended A++++++++++++++</t>
+          <t>Producto en excelente estado</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: 9***g</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5036,17 +5036,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tom Ford Magnus Gold / Brown Sunglasses TF193 28E</t>
+          <t>Tom Ford 5628 005 Asian Fit Shiny Black / Blue Block Eyeglasses TF5628 005 54mm</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Excellent seller and exceptional team.  Smooth transaction and highly recommended.</t>
+          <t>Thanks!</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: m***m</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5063,17 +5063,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
+          <t>Spy Hailwood Shiny Black / Gray Sunglasses</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Best seller ever, amazing communication, highly recommended</t>
+          <t>Fast shipping!!! Great sunglasses!!!!</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Buyer: _***l</t>
+          <t>Buyer: 0***r</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5090,17 +5090,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Serengeti Luigi Gun Black Tannery / Polarized Green Sunglasses 7382</t>
+          <t>Tom Ford 5353 001 Shiny Black Gold Eyeglasses TF5353 001 52mm</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>pleased to deal with you. I'm definitely a fan of Serengeti. Perfect pair of sunglasses.</t>
+          <t>Amazing seller, well packaged, speedy shipping, highly recommended A++++++++++++++</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Buyer: v***l</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5117,17 +5117,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Adidas A3 40 6051 Copper Brown Eyeglasses A003 40 6051 50mm</t>
+          <t>Tom Ford Magnus Gold / Brown Sunglasses TF193 28E</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Got it plus some nice bonus items with my glasses frames.</t>
+          <t>Excellent seller and exceptional team.  Smooth transaction and highly recommended.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Buyer: p***7</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5144,17 +5144,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tom Ford 5527 066 Red Eyeglasses TF5527 066 50mm</t>
+          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>GREAT TRANSACTION!!</t>
+          <t>Best seller ever, amazing communication, highly recommended</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Buyer: l***6</t>
+          <t>Buyer: _***l</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5171,17 +5171,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Barton Perreira REECE Black / Vintage Blue Sunglasses BLA VBL 52mm</t>
+          <t>Serengeti Luigi Gun Black Tannery / Polarized Green Sunglasses 7382</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Perfect Seller and Transaction.  5*****</t>
+          <t>pleased to deal with you. I'm definitely a fan of Serengeti. Perfect pair of sunglasses.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Buyer: 0***0</t>
+          <t>Buyer: v***l</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5198,17 +5198,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Serengeti Strato Satin Black / Polarized Phd Sedona Sunglasses 7681</t>
+          <t>Adidas A3 40 6051 Copper Brown Eyeglasses A003 40 6051 50mm</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Just what I ordered. Thank you.</t>
+          <t>Got it plus some nice bonus items with my glasses frames.</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Buyer: r***c</t>
+          <t>Buyer: p***7</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5225,17 +5225,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
+          <t>Tom Ford 5527 066 Red Eyeglasses TF5527 066 50mm</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Lightning fast shipping and great transaction.</t>
+          <t>GREAT TRANSACTION!!</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: l***6</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
+          <t>Barton Perreira REECE Black / Vintage Blue Sunglasses BLA VBL 52mm</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Great transaction, thank you</t>
+          <t>Perfect Seller and Transaction.  5*****</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Buyer: j***j</t>
+          <t>Buyer: 0***0</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5279,17 +5279,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
+          <t>Serengeti Strato Satin Black / Polarized Phd Sedona Sunglasses 7681</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EXCELLENT FAST SELLER !!  ITEM EXACTLY AS DESCRIBED.  FULLY LEGIT ...</t>
+          <t>Just what I ordered. Thank you.</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Buyer: .***.</t>
+          <t>Buyer: r***c</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5306,17 +5306,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Serengeti NUVINO Shiny Black / Polarized Phd Cool Photo Gray CPG Sunglasses 7318</t>
+          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Thanks item as described and shipped fast.  Thanks.</t>
+          <t>Lightning fast shipping and great transaction.</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Buyer: h***e</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5333,17 +5333,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Serengeti Larino Carbon Fiber / Polarized Phd CPG Sunglasses 7710</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Thank You!!</t>
+          <t>Great transaction, thank you</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Buyer: o***3</t>
+          <t>Buyer: j***j</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5360,17 +5360,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tom Ford Nicholai Gold / Brown Sunglasses TF189 28J James Bond</t>
+          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Very happy and arrived within a few weeks</t>
+          <t>EXCELLENT FAST SELLER !!  ITEM EXACTLY AS DESCRIBED.  FULLY LEGIT ...</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Buyer: u***s</t>
+          <t>Buyer: .***.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5387,17 +5387,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tom Ford 5475 32E Gold Eyeglasses TF5475-32E with Magnetic Brown Clip 54mm</t>
+          <t>Serengeti NUVINO Shiny Black / Polarized Phd Cool Photo Gray CPG Sunglasses 7318</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fantastic, love these Glasses… very good company and will certainly purchase from them again</t>
+          <t>Thanks item as described and shipped fast.  Thanks.</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Buyer: b***a</t>
+          <t>Buyer: h***e</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5414,17 +5414,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Serengeti Larino Carbon Fiber / Polarized Phd CPG Sunglasses 7710</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Great seller...item exactly as presented.. thank you</t>
+          <t>Thank You!!</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Buyer: a***p</t>
+          <t>Buyer: o***3</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5441,17 +5441,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tom Ford 5420 074 Matte Pink Rose Eyeglasses TF5420 074 54mm</t>
+          <t>Tom Ford Nicholai Gold / Brown Sunglasses TF189 28J James Bond</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Beautiful frames!</t>
+          <t>Very happy and arrived within a few weeks</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Buyer: d***a</t>
+          <t>Buyer: 6***r</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5468,17 +5468,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bolle Vortex Shiny Black / Gray PC True Neutral Smoke TNS Sunglasses 11858</t>
+          <t>Tom Ford 5475 32E Gold Eyeglasses TF5475-32E with Magnetic Brown Clip 54mm</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Great sunglasses thanks !!!</t>
+          <t>Fantastic, love these Glasses… very good company and will certainly purchase from them again</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: b***a</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5495,17 +5495,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Tom Ford 5527 052 Havana Eyeglasses TF5527 052 50mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>Great seller...item exactly as presented.. thank you</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Buyer: c***a</t>
+          <t>Buyer: a***p</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
+          <t>Tom Ford 5420 074 Matte Pink Rose Eyeglasses TF5420 074 54mm</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Beautiful frames!</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Buyer: c***a</t>
+          <t>Buyer: d***a</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5549,17 +5549,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tom Ford 5586-B 052 Havana Blue Block Eyeglasses TF5586 052 56mm</t>
+          <t>Bolle Vortex Shiny Black / Gray PC True Neutral Smoke TNS Sunglasses 11858</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Everything was as expected and communicated. Very happy!</t>
+          <t>Great sunglasses thanks !!!</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Buyer: m***a</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5576,17 +5576,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tom Ford BRADBURY Shiny Rose Gold / Gray Sunglasses TF525 28A</t>
+          <t>Tom Ford 5527 052 Havana Eyeglasses TF5527 052 50mm</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Great seller, great quality, received cleaning agent as well and item came way before time.</t>
+          <t>Good product</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Buyer: p***0</t>
+          <t>Buyer: c***a</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Barton Perreira GINSBERG Matte Black Eyeglasses MAB 46mm</t>
+          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>++++++++++++++ as advertised +++++++++++++</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Buyer: u***l</t>
+          <t>Buyer: c***a</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5630,17 +5630,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Serengeti Verucchio Shiny Black / Polarized Phd CPG Sunglasses 7440</t>
+          <t>Tom Ford 5586-B 052 Havana Blue Block Eyeglasses TF5586 052 56mm</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>I got it. thanks.</t>
+          <t>Everything was as expected and communicated. Very happy!</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Buyer: l***a</t>
+          <t>Buyer: m***a</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tom Ford 5346 052 Dark Havana Eyeglasses TF5346 052 53mm</t>
+          <t>Tom Ford BRADBURY Shiny Rose Gold / Gray Sunglasses TF525 28A</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Speedy shipping, careful packaging, will do business again!</t>
+          <t>Great seller, great quality, received cleaning agent as well and item came way before time.</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Buyer: h***a</t>
+          <t>Buyer: p***0</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5684,17 +5684,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Spy Logan Shiny Black / Gray Sunglasses</t>
+          <t>Barton Perreira GINSBERG Matte Black Eyeglasses MAB 46mm</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>wonderful seller,  I highly recommend others to this seller, wonderful communication and service,  I'm very happy with my purchase,  thank you. It fits perfect, will definitely buy another.</t>
+          <t>++++++++++++++ as advertised +++++++++++++</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Buyer: d***d</t>
+          <t>Buyer: u***l</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5711,17 +5711,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Persol 3097S 101857 Light Brown / Brown Polarized Sunglasses PO3097</t>
+          <t>Serengeti Verucchio Shiny Black / Polarized Phd CPG Sunglasses 7440</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>They included a free mask!</t>
+          <t>I got it. thanks.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Buyer: m***k</t>
+          <t>Buyer: l***a</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5738,17 +5738,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Serengeti Dante Shiny Silver / 555nm Green Sunglasses 7314</t>
+          <t>Tom Ford 5346 052 Dark Havana Eyeglasses TF5346 052 53mm</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Very fast shipping with great communication!!</t>
+          <t>Speedy shipping, careful packaging, will do business again!</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Buyer: v***v</t>
+          <t>Buyer: h***a</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MONCLER MC019-V01 Gray Eyeglasses MC 019-V01</t>
+          <t>Spy Logan Shiny Black / Gray Sunglasses</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Very happy with item, thank you.</t>
+          <t>wonderful seller,  I highly recommend others to this seller, wonderful communication and service,  I'm very happy with my purchase,  thank you. It fits perfect, will definitely buy another.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Buyer: t***i</t>
+          <t>Buyer: d***d</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5792,17 +5792,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tom Ford ARNAUD 625 52V Havana Gold / Blue Sunglasses TF625 52V 53mm</t>
+          <t>Persol 3097S 101857 Light Brown / Brown Polarized Sunglasses PO3097</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AAA+++ Great seller!</t>
+          <t>They included a free mask!</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Buyer: d***d</t>
+          <t>Buyer: m***k</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tom Ford Marko Gunmetal / Gray Sunglasses TF144 08B</t>
+          <t>Serengeti Dante Shiny Silver / 555nm Green Sunglasses 7314</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>very happy with the purchase and experience.</t>
+          <t>Very fast shipping with great communication!!</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Buyer: 2***r</t>
+          <t>Buyer: v***v</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5846,17 +5846,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tom Ford NIKA Black Ivory / Gray Gradient Sunglasses TF523 01B</t>
+          <t>MONCLER MC019-V01 Gray Eyeglasses MC 019-V01</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Beautiful item</t>
+          <t>Very happy with item, thank you.</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Buyer: w***0</t>
+          <t>Buyer: t***i</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">

--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adidas AF37 106055 Matte Black / Blue Eyeglasses AF37 10 6055 52mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The frames were exactly as described and I received them in a timely manner!! Would purchase from seller again!!!</t>
+          <t>5 STAR SERVICE. THANK YOU.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Buyer: s***1</t>
+          <t>Buyer: a***s</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tom Ford 5516 055 Light Havana Gold / Blue Block Eyeglasses TF5516 055 48mm</t>
+          <t>Tom Ford COLIN Gold / Brown Gradient Aviator Sunglasses TF338 28F 58mm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Awesome. Thank y</t>
+          <t>Excellent Seller, item arrived as described, packaged well, Very Fast Delivery, included extras the Seller added to the shipment which is a very nice touch.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Buyer: o***b</t>
+          <t>Buyer: 1***8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tom Ford 5873 005 Shiny Black Tortoise / Blue Block Eyeglasses TF5873-B 005 49mm</t>
+          <t>Adidas AF37 106055 Matte Black / Blue Eyeglasses AF37 10 6055 52mm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thanks for a great pair of glasses. Quick shipping!!!</t>
+          <t>The frames were exactly as described and I received them in a timely manner!! Would purchase from seller again!!!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buyer: 7***1</t>
+          <t>Buyer: s***1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,17 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
+          <t>Tom Ford 5516 055 Light Havana Gold / Blue Block Eyeglasses TF5516 055 48mm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Great item, great quality. Fast sender</t>
+          <t>Awesome. Thank y</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buyer: c***d</t>
+          <t>Buyer: o***b</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carrera Champion Rubber Black / Gray Sunglasses BIL 62mm</t>
+          <t>Tom Ford 5873 005 Shiny Black Tortoise / Blue Block Eyeglasses TF5873-B 005 49mm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Item exactly as described, fast shipping A+</t>
+          <t>Thanks for a great pair of glasses. Quick shipping!!!</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buyer: c***7</t>
+          <t>Buyer: 7***1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Very nice item and the shipping was very quick.  I would definitely recommend this seller and I would not hesitate to deal with again in the future.</t>
+          <t>Great item, great quality. Fast sender</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Buyer: 6***t</t>
+          <t>Buyer: c***d</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tom Ford 5587-B 053 Tortoise / Blue Block Eyeglasses TF5587 053 53mm</t>
+          <t>Carrera Champion Rubber Black / Gray Sunglasses BIL 62mm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Really good communication with seller, very helpful, despatched quickly, item exactly as described. Recommended</t>
+          <t>Item exactly as described, fast shipping A+</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Buyer: v***d</t>
+          <t>Buyer: c***7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZERORH+ TITANO Silver Gray Titanium Eyeglasses RH195-01 55mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Love them!</t>
+          <t>Very nice item and the shipping was very quick.  I would definitely recommend this seller and I would not hesitate to deal with again in the future.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Buyer: 1***o</t>
+          <t>Buyer: 6***t</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tom Ford 5313 001 Shiny Black Eyeglasses TF5313 001 55mm</t>
+          <t>Tom Ford 5587-B 053 Tortoise / Blue Block Eyeglasses TF5587 053 53mm</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Super service and super glasses! Thank you</t>
+          <t>Really good communication with seller, very helpful, despatched quickly, item exactly as described. Recommended</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buyer: o***k</t>
+          <t>Buyer: v***d</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tag Heuer 501 004 Tortoise Brown Eyeglasses TH501-004 Spring Hinges 57mm</t>
+          <t>ZERORH+ TITANO Silver Gray Titanium Eyeglasses RH195-01 55mm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Item as pictured and described</t>
+          <t>Love them!</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Buyer: u***s</t>
+          <t>Buyer: 1***o</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Pewter Matte Black / Blue Gradient Sunglasses MDT PEW STB</t>
+          <t>Tom Ford 5313 001 Shiny Black Eyeglasses TF5313 001 55mm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Item arrived promptly and as described</t>
+          <t>Super service and super glasses! Thank you</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Buyer: 0***7</t>
+          <t>Buyer: o***k</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -765,17 +765,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tom Ford 5590-B 052 Havana Ruthenium / Blue Block Eyeglasses TF5590 052 50mm</t>
+          <t>Tag Heuer 501 004 Tortoise Brown Eyeglasses TH501-004 Spring Hinges 57mm</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Highly recommended</t>
+          <t>Item as pictured and described</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Buyer: c***f</t>
+          <t>Buyer: u***s</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
+          <t>Barton Perreira HEIST Pewter Matte Black / Blue Gradient Sunglasses MDT PEW STB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bought these to replace another set of frames (same model) that I've had for many years. They're very comfortable, and I'm relieved to have found an identical replacement. Item arrived several weeks before the estimated delivery date. Thanks!</t>
+          <t>Item arrived promptly and as described</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Buyer: 5***a</t>
+          <t>Buyer: 0***7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -819,17 +819,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tag Heuer AUTOMATIC 883 203 Chocolate / Brown Outdoors Sunglasses TH0883 203</t>
+          <t>Tom Ford 5590-B 052 Havana Ruthenium / Blue Block Eyeglasses TF5590 052 50mm</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thank you!</t>
+          <t>Highly recommended</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Buyer: t***7</t>
+          <t>Buyer: c***f</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -846,17 +846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
+          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Excellent quality, good price and fast shipping</t>
+          <t>Bought these to replace another set of frames (same model) that I've had for many years. They're very comfortable, and I'm relieved to have found an identical replacement. Item arrived several weeks before the estimated delivery date. Thanks!</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Buyer: 0***e</t>
+          <t>Buyer: 5***a</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tom Ford 5474 32E Gold Eyeglasses + Brown Clip TF5474-32E 53mm</t>
+          <t>Tag Heuer AUTOMATIC 883 203 Chocolate / Brown Outdoors Sunglasses TH0883 203</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Top class, thanks</t>
+          <t>Thank you!</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: t***7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 54mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aritkel kam wie beschrieben und sehr gut verpackt an.</t>
+          <t>Excellent quality, good price and fast shipping</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tag Heuer 3052 003 Reflex Gray Eyeglasses TH3052-003 47mm</t>
+          <t>Tom Ford 5474 32E Gold Eyeglasses + Brown Clip TF5474-32E 53mm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thank you very much</t>
+          <t>Top class, thanks</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -954,17 +954,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tom Ford 5489 052 Havana Eyeglasses TF5489 052 48mm</t>
+          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 54mm</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thank you so much for getting me these frames in such a timely fashion. Your process from start to finish was outstanding and I love my new frames again thanks for a positive experience!!!</t>
+          <t>Aritkel kam wie beschrieben und sehr gut verpackt an.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Buyer: 4***t</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MONCLER MC014-V03 Green Gunmetal Titanium Eyeglasses MC 014-V03 52mm</t>
+          <t>Tag Heuer 3052 003 Reflex Gray Eyeglasses TH3052-003 47mm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>I positively love these frames!! Just wish they came with original case.</t>
+          <t>Thank you very much</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Buyer: a***n</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
+          <t>Tom Ford 5489 052 Havana Eyeglasses TF5489 052 48mm</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>It was great experience and product, bought it for my husband and he loved them</t>
+          <t>Thank you so much for getting me these frames in such a timely fashion. Your process from start to finish was outstanding and I love my new frames again thanks for a positive experience!!!</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Buyer: o***o</t>
+          <t>Buyer: 4***t</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
+          <t>MONCLER MC014-V03 Green Gunmetal Titanium Eyeglasses MC 014-V03 52mm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fast shipping...thank you.</t>
+          <t>I positively love these frames!! Just wish they came with original case.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: a***n</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lacoste Eyeglasses Sunglasses Medium Green Hard Case With Cloth</t>
+          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Very Fast shipping, good comunnication, great communication A++++</t>
+          <t>It was great experience and product, bought it for my husband and he loved them</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Buyer: o***d</t>
+          <t>Buyer: o***o</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
+          <t>Just Cavalli 323S 14B Blue Silver / Grey Sunglasses JC323 14B 58mm</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>As promised and on time! 5 stars</t>
+          <t>Fast shipping...thank you.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Buyer: t***_</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tom Ford 5408 052 Dark Havana Eyeglasses TF5408 052 56mm</t>
+          <t>Lacoste Eyeglasses Sunglasses Medium Green Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Great quality product!</t>
+          <t>Very Fast shipping, good comunnication, great communication A++++</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: o***d</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>On time and as promised</t>
+          <t>As promised and on time! 5 stars</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1170,17 +1170,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
+          <t>Tom Ford 5408 052 Dark Havana Eyeglasses TF5408 052 56mm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Excellent item, low price, and extremely fast shipping</t>
+          <t>Great quality product!</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Buyer: 0***e</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MONTBLANC MB0723 001 Shiny Black Eyeglasses MB 723 001 55mm</t>
+          <t>Tom Ford 5873 001 Shiny Black / Blue Block Eyeglasses TF5873-B 001 49mm</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>as described, would do business with again, AAA+++</t>
+          <t>On time and as promised</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Buyer: r***r</t>
+          <t>Buyer: t***_</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1224,17 +1224,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tom Ford IVANNA 372 53W Havana / Blue Gradient Sunglasses TF372 53W 64mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pretty</t>
+          <t>Excellent item, low price, and extremely fast shipping</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Buyer: 1***r</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tom Ford NIKA 523 52F Dark Havana / Purple Gradient Sunglasses TF523 52F 56mm</t>
+          <t>MONTBLANC MB0723 001 Shiny Black Eyeglasses MB 723 001 55mm</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Absolutely beautiful. Came with a little cleaning kit. I will buy from here again. 🫶🏼</t>
+          <t>as described, would do business with again, AAA+++</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Buyer: g***i</t>
+          <t>Buyer: r***r</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tom Ford 5207 083 Havana Eyeglasses TF5207 083 49mm</t>
+          <t>Tom Ford IVANNA 372 53W Havana / Blue Gradient Sunglasses TF372 53W 64mm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Professional. Quick and exactly as described.</t>
+          <t>Pretty</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Buyer: d***r</t>
+          <t>Buyer: 1***r</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZERORH+ FORMULA Brown &amp; Blue Eyeglasses RH222 222-05 53mm</t>
+          <t>Tom Ford NIKA 523 52F Dark Havana / Purple Gradient Sunglasses TF523 52F 56mm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Absolutely beautiful. Came with a little cleaning kit. I will buy from here again. 🫶🏼</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: g***i</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZERORH+ FORMULA Eyeglasses RH217</t>
+          <t>Tom Ford 5207 083 Havana Eyeglasses TF5207 083 49mm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>good!</t>
+          <t>Professional. Quick and exactly as described.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: d***r</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tag Heuer 7603-002 Track Brown Havana Orange Eyeglasses TH7603 002 50mm</t>
+          <t>ZERORH+ FORMULA Brown &amp; Blue Eyeglasses RH222 222-05 53mm</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Great seller. Fast shipping. Thank you.</t>
+          <t>good</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Buyer: i***r</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
+          <t>ZERORH+ FORMULA Eyeglasses RH217</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Great Price, easy transaction and great experience. SunRayCity also included accessories I didn't expect. Nice touch!</t>
+          <t>good!</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Buyer: u***r</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tag Heuer 7604 003 Track Navy Blue Gray Eyeglasses 7604-003 56mm</t>
+          <t>Tag Heuer 7603-002 Track Brown Havana Orange Eyeglasses TH7603 002 50mm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Love these frames!</t>
+          <t>Great seller. Fast shipping. Thank you.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Buyer: n***r</t>
+          <t>Buyer: i***r</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1440,72 +1440,72 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Great Price, easy transaction and great experience. SunRayCity also included accessories I didn't expect. Nice touch!</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Buyer: u***r</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Past 6 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tag Heuer 7604 003 Track Navy Blue Gray Eyeglasses 7604-003 56mm</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Love these frames!</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Buyer: n***r</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Past 6 months</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Rayban Aviator 3025 L0205 Gold / G-15 Sunglasses Made in Italy 58mm</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>The seller is A+++++++.
 Thank you very much.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Buyer: f***e</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Past 6 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Tom Ford 5421 074 Rose Pink Eyeglasses TF5421 074 53mm</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Excellent brand new frames.Fast delivery, perfect transaction. Thanks</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Buyer: e***1</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Past 6 months</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Serengeti Martino Dark Tortoise / Green Polarized Sunglasses 7528</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>+++TOP+++</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Buyer: e***d</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1522,17 +1522,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tom Ford 5007 Q41 Marble Brown Eyeglasses TF5007 Q41 51mm</t>
+          <t>Tom Ford 5421 074 Rose Pink Eyeglasses TF5421 074 53mm</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>Excellent brand new frames.Fast delivery, perfect transaction. Thanks</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: e***1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tom Ford 5424 001 Black Eyeglasses TF5424 001 55mm</t>
+          <t>Serengeti Martino Dark Tortoise / Green Polarized Sunglasses 7528</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Flawless transaction!  Was not sure about the size but better than expected!!</t>
+          <t>+++TOP+++</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Buyer: z***e</t>
+          <t>Buyer: e***d</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tom Ford 5762 052 Dark Havana / Blue Block Eyeglasses TF5762-B 052 55mm</t>
+          <t>Tom Ford 5007 Q41 Marble Brown Eyeglasses TF5007 Q41 51mm</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Exactly as described, brand new with no defects, came with certificate of authenticity. Lightning fast shipping and delivery plus seller included some extras, such as cleaner and microfibre cloth which is highly appreciated. Would definitely recommend. Wonderful experience, A+++ Thank you !!!</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buyer: z***o</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1603,17 +1603,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
+          <t>Tom Ford 5424 001 Black Eyeglasses TF5424 001 55mm</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Great seller.</t>
+          <t>Flawless transaction!  Was not sure about the size but better than expected!!</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Buyer: -***x</t>
+          <t>Buyer: z***e</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1630,22 +1630,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adidas AF23 50 6057 INVOKE Black / Night Flash Eyeglasses AF23 506057 53mm</t>
+          <t>Tom Ford 5762 052 Dark Havana / Blue Block Eyeglasses TF5762-B 052 55mm</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fantastic seller! They ship very quickly and will negotiate if you use the offer button. They are very fair and with the item they include some extras, which is appreciated. Next time I’m looking for frames at an excellent price, I will shop here. Many thanks.</t>
+          <t>Exactly as described, brand new with no defects, came with certificate of authenticity. Lightning fast shipping and delivery plus seller included some extras, such as cleaner and microfibre cloth which is highly appreciated. Would definitely recommend. Wonderful experience, A+++ Thank you !!!</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: z***o</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Past 6 months</t>
+          <t>Past year</t>
         </is>
       </c>
     </row>
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Exactly what was advertised, with extras I appreciated but didn't expect, such as cleaner and extra microfiber cloths. Would buy from this seller again!</t>
+          <t>Great seller.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Buyer: 8***7</t>
+          <t>Buyer: -***x</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1684,17 +1684,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Carrera 5011 Camouflage Pink / Pink Sunglasses 5011/S 8GW 54mm</t>
+          <t>Adidas AF23 50 6057 INVOKE Black / Night Flash Eyeglasses AF23 506057 53mm</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Happy with the glasses. Prompt delivery.</t>
+          <t>Fantastic seller! They ship very quickly and will negotiate if you use the offer button. They are very fair and with the item they include some extras, which is appreciated. Next time I’m looking for frames at an excellent price, I will shop here. Many thanks.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Buyer: i***6</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tom Ford 5375 056 Dark Havana Eyeglasses TF5375 056 Asian Fit 55mm</t>
+          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Items arrived as listed. I'll purchase from the seller again.</t>
+          <t>Exactly what was advertised, with extras I appreciated but didn't expect, such as cleaner and extra microfiber cloths. Would buy from this seller again!</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Buyer: _***_</t>
+          <t>Buyer: 8***7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1738,17 +1738,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tom Ford 5207 005 Dark Brown Eyeglasses TF5207 005 49mm</t>
+          <t>Carrera 5011 Camouflage Pink / Pink Sunglasses 5011/S 8GW 54mm</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Thanks!  As described. A+</t>
+          <t>Happy with the glasses. Prompt delivery.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Buyer: s***t</t>
+          <t>Buyer: i***6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1760,22 +1760,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Negative feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROSHADE Sun Visor Lanyard 3 In 1 Eyewear Case</t>
+          <t>Tom Ford 5375 056 Dark Havana Eyeglasses TF5375 056 Asian Fit 55mm</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nothing against the seller, item was as described but it doesn’t work. Visor does not stay up and straight.</t>
+          <t>Items arrived as listed. I'll purchase from the seller again.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Buyer: y***o</t>
+          <t>Buyer: _***_</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
+          <t>Tom Ford 5207 005 Dark Brown Eyeglasses TF5207 005 49mm</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Qualitative good product as described</t>
+          <t>Thanks!  As described. A+</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Buyer: n***i</t>
+          <t>Buyer: s***t</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1814,22 +1814,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Positive feedback rating</t>
+          <t>Negative feedback rating</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tom Ford 5455 056 Havana Amber Oval Eyeglasses TF5455 056 50mm</t>
+          <t>PROSHADE Sun Visor Lanyard 3 In 1 Eyewear Case</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Thanks I love them . I hand them and they were hard to find. 💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿</t>
+          <t>Nothing against the seller, item was as described but it doesn’t work. Visor does not stay up and straight.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Buyer: u***5</t>
+          <t>Buyer: y***o</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1846,17 +1846,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tag Heuer 8007 003 Trends Chocolate Havane Black Eyeglasses 8007-003 56mm</t>
+          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Quick, highly recommended seller! Thanks!</t>
+          <t>Qualitative good product as described</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Buyer: 2***2</t>
+          <t>Buyer: n***i</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1873,17 +1873,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tom Ford 5291 052 Brown Turquoise Eyeglasses TF5291 052 55mm</t>
+          <t>Tom Ford 5455 056 Havana Amber Oval Eyeglasses TF5455 056 50mm</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nice glasses, fast shipping great seller</t>
+          <t>Thanks I love them . I hand them and they were hard to find. 💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿💪🏿</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Buyer: b***b</t>
+          <t>Buyer: u***5</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1900,17 +1900,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tom Ford 5304 093 Gray Stripe Eyeglasses TF5304 093 54mm</t>
+          <t>Tag Heuer 8007 003 Trends Chocolate Havane Black Eyeglasses 8007-003 56mm</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Excellent! Thanks!!!</t>
+          <t>Quick, highly recommended seller! Thanks!</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Buyer: p***o</t>
+          <t>Buyer: 2***2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1927,17 +1927,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260 64mm</t>
+          <t>Tom Ford 5291 052 Brown Turquoise Eyeglasses TF5291 052 55mm</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Thank you</t>
+          <t>Nice glasses, fast shipping great seller</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: b***b</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1954,17 +1954,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
+          <t>Tom Ford 5304 093 Gray Stripe Eyeglasses TF5304 093 54mm</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Terrific Seller</t>
+          <t>Excellent! Thanks!!!</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Buyer: t***3</t>
+          <t>Buyer: p***o</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SPY CALIBER Soft Matte Black / Happy Gray Green Sunglasses 673374973863 59mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260 64mm</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Perfect!  Crazy fast shipping too.  A+++</t>
+          <t>Thank you</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Buyer: i***h</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2008,17 +2008,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
+          <t>Serengeti Ramone Satin Bronze / Cool Photo Gray Polarmax Sunglasses 7157</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Everything was perfect.</t>
+          <t>Terrific Seller</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Buyer: o***n</t>
+          <t>Buyer: t***3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2035,17 +2035,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tom Ford 5313 055 Dark Havana Eyeglasses TF5313 055 55mm</t>
+          <t>SPY CALIBER Soft Matte Black / Happy Gray Green Sunglasses 673374973863 59mm</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Thank you very much.</t>
+          <t>Perfect!  Crazy fast shipping too.  A+++</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Buyer: o***i</t>
+          <t>Buyer: i***h</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2067,12 +2067,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Perfect thank you</t>
+          <t>Everything was perfect.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Buyer: a***l</t>
+          <t>Buyer: o***n</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
+          <t>Tom Ford 5313 055 Dark Havana Eyeglasses TF5313 055 55mm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Exactly as described.</t>
+          <t>Thank you very much.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Buyer: 4***4</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Adidas A628 50 6054 Black Eyeglasses 628 506054 55mm</t>
+          <t>Tom Ford CLINT Havana / Yellow Sunglasses TF537 48E 52mm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Seller helped me verify that these will work with my existing lenses. I'm a repeat customer and have had excellent results with SunRayCity!</t>
+          <t>Perfect thank you</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Buyer: m***i</t>
+          <t>Buyer: a***l</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2143,17 +2143,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
+          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Thanks for a great product!</t>
+          <t>Exactly as described.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Buyer: 8***g</t>
+          <t>Buyer: 4***4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tom Ford 5483 028 Shiny Rose Gold Titanium Eyeglasses TF5483 028 52mm</t>
+          <t>Adidas A628 50 6054 Black Eyeglasses 628 506054 55mm</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>Seller helped me verify that these will work with my existing lenses. I'm a repeat customer and have had excellent results with SunRayCity!</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Buyer: u***9</t>
+          <t>Buyer: m***i</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
+          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Excellent seller. Great products. Fast delivery and also received some extra bonuses which was a delightful surprise. Highly recommended and will purchase more.  A+++++</t>
+          <t>Thanks for a great product!</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Buyer: o***i</t>
+          <t>Buyer: 8***g</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2224,17 +2224,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
+          <t>Tom Ford 5483 028 Shiny Rose Gold Titanium Eyeglasses TF5483 028 52mm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Seller has agreed to send the item again........when it arrives I will be happy!</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Buyer: s***e</t>
+          <t>Buyer: u***9</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2251,17 +2251,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Giorgio Armani 456 PRP X7 Brown / Brown Sunglasses 60mm</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Great seller fast delivery very pleased￼A+++++</t>
+          <t>Excellent seller. Great products. Fast delivery and also received some extra bonuses which was a delightful surprise. Highly recommended and will purchase more.  A+++++</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2278,17 +2278,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
+          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>Seller has agreed to send the item again........when it arrives I will be happy!</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Buyer: o***i</t>
+          <t>Buyer: s***e</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2305,17 +2305,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tom Ford 5504 052 Dark Havana Gold Eyeglasses TF5504 052 54mm</t>
+          <t>Giorgio Armani 456 PRP X7 Brown / Brown Sunglasses 60mm</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fast shipping, Accurate item,  Great seller. I would definitely do business with again.</t>
+          <t>Great seller fast delivery very pleased￼A+++++</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Buyer: l***_</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Got here ahead of time and was exactly as ordered</t>
+          <t>Great</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Buyer: j***6</t>
+          <t>Buyer: o***i</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
+          <t>Tom Ford 5504 052 Dark Havana Gold Eyeglasses TF5504 052 54mm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Alles bestens! Gerne wieder. Vielen Dank!</t>
+          <t>Fast shipping, Accurate item,  Great seller. I would definitely do business with again.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Buyer: o***o</t>
+          <t>Buyer: l***_</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2386,17 +2386,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tom Ford CHRISTOPHER 02 Shiny Black / Gray Sunglasses TF633 001 0633 49mm</t>
+          <t>Tom Ford 5549-B 002 Black / Blue Block Eyeglasses TF5549 002 52mm</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Amazing seller . Flawless transaction</t>
+          <t>Got here ahead of time and was exactly as ordered</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Buyer: j***l</t>
+          <t>Buyer: j***6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2413,17 +2413,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
+          <t>Tom Ford 5163 55A Havana Eyeglasses TF5163 55A 53mm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Quick delivery. Item was nicely packed. Recommended ebayer. A+++++++++ Thanks!</t>
+          <t>Alles bestens! Gerne wieder. Vielen Dank!</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Buyer: l***0</t>
+          <t>Buyer: o***o</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2440,17 +2440,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MONCLER MC512-V04 Striped Gray Eyeglasses MC 512-V04</t>
+          <t>Tom Ford CHRISTOPHER 02 Shiny Black / Gray Sunglasses TF633 001 0633 49mm</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>THANK YOU... A+ SELLER.....</t>
+          <t>Amazing seller . Flawless transaction</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Buyer: o***2</t>
+          <t>Buyer: j***l</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2467,17 +2467,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tag Heuer 821 009 Automatic Gray Orange Eyeglasses 0821-009 56mm</t>
+          <t>Carrera Sunglasses Small Black Leather Hard Case With Cloth</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Really smooth transaction, speedy delivery too, can highly recommend.....</t>
+          <t>Quick delivery. Item was nicely packed. Recommended ebayer. A+++++++++ Thanks!</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Buyer: m***2</t>
+          <t>Buyer: l***0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2494,17 +2494,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Moncler MC507-01 Tortoise / Gray Pelvoux Sunglasses MC 507-01 58mm</t>
+          <t>MONCLER MC512-V04 Striped Gray Eyeglasses MC 512-V04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Received faster than expected. Very good quality, with certificate of authentication. I had this for over 10 years and lost them in the water this year. Really happy to have been able to get them again!</t>
+          <t>THANK YOU... A+ SELLER.....</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Buyer: d***8</t>
+          <t>Buyer: o***2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tom Ford 5514 083 Violet Eyeglasses TF5514 083 54mm</t>
+          <t>Tag Heuer 821 009 Automatic Gray Orange Eyeglasses 0821-009 56mm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Great seller with fantastic communication. Fast Shipping and Perfect Condition. Thank you!</t>
+          <t>Really smooth transaction, speedy delivery too, can highly recommend.....</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Buyer: s***i</t>
+          <t>Buyer: m***2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2548,22 +2548,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6052 INVOKE Shiny Brown / Orange Eyeglasses AF20 006052 56mm</t>
+          <t>Moncler MC507-01 Tortoise / Gray Pelvoux Sunglasses MC 507-01 58mm</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Perfect.</t>
+          <t>Received faster than expected. Very good quality, with certificate of authentication. I had this for over 10 years and lost them in the water this year. Really happy to have been able to get them again!</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Buyer: n***g</t>
+          <t>Buyer: d***8</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>More than a year ago</t>
+          <t>Past year</t>
         </is>
       </c>
     </row>
@@ -2575,22 +2575,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tom Ford 5586-B 001 Black Blue Block Eyeglasses TF5586 001 56mm</t>
+          <t>Tom Ford 5514 083 Violet Eyeglasses TF5514 083 54mm</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A+++</t>
+          <t>Great seller with fantastic communication. Fast Shipping and Perfect Condition. Thank you!</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Buyer: y***7</t>
+          <t>Buyer: s***i</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>More than a year ago</t>
+          <t>Past year</t>
         </is>
       </c>
     </row>
@@ -2602,17 +2602,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
+          <t>Adidas AF20 00 6052 INVOKE Shiny Brown / Orange Eyeglasses AF20 006052 56mm</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Great item, exactly as described and fast international shipping. Thanks</t>
+          <t>Perfect.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Buyer: u***o</t>
+          <t>Buyer: n***g</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Carrera 7015 Xcede Matte Black / Gray Polarized Sunglasses 7015/S 03P 61mm</t>
+          <t>Tom Ford 5586-B 001 Black Blue Block Eyeglasses TF5586 001 56mm</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Outstanding transaction! Super fast responses and shipping! These sunglasses are PERFECT! Thanks for the great service and fast shipping! Awesome seller!</t>
+          <t>A+++</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Buyer: k***v</t>
+          <t>Buyer: y***7</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2656,17 +2656,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
+          <t>Adidas AF23 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF23 406053 55mm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Love these frames as they are so comfortable.</t>
+          <t>Great item, exactly as described and fast international shipping. Thanks</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Buyer: 6***m</t>
+          <t>Buyer: u***o</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2683,17 +2683,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GUCCI GG0060O 004 Flowers Multicolor Eyeglasses GG 600 49mm</t>
+          <t>Carrera 7015 Xcede Matte Black / Gray Polarized Sunglasses 7015/S 03P 61mm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thank you SunRayCity!  I love this frame, and you helped me replace the same ones that I lost! I appreciate your sending this so quickly and the other little goodies you includes. I’m so happy!</t>
+          <t>Outstanding transaction! Super fast responses and shipping! These sunglasses are PERFECT! Thanks for the great service and fast shipping! Awesome seller!</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Buyer: o***e</t>
+          <t>Buyer: k***v</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2710,17 +2710,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tom Ford 5291 005 Black Turquoise Eyeglasses TF5291 005 55mm</t>
+          <t>Adidas AF20 00 6055 INVOKE Iron / Dark Gray Eyeglasses AF20 006055 54mm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A+++++</t>
+          <t>Love these frames as they are so comfortable.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: 6***m</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2737,17 +2737,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tom Ford Ekaterina 363 71Z Bordeaux / Purple Gradient Sunglasses TF363 71Z 150mm</t>
+          <t>GUCCI GG0060O 004 Flowers Multicolor Eyeglasses GG 600 49mm</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Item in perfect condition and arrived promptly.</t>
+          <t>Thank you SunRayCity!  I love this frame, and you helped me replace the same ones that I lost! I appreciate your sending this so quickly and the other little goodies you includes. I’m so happy!</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Buyer: n***k</t>
+          <t>Buyer: o***e</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2764,72 +2764,72 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Tom Ford 5291 005 Black Turquoise Eyeglasses TF5291 005 55mm</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A+++++</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Buyer: l***e</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Tom Ford Ekaterina 363 71Z Bordeaux / Purple Gradient Sunglasses TF363 71Z 150mm</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Item in perfect condition and arrived promptly.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Buyer: n***k</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>Tom Ford 5226 083 Purple Tortoise Eyeglasses TF5226 083 54mm</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>The seller was right on about the product 
 Everyone likes the eye frame on me I’m not to share yet once I see my eye doctor in fall I get my new lenses in I’m not saying I don’t like them their different from other eyeglass frames that’s for sure</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Buyer: r***m</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Tom Ford NINA 373 01B Black Gold / Gray Gradient Sunglasses TF373 01B 56mm</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Love these sunglasses! My favorite Tom Ford style ever. They arrived sooner than expected and well packaged. Although a vintage style, these are new. I was delighted to find them on eBay!</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Buyer: h***2</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Tag Heuer 825 009 Gray Orange Eyeglasses TH825-009 57mm</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>BUENAS TARDES. EL PEDIDO HA LLEGADO HOY 03/07/2023.LAS GAFAS VIENEN EMBALADAS PERFECTAMENTE Y A LA ENTREGA HE PAGADO LOS ARANCELES CORRESPONDIENTES,EN ÉSTE CASO HAN SIDO 38,38€. LAS GAFAS SON EXACTAMENTE EL MODELO QUE HABÍA ELEGIDO.VENDEDOR EXCELENTE.</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Buyer: b***-</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tom Ford 5424 056A Light Havana Purple Eyeglasses TF5424 056A 53mm</t>
+          <t>Tom Ford NINA 373 01B Black Gold / Gray Gradient Sunglasses TF373 01B 56mm</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>great vendor. Frames exactly as described , brand new with case cleaning cloth and sunglass cover. Excellent--will purchase again from vendor</t>
+          <t>Love these sunglasses! My favorite Tom Ford style ever. They arrived sooner than expected and well packaged. Although a vintage style, these are new. I was delighted to find them on eBay!</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Buyer: 2***m</t>
+          <t>Buyer: h***2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2873,17 +2873,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MONTBLANC MB0674 013 Satin Ruthenium Eyeglasses MB 674 013 56mm</t>
+          <t>Tag Heuer 825 009 Gray Orange Eyeglasses TH825-009 57mm</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>All good, great price and delivered as advertised</t>
+          <t>BUENAS TARDES. EL PEDIDO HA LLEGADO HOY 03/07/2023.LAS GAFAS VIENEN EMBALADAS PERFECTAMENTE Y A LA ENTREGA HE PAGADO LOS ARANCELES CORRESPONDIENTES,EN ÉSTE CASO HAN SIDO 38,38€. LAS GAFAS SON EXACTAMENTE EL MODELO QUE HABÍA ELEGIDO.VENDEDOR EXCELENTE.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: b***-</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Barton Perreira SAMUEL Black Eyeglasses BLA 50mm</t>
+          <t>Tom Ford 5424 056A Light Havana Purple Eyeglasses TF5424 056A 53mm</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Love my glasses they were as expected fast shipping too!</t>
+          <t>great vendor. Frames exactly as described , brand new with case cleaning cloth and sunglass cover. Excellent--will purchase again from vendor</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Buyer: a***-</t>
+          <t>Buyer: 2***m</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Adidas AF23 50 6054 INVOKE Black /Gray Eyeglasses AF23 506054 53mm</t>
+          <t>MONTBLANC MB0674 013 Satin Ruthenium Eyeglasses MB 674 013 56mm</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>An excellent seller! The item shipped out quickly and came with a tracking number.  Shipping was very fast and secure. Am very pleased with my item.</t>
+          <t>All good, great price and delivered as advertised</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Buyer: t***c</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
+          <t>Barton Perreira SAMUEL Black Eyeglasses BLA 50mm</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>A++++++++++++++++</t>
+          <t>Love my glasses they were as expected fast shipping too!</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Buyer: 5***5</t>
+          <t>Buyer: a***-</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2981,17 +2981,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bolle Draft Crystal Smoke / Photochromic Rose Gun Sunglasses 11470</t>
+          <t>Adidas AF23 50 6054 INVOKE Black /Gray Eyeglasses AF23 506054 53mm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Great item great price fast shipping thank you</t>
+          <t>An excellent seller! The item shipped out quickly and came with a tracking number.  Shipping was very fast and secure. Am very pleased with my item.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Buyer: d***e</t>
+          <t>Buyer: t***c</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Serengeti Martino Shiny Black / Sedona Polarized Sunglasses 7840</t>
+          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sunglasses were delivered as new.  Great shape.</t>
+          <t>A++++++++++++++++</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Buyer: 8***b</t>
+          <t>Buyer: 5***5</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3035,17 +3035,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Gold Tortoise / Gray Gradient Sunglasses EST ANG SMT</t>
+          <t>Bolle Draft Crystal Smoke / Photochromic Rose Gun Sunglasses 11470</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>FAST SHIPPING THANK YOU A+</t>
+          <t>Great item great price fast shipping thank you</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Buyer: e***n</t>
+          <t>Buyer: d***e</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Serengeti Sangro Satin Black / Polarized Drivers Sunglasses 6998</t>
+          <t>Serengeti Martino Shiny Black / Sedona Polarized Sunglasses 7840</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>recommend this seller</t>
+          <t>Sunglasses were delivered as new.  Great shape.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Buyer: i***n</t>
+          <t>Buyer: 8***b</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Carrera 42 Horn Black / Gray Gradient Sunglasses 42/S 7J3</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Gray Gradient Sunglasses EST ANG SMT</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Gréât seller and auction. Thx</t>
+          <t>FAST SHIPPING THANK YOU A+</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Buyer: 1***0</t>
+          <t>Buyer: e***n</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MONCLER MC010-S05 Gray / Gray Sunglasses MC 010-S05</t>
+          <t>Serengeti Sangro Satin Black / Polarized Drivers Sunglasses 6998</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thank you very fast</t>
+          <t>recommend this seller</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Buyer: n***5</t>
+          <t>Buyer: i***n</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3143,17 +3143,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
+          <t>Carrera 42 Horn Black / Gray Gradient Sunglasses 42/S 7J3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Fast shipping, great item, would definitely buy from again</t>
+          <t>Gréât seller and auction. Thx</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Buyer: g***m</t>
+          <t>Buyer: 1***0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
+          <t>MONCLER MC010-S05 Gray / Gray Sunglasses MC 010-S05</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Thank you very fast</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Buyer: h***w</t>
+          <t>Buyer: n***5</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3197,17 +3197,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tag Heuer 802 011 Automatic Matte Black White Eyeglasses 802-011</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Thanks for the great transaction! Frames are awesome and shipping was fast. Highly recommended!!</t>
+          <t>Fast shipping, great item, would definitely buy from again</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Buyer: h***a</t>
+          <t>Buyer: g***m</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tom Ford 5460 045 Honey Eyeglasses TF5460 045 49mm</t>
+          <t>Tom Ford 5172 028 Gold Round Eyeglasses TF5172 028 40mm SMALL</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Good seller, no hassle.</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Buyer: c***b</t>
+          <t>Buyer: h***w</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3251,17 +3251,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Adidas AF40 006054 CONVERTOR Matte Dark Brown / Orange Eyeglasses 55mm Adaptable</t>
+          <t>Tag Heuer 802 011 Automatic Matte Black White Eyeglasses 802-011</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>very fast shipping</t>
+          <t>Thanks for the great transaction! Frames are awesome and shipping was fast. Highly recommended!!</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Buyer: e***3</t>
+          <t>Buyer: h***a</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3278,72 +3278,72 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>Tom Ford 5460 045 Honey Eyeglasses TF5460 045 49mm</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Good seller, no hassle.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Buyer: c***b</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Adidas AF40 006054 CONVERTOR Matte Dark Brown / Orange Eyeglasses 55mm Adaptable</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>very fast shipping</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Buyer: e***3</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Tom Ford HAYES 934 01E Shiny Black / Brown Sunglasses TF934 01E 59mm</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Great transaction, fast shipping - Thx!!
 A+</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Buyer: _***s</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Tag Heuer 3012 001 Reflex Black Gray Clear Eyeglasses TH3012 001 47mm</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>love these</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Buyer: e***i</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Tom Ford 5172 018 Silver Round Eyeglasses TF5172 018 40mm SMALL</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>As expected</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Buyer: t***t</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3360,17 +3360,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
+          <t>Tag Heuer 3012 001 Reflex Black Gray Clear Eyeglasses TH3012 001 47mm</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Brilliant service thank you</t>
+          <t>love these</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Buyer: i***l</t>
+          <t>Buyer: e***i</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
+          <t>Tom Ford 5172 018 Silver Round Eyeglasses TF5172 018 40mm SMALL</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>the better adidas glasses frame, low weight, best fit</t>
+          <t>As expected</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Buyer: v***8</t>
+          <t>Buyer: t***t</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3409,22 +3409,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Neutral feedback rating</t>
+          <t>Positive feedback rating</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tom Ford 5365 024 Beige Eyeglasses TF5365 024 54mm</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>I think these are seconds.  The coloring was inconsistent.  Either from firing or ? .</t>
+          <t>Brilliant service thank you</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Buyer: a***i</t>
+          <t>Buyer: i***l</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3441,17 +3441,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tom Ford 5304 052 Dark Havana Eyeglasses TF5304 052 54mm</t>
+          <t>Adidas AF39 00 6050 CONVERTOR Black Eyeglasses AF39 006050 57mm Adaptable Temple</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Was able to contact the seller. Since it s a global shipping I recommend at least putting the product in a plastic bag properly just in case or cover the lense cleaner cap with a tape. Glasses was in good condition and seller communication was prompt.</t>
+          <t>the better adidas glasses frame, low weight, best fit</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: v***8</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3463,77 +3463,77 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Positive feedback rating</t>
+          <t>Neutral feedback rating</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>Tom Ford 5365 024 Beige Eyeglasses TF5365 024 54mm</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>I think these are seconds.  The coloring was inconsistent.  Either from firing or ? .</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Buyer: a***i</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Tom Ford 5304 052 Dark Havana Eyeglasses TF5304 052 54mm</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Was able to contact the seller. Since it s a global shipping I recommend at least putting the product in a plastic bag properly just in case or cover the lense cleaner cap with a tape. Glasses was in good condition and seller communication was prompt.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Buyer: l***s</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Serengeti Milazzo Matte Black Polarized 555nm Sunglasses 6903</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Got them grate sunglasses ever made.
 Best Regards</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Buyer: 2***f</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Adidas A644 40 6052 Green Eyeglasses 644 406052 52mm</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>easy buy. great glasses and recieved some nice extras along with them. thank you very much. will purchase again.</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Buyer: o***g</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>MontBlanc Silver / Gray Sunglasses MB457S 16A</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Great product and fast shopping. Thank you! A+++++++</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Buyer: .***5</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3550,17 +3550,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Adidas A644 40 6052 Green Eyeglasses 644 406052 52mm</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Nice product.</t>
+          <t>easy buy. great glasses and recieved some nice extras along with them. thank you very much. will purchase again.</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Buyer: r***a</t>
+          <t>Buyer: o***g</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3577,17 +3577,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tag Heuer 27 Degree 6041 Matte Black / Gray Polyvalent Sunglasses TH6041 101</t>
+          <t>MontBlanc Silver / Gray Sunglasses MB457S 16A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>I bought my second pair of these. A happy purchase and service. Thank you.</t>
+          <t>Great product and fast shopping. Thank you! A+++++++</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Buyer: m***w</t>
+          <t>Buyer: .***5</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3604,17 +3604,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Adidas A621 40 6053 Red Eyeglasses 621 406053 50mm</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Item exactly as described and shipping was very quick. Thank you!</t>
+          <t>Nice product.</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Buyer: k***k</t>
+          <t>Buyer: r***a</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3631,72 +3631,72 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>Tag Heuer 27 Degree 6041 Matte Black / Gray Polyvalent Sunglasses TH6041 101</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>I bought my second pair of these. A happy purchase and service. Thank you.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Buyer: m***w</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Adidas A621 40 6053 Red Eyeglasses 621 406053 50mm</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Item exactly as described and shipping was very quick. Thank you!</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Buyer: k***k</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>More than a year ago</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Positive feedback rating</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
           <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Top quality!! Very Happy!! Fantastic item! 
 Super quick post! Excellent top seller! Best quality product !!</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Buyer: d***r</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Tom Ford 5415 001 Black Eyeglasses TF5415 001 50mm</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Five star seller.</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Buyer: n***f</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>More than a year ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Positive feedback rating</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Accurately photographed and described! Great bargain.It is so pretty and soft. It was packaged very nicely and included a personal thank you.</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Buyer: a***0</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3713,17 +3713,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Bolle Hamilton Shiny Black / True Neutral Smoke TNS Sunglasses 11282</t>
+          <t>Tom Ford 5415 001 Black Eyeglasses TF5415 001 50mm</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Just as advertised. Quick shipping and a few freebies.</t>
+          <t>Five star seller.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Buyer: w***r</t>
+          <t>Buyer: n***f</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3740,17 +3740,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tag Heuer 823 004 Automatic Blue Gray Eyeglasses TH823-004 52mm</t>
+          <t>GUCCI Shiny Brown Leather Eyeglasses Case Sunglasses Small</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Very fast shipping!</t>
+          <t>Accurately photographed and described! Great bargain.It is so pretty and soft. It was packaged very nicely and included a personal thank you.</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Buyer: k***e</t>
+          <t>Buyer: a***0</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MONTBLANC MB593 01D Shiny Black / Gray Polarized Sunglasses MB 593 01D</t>
+          <t>Bolle Hamilton Shiny Black / True Neutral Smoke TNS Sunglasses 11282</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Everything came as expected. A+</t>
+          <t>Just as advertised. Quick shipping and a few freebies.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Buyer: y***n</t>
+          <t>Buyer: w***r</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Tag Heuer 823 004 Automatic Blue Gray Eyeglasses TH823-004 52mm</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>A+++ Seller. Gr8 quality product , very reasonably priced &amp; delivery was quick. Thank u.</t>
+          <t>Very fast shipping!</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Buyer: a***4</t>
+          <t>Buyer: k***e</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3821,17 +3821,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ZERORH+ FUXION Matte Black / Grey Polarized Sunglasses RH777-04 CARL ZEISS</t>
+          <t>MONTBLANC MB593 01D Shiny Black / Gray Polarized Sunglasses MB 593 01D</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>super!!!</t>
+          <t>Everything came as expected. A+</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Buyer: l***t</t>
+          <t>Buyer: y***n</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Moncler MC507-05 Crystal / Brown Pelvoux Sunglasses MC 507-05</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Great experience. Great value. Great customer service.</t>
+          <t>A+++ Seller. Gr8 quality product , very reasonably priced &amp; delivery was quick. Thank u.</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Buyer: g***t</t>
+          <t>Buyer: a***4</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3875,17 +3875,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6058 INVOKE Onix / Black Eyeglasses AF20 006058 54mm</t>
+          <t>ZERORH+ FUXION Matte Black / Grey Polarized Sunglasses RH777-04 CARL ZEISS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Awesome!</t>
+          <t>super!!!</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Buyer: ****w</t>
+          <t>Buyer: l***t</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3902,17 +3902,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
+          <t>Moncler MC507-05 Crystal / Brown Pelvoux Sunglasses MC 507-05</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Excellent. Very fast shipping. Many thanks.</t>
+          <t>Great experience. Great value. Great customer service.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: g***t</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3929,17 +3929,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
+          <t>Adidas AF20 00 6058 INVOKE Onix / Black Eyeglasses AF20 006058 54mm</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Awesome!</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Buyer: 0***e</t>
+          <t>Buyer: ****w</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3983,17 +3983,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Adidas A628 40 6053 Chocolate Brown Eyeglasses 628 406053 55mm</t>
+          <t>Tom Ford 5590-B 055 Havana Titanium Gold / Blue Block Eyeglasses TF5590 055 50mm</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>as described</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Buyer: w***_</t>
+          <t>Buyer: 0***e</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4010,17 +4010,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ZERORH+ ZETHA Matte Black / Green Sunglasses RH771-02 ZEISS</t>
+          <t>Barton Perreira HEIST Gold Tortoise / Green Sunglasses HEC GOL BTG</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>The best seller on the ebay!!!! Thank you!</t>
+          <t>Excellent. Very fast shipping. Many thanks.</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Buyer: e***n</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 56mm</t>
+          <t>Adidas A628 40 6053 Chocolate Brown Eyeglasses 628 406053 55mm</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Bin so froh dieses Gestell bekommen zu haben! Dann noch zu einem mega Preis. Die Lieferung war super schnell innerhalb von 11 Tagen. 19 Tage eher als angekündigt. Ich würde bei Sunraycity jederzeit wieder kaufen!</t>
+          <t>as described</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Buyer: v***8</t>
+          <t>Buyer: w***_</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4064,17 +4064,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tom Ford 5694 030 Clear Gold Eyeglasses TF5694 030 54mm</t>
+          <t>ZERORH+ ZETHA Matte Black / Green Sunglasses RH771-02 ZEISS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Quality of the glasses is great! I found this style while visiting my optometry and the price is insane even with insurance. I'm so glad I was able to find a seller who has a reasonable priced stock. Thank you very much!</t>
+          <t>The best seller on the ebay!!!! Thank you!</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Buyer: i***n</t>
+          <t>Buyer: e***n</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Adidas AF13 50 6056 STREAMLIGHT Black Eyeglasses AF13 506056 52mm</t>
+          <t>Adidas AF20 00 6057 INVOKE Amazon Red / Black Eyeglasses AF20 006057 56mm</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nice looking item. Fast delivery, thank you</t>
+          <t>Bin so froh dieses Gestell bekommen zu haben! Dann noch zu einem mega Preis. Die Lieferung war super schnell innerhalb von 11 Tagen. 19 Tage eher als angekündigt. Ich würde bei Sunraycity jederzeit wieder kaufen!</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Buyer: r***a</t>
+          <t>Buyer: v***8</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4118,17 +4118,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Adidas AF22 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF22 406053 54mm</t>
+          <t>Tom Ford 5694 030 Clear Gold Eyeglasses TF5694 030 54mm</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Arrived well in advance. Great vendor. Thank you.</t>
+          <t>Quality of the glasses is great! I found this style while visiting my optometry and the price is insane even with insurance. I'm so glad I was able to find a seller who has a reasonable priced stock. Thank you very much!</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Buyer: j***.</t>
+          <t>Buyer: i***n</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4145,17 +4145,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Tom Ford Colette Gunmetal Black / Gray Gradient Sunglasses TF250 08C</t>
+          <t>Adidas AF13 50 6056 STREAMLIGHT Black Eyeglasses AF13 506056 52mm</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Fast shipping, thanks!</t>
+          <t>Nice looking item. Fast delivery, thank you</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Buyer: 1***e</t>
+          <t>Buyer: r***a</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4172,17 +4172,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tag Heuer 0552-005 B URBAN Matte Black Red Eyeglasses TH552-005 57mm</t>
+          <t>Adidas AF22 40 6053 INVOKE Iron / Dark Gray Eyeglasses AF22 406053 54mm</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Best seller, really recommended</t>
+          <t>Arrived well in advance. Great vendor. Thank you.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Buyer: g***b</t>
+          <t>Buyer: j***.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4199,17 +4199,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tod's 28 5901F Shiny Black / Gradient Brown Sunglasses TO 0028 01F</t>
+          <t>Tom Ford Colette Gunmetal Black / Gray Gradient Sunglasses TF250 08C</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Thank you very much for your fast &amp; easy transaction</t>
+          <t>Fast shipping, thanks!</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Buyer: 8***s</t>
+          <t>Buyer: 1***e</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4226,17 +4226,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MONTBLANC MB0732 016  Shiny Palladium Eyeglasses MB 732 016 51mm</t>
+          <t>Tag Heuer 0552-005 B URBAN Matte Black Red Eyeglasses TH552-005 57mm</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Very nice product, fast shipping.</t>
+          <t>Best seller, really recommended</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: g***b</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4253,17 +4253,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Adidas AF22 50 6054 INVOKE Black Eyeglasses AF22 506054 54mm</t>
+          <t>Tod's 28 5901F Shiny Black / Gradient Brown Sunglasses TO 0028 01F</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Thank You very much, again, best experience.</t>
+          <t>Thank you very much for your fast &amp; easy transaction</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Buyer: s***v</t>
+          <t>Buyer: 8***s</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4280,17 +4280,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>St Dupont 721 6052 Silver / Green Sunglasses 65mm</t>
+          <t>MONTBLANC MB0732 016  Shiny Palladium Eyeglasses MB 732 016 51mm</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Item exactly as described, came quicker than expected. Thanks for a smooth transaction!</t>
+          <t>Very nice product, fast shipping.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Buyer: 2***a</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4307,17 +4307,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Adidas A674 40 6060 Copper Eyeglasses 674 406060 50mm</t>
+          <t>Adidas AF22 50 6054 INVOKE Black Eyeglasses AF22 506054 54mm</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A+ Seller!</t>
+          <t>Thank You very much, again, best experience.</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Buyer: d***1</t>
+          <t>Buyer: s***v</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tom Ford William 207 09J Gunmetal Gray / Brown Aviator Sunglasses TF207 09J</t>
+          <t>St Dupont 721 6052 Silver / Green Sunglasses 65mm</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Xactly as promised.</t>
+          <t>Item exactly as described, came quicker than expected. Thanks for a smooth transaction!</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Buyer: 1***0</t>
+          <t>Buyer: 2***a</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4361,17 +4361,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tom Ford 5313 098 Green Horn Eyeglasses TF5313 098 55mm</t>
+          <t>Adidas A674 40 6060 Copper Eyeglasses 674 406060 50mm</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Incredibly grateful to this seller! Frames were perfect and they were able to expedite the shipping for me so I could get my prescription made in time for a trip. Thank you!</t>
+          <t>A+ Seller!</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Buyer: b***a</t>
+          <t>Buyer: d***1</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4388,17 +4388,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>St Dupont 728 6052 Matte Silver / Blue Sunglasses 70mm</t>
+          <t>Tom Ford William 207 09J Gunmetal Gray / Brown Aviator Sunglasses TF207 09J</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Got refund quickly after item was returned</t>
+          <t>Xactly as promised.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Buyer: 8***j</t>
+          <t>Buyer: 1***0</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4415,17 +4415,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Tom Ford 5313 098 Green Horn Eyeglasses TF5313 098 55mm</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Exactly what I needed. This was perfect &amp; in excellent condition.</t>
+          <t>Incredibly grateful to this seller! Frames were perfect and they were able to expedite the shipping for me so I could get my prescription made in time for a trip. Thank you!</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Buyer: l***c</t>
+          <t>Buyer: b***a</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4442,17 +4442,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tom Ford Eliott Black Silver / Blue Gradient Sunglasses TF335 02W</t>
+          <t>St Dupont 728 6052 Matte Silver / Blue Sunglasses 70mm</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Nice sunglasses, thank u.</t>
+          <t>Got refund quickly after item was returned</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Buyer: _***d</t>
+          <t>Buyer: 8***j</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4469,17 +4469,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tag Heuer Ayrton Senna 0253 Matte Black / Green Outdoors Sunglasses TH 253 301</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Excellent service ! FAST DELIVERY!!  Thanks.</t>
+          <t>Exactly what I needed. This was perfect &amp; in excellent condition.</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Buyer: 0***1</t>
+          <t>Buyer: l***c</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4496,17 +4496,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MONCLER MC023-V02 White Gold Eyeglasses MC 023-V02</t>
+          <t>Tom Ford Eliott Black Silver / Blue Gradient Sunglasses TF335 02W</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Great transaction. Highly recommended seller</t>
+          <t>Nice sunglasses, thank u.</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Buyer: x***o</t>
+          <t>Buyer: _***d</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4523,17 +4523,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tom Ford 685 Julie Shiny Black Dark Havana / Brown Sunglasses TF685 05E 52mm</t>
+          <t>Tag Heuer Ayrton Senna 0253 Matte Black / Green Outdoors Sunglasses TH 253 301</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Excellent shopping experience.</t>
+          <t>Excellent service ! FAST DELIVERY!!  Thanks.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: 0***1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4550,17 +4550,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MontBlanc Silver Black / Gray Sunglasses MB458S 16B</t>
+          <t>MONCLER MC023-V02 White Gold Eyeglasses MC 023-V02</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Excellent product, though not in original box. But otherwise great.</t>
+          <t>Great transaction. Highly recommended seller</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Buyer: a***a</t>
+          <t>Buyer: x***o</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4577,17 +4577,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
+          <t>Tom Ford 685 Julie Shiny Black Dark Havana / Brown Sunglasses TF685 05E 52mm</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Excellent frames as described. Thank you!</t>
+          <t>Excellent shopping experience.</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Buyer: v***v</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4604,17 +4604,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tom Ford Rickie Gold Black / Gray Gradient Sunglasses TF179 01B</t>
+          <t>MontBlanc Silver Black / Gray Sunglasses MB458S 16B</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Trustworthy seller just as described</t>
+          <t>Excellent product, though not in original box. But otherwise great.</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Buyer: -***z</t>
+          <t>Buyer: a***a</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4631,17 +4631,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CARRERA VENT-X Gray &amp; Brown / Brown Polarized Sunglasses 6CL PK</t>
+          <t>Tom Ford 5415 054 Tortoise Eyeglasses TF5415 054 50mm</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Good deal thank you</t>
+          <t>Excellent frames as described. Thank you!</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Buyer: 3***p</t>
+          <t>Buyer: v***v</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>JULBO DIRT Black / Gray Sunglasses 369 122</t>
+          <t>Tom Ford Rickie Gold Black / Gray Gradient Sunglasses TF179 01B</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Perfect.. thank you!!!</t>
+          <t>Trustworthy seller just as described</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Buyer: a***m</t>
+          <t>Buyer: -***z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4685,17 +4685,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Carrera Carrerino 11 003 Black Yellow / Gray Gradient Sunglasses 55mm</t>
+          <t>CARRERA VENT-X Gray &amp; Brown / Brown Polarized Sunglasses 6CL PK</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Very Fast, Very Friendly  Safe Seller  A+++++  Thank You !</t>
+          <t>Good deal thank you</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Buyer: e***e</t>
+          <t>Buyer: 3***p</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tom Ford NIKA Shiny Black / Blue Gradient Sunglasses TF523 01W</t>
+          <t>JULBO DIRT Black / Gray Sunglasses 369 122</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Quick Shipping and just as described!</t>
+          <t>Perfect.. thank you!!!</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Buyer: d***i</t>
+          <t>Buyer: a***m</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4739,17 +4739,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MontBlanc Gold / Polarized Brown Sunglasses MB703S 32H 703 61mm</t>
+          <t>Carrera Carrerino 11 003 Black Yellow / Gray Gradient Sunglasses 55mm</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Moshe of Sunraycity provides excellent service from my initial question to the  dispatching of goods. The item has arrived package with surprise gift and a personal care card. Definitely a business worth supporting.</t>
+          <t>Very Fast, Very Friendly  Safe Seller  A+++++  Thank You !</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Buyer: t***m</t>
+          <t>Buyer: e***e</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4766,17 +4766,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Serengeti Trapani Shiny Silver Smoke / 555nm Sunglasses 7603 60mm</t>
+          <t>Tom Ford NIKA Shiny Black / Blue Gradient Sunglasses TF523 01W</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Your package that you sent arrived on time</t>
+          <t>Quick Shipping and just as described!</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Buyer: t***v</t>
+          <t>Buyer: d***i</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4793,17 +4793,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
+          <t>MontBlanc Gold / Polarized Brown Sunglasses MB703S 32H 703 61mm</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>Moshe of Sunraycity provides excellent service from my initial question to the  dispatching of goods. The item has arrived package with surprise gift and a personal care card. Definitely a business worth supporting.</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Buyer: l***p</t>
+          <t>Buyer: t***m</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4820,17 +4820,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Bolle Stormy Shiny Black TNS Sunglasses 11177</t>
+          <t>Serengeti Trapani Shiny Silver Smoke / 555nm Sunglasses 7603 60mm</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Authentic product. Fast shipping and great transaction. Thank you!</t>
+          <t>Your package that you sent arrived on time</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Buyer: 6***i</t>
+          <t>Buyer: t***v</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Barton Perreira GINSBERG Gold Eyeglasses GOL 46mm</t>
+          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Great eyeglasses + excellent transaction. Thank you!</t>
+          <t>perfect</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Buyer: 2***e</t>
+          <t>Buyer: l***p</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Serengeti Assisi Matte Brown / Polarized Phd Drivers Sunglasses 7996</t>
+          <t>Bolle Stormy Shiny Black TNS Sunglasses 11177</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Fast delivery, good communication</t>
+          <t>Authentic product. Fast shipping and great transaction. Thank you!</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Buyer: o***s</t>
+          <t>Buyer: 6***i</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4901,17 +4901,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tom Ford 5430 052 Dark Havana Eyeglasses TF5430 052 56mm</t>
+          <t>Barton Perreira GINSBERG Gold Eyeglasses GOL 46mm</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Very easy deal and fast delivery. Thanks!</t>
+          <t>Great eyeglasses + excellent transaction. Thank you!</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Buyer: p***r</t>
+          <t>Buyer: 2***e</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4928,17 +4928,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tom Ford 5272-005 Black Gold Eyeglasses TF5272 005 53mm</t>
+          <t>Serengeti Assisi Matte Brown / Polarized Phd Drivers Sunglasses 7996</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Great service!</t>
+          <t>Fast delivery, good communication</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Buyer: r***1</t>
+          <t>Buyer: o***s</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Serengeti TREVISO 24h LEMANS Satin Gunmetal / Green Polarized Sunglasses 8483</t>
+          <t>Tom Ford 5430 052 Dark Havana Eyeglasses TF5430 052 56mm</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>Very easy deal and fast delivery. Thanks!</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Buyer: 6***0</t>
+          <t>Buyer: p***r</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4982,17 +4982,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tag Heuer 842 008 Automatic Matte Blue Gray Eyeglasses TH842-008 54mm</t>
+          <t>Tom Ford 5272-005 Black Gold Eyeglasses TF5272 005 53mm</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Great dealer, A++++++++++++ product, fast shipping</t>
+          <t>Great service!</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: r***1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5009,17 +5009,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Serengeti Martino Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
+          <t>Serengeti TREVISO 24h LEMANS Satin Gunmetal / Green Polarized Sunglasses 8483</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Producto en excelente estado</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Buyer: 9***g</t>
+          <t>Buyer: 6***0</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5036,17 +5036,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tom Ford 5628 005 Asian Fit Shiny Black / Blue Block Eyeglasses TF5628 005 54mm</t>
+          <t>Tag Heuer 842 008 Automatic Matte Blue Gray Eyeglasses TH842-008 54mm</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Thanks!</t>
+          <t>Great dealer, A++++++++++++ product, fast shipping</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Buyer: m***m</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5063,17 +5063,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Spy Hailwood Shiny Black / Gray Sunglasses</t>
+          <t>Serengeti Martino Shiny Black / Polarized Drivers Sunglasses 7489 60mm</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Fast shipping!!! Great sunglasses!!!!</t>
+          <t>Producto en excelente estado</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Buyer: 0***r</t>
+          <t>Buyer: 9***g</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5090,17 +5090,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tom Ford 5353 001 Shiny Black Gold Eyeglasses TF5353 001 52mm</t>
+          <t>Tom Ford 5628 005 Asian Fit Shiny Black / Blue Block Eyeglasses TF5628 005 54mm</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Amazing seller, well packaged, speedy shipping, highly recommended A++++++++++++++</t>
+          <t>Thanks!</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Buyer: s***s</t>
+          <t>Buyer: m***m</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5117,17 +5117,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tom Ford Magnus Gold / Brown Sunglasses TF193 28E</t>
+          <t>Spy Hailwood Shiny Black / Gray Sunglasses</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Excellent seller and exceptional team.  Smooth transaction and highly recommended.</t>
+          <t>Fast shipping!!! Great sunglasses!!!!</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Buyer: l***s</t>
+          <t>Buyer: 0***r</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5144,17 +5144,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
+          <t>Tom Ford 5353 001 Shiny Black Gold Eyeglasses TF5353 001 52mm</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Best seller ever, amazing communication, highly recommended</t>
+          <t>Amazing seller, well packaged, speedy shipping, highly recommended A++++++++++++++</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Buyer: _***l</t>
+          <t>Buyer: s***s</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5171,17 +5171,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Serengeti Luigi Gun Black Tannery / Polarized Green Sunglasses 7382</t>
+          <t>Tom Ford Magnus Gold / Brown Sunglasses TF193 28E</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>pleased to deal with you. I'm definitely a fan of Serengeti. Perfect pair of sunglasses.</t>
+          <t>Excellent seller and exceptional team.  Smooth transaction and highly recommended.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Buyer: v***l</t>
+          <t>Buyer: l***s</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5198,17 +5198,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Adidas A3 40 6051 Copper Brown Eyeglasses A003 40 6051 50mm</t>
+          <t>Tag Heuer 3052 001 Reflex Black Eyeglasses TH3052-001 47mm</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Got it plus some nice bonus items with my glasses frames.</t>
+          <t>Best seller ever, amazing communication, highly recommended</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Buyer: p***7</t>
+          <t>Buyer: _***l</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5225,17 +5225,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tom Ford 5527 066 Red Eyeglasses TF5527 066 50mm</t>
+          <t>Serengeti Luigi Gun Black Tannery / Polarized Green Sunglasses 7382</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GREAT TRANSACTION!!</t>
+          <t>pleased to deal with you. I'm definitely a fan of Serengeti. Perfect pair of sunglasses.</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Buyer: l***6</t>
+          <t>Buyer: v***l</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5252,17 +5252,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Barton Perreira REECE Black / Vintage Blue Sunglasses BLA VBL 52mm</t>
+          <t>Adidas A3 40 6051 Copper Brown Eyeglasses A003 40 6051 50mm</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Perfect Seller and Transaction.  5*****</t>
+          <t>Got it plus some nice bonus items with my glasses frames.</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Buyer: 0***0</t>
+          <t>Buyer: p***7</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5279,17 +5279,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Serengeti Strato Satin Black / Polarized Phd Sedona Sunglasses 7681</t>
+          <t>Tom Ford 5527 066 Red Eyeglasses TF5527 066 50mm</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Just what I ordered. Thank you.</t>
+          <t>GREAT TRANSACTION!!</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Buyer: r***c</t>
+          <t>Buyer: l***6</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5306,17 +5306,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
+          <t>Barton Perreira REECE Black / Vintage Blue Sunglasses BLA VBL 52mm</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Lightning fast shipping and great transaction.</t>
+          <t>Perfect Seller and Transaction.  5*****</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Buyer: i***i</t>
+          <t>Buyer: 0***0</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5333,17 +5333,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
+          <t>Serengeti Strato Satin Black / Polarized Phd Sedona Sunglasses 7681</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Great transaction, thank you</t>
+          <t>Just what I ordered. Thank you.</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Buyer: j***j</t>
+          <t>Buyer: r***c</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5360,17 +5360,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
+          <t>Tom Ford Snowdon Beige / Gray Gradient Sunglasses TF237 60B 50mm</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EXCELLENT FAST SELLER !!  ITEM EXACTLY AS DESCRIBED.  FULLY LEGIT ...</t>
+          <t>Lightning fast shipping and great transaction.</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Buyer: .***.</t>
+          <t>Buyer: i***i</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5387,17 +5387,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Serengeti NUVINO Shiny Black / Polarized Phd Cool Photo Gray CPG Sunglasses 7318</t>
+          <t>Bolle FLYAIR Matte Tortoise / True Light Brown TLB Sunglasses 12260</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Thanks item as described and shipped fast.  Thanks.</t>
+          <t>Great transaction, thank you</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Buyer: h***e</t>
+          <t>Buyer: j***j</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5414,17 +5414,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Serengeti Larino Carbon Fiber / Polarized Phd CPG Sunglasses 7710</t>
+          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Thank You!!</t>
+          <t>EXCELLENT FAST SELLER !!  ITEM EXACTLY AS DESCRIBED.  FULLY LEGIT ...</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Buyer: o***3</t>
+          <t>Buyer: .***.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5441,17 +5441,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tom Ford Nicholai Gold / Brown Sunglasses TF189 28J James Bond</t>
+          <t>Serengeti NUVINO Shiny Black / Polarized Phd Cool Photo Gray CPG Sunglasses 7318</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Very happy and arrived within a few weeks</t>
+          <t>Thanks item as described and shipped fast.  Thanks.</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Buyer: 6***r</t>
+          <t>Buyer: h***e</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5468,17 +5468,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tom Ford 5475 32E Gold Eyeglasses TF5475-32E with Magnetic Brown Clip 54mm</t>
+          <t>Serengeti Larino Carbon Fiber / Polarized Phd CPG Sunglasses 7710</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fantastic, love these Glasses… very good company and will certainly purchase from them again</t>
+          <t>Thank You!!</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Buyer: b***a</t>
+          <t>Buyer: o***3</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5495,17 +5495,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
+          <t>Tom Ford Nicholai Gold / Brown Sunglasses TF189 28J James Bond</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Great seller...item exactly as presented.. thank you</t>
+          <t>Very happy and arrived within a few weeks</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Buyer: a***p</t>
+          <t>Buyer: u***s</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5522,17 +5522,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Tom Ford 5420 074 Matte Pink Rose Eyeglasses TF5420 074 54mm</t>
+          <t>Tom Ford 5475 32E Gold Eyeglasses TF5475-32E with Magnetic Brown Clip 54mm</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Beautiful frames!</t>
+          <t>Fantastic, love these Glasses… very good company and will certainly purchase from them again</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Buyer: d***a</t>
+          <t>Buyer: b***a</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5549,17 +5549,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bolle Vortex Shiny Black / Gray PC True Neutral Smoke TNS Sunglasses 11858</t>
+          <t>GUCCI GOLD BROWN LARGE CLAMSHELL LEATHER CASE WITH CLOTH &amp; CARDBOARD BOX</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Great sunglasses thanks !!!</t>
+          <t>Great seller...item exactly as presented.. thank you</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Buyer: l***e</t>
+          <t>Buyer: a***p</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5576,17 +5576,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Tom Ford 5527 052 Havana Eyeglasses TF5527 052 50mm</t>
+          <t>Tom Ford 5420 074 Matte Pink Rose Eyeglasses TF5420 074 54mm</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>Beautiful frames!</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Buyer: c***a</t>
+          <t>Buyer: d***a</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5603,17 +5603,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
+          <t>Bolle Vortex Shiny Black / Gray PC True Neutral Smoke TNS Sunglasses 11858</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Great product</t>
+          <t>Great sunglasses thanks !!!</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Buyer: c***a</t>
+          <t>Buyer: l***e</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5630,17 +5630,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tom Ford 5586-B 052 Havana Blue Block Eyeglasses TF5586 052 56mm</t>
+          <t>Tom Ford 5527 052 Havana Eyeglasses TF5527 052 50mm</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Everything was as expected and communicated. Very happy!</t>
+          <t>Good product</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Buyer: m***a</t>
+          <t>Buyer: c***a</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5657,17 +5657,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Tom Ford BRADBURY Shiny Rose Gold / Gray Sunglasses TF525 28A</t>
+          <t>Tom Ford Snowdon Dark Havana / Green Sunglasses TF237 52N 50mm</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Great seller, great quality, received cleaning agent as well and item came way before time.</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Buyer: p***0</t>
+          <t>Buyer: c***a</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5684,17 +5684,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Barton Perreira GINSBERG Matte Black Eyeglasses MAB 46mm</t>
+          <t>Tom Ford 5586-B 052 Havana Blue Block Eyeglasses TF5586 052 56mm</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>++++++++++++++ as advertised +++++++++++++</t>
+          <t>Everything was as expected and communicated. Very happy!</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Buyer: u***l</t>
+          <t>Buyer: m***a</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5711,17 +5711,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Serengeti Verucchio Shiny Black / Polarized Phd CPG Sunglasses 7440</t>
+          <t>Tom Ford BRADBURY Shiny Rose Gold / Gray Sunglasses TF525 28A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>I got it. thanks.</t>
+          <t>Great seller, great quality, received cleaning agent as well and item came way before time.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Buyer: l***a</t>
+          <t>Buyer: p***0</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5738,17 +5738,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Tom Ford 5346 052 Dark Havana Eyeglasses TF5346 052 53mm</t>
+          <t>Barton Perreira GINSBERG Matte Black Eyeglasses MAB 46mm</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Speedy shipping, careful packaging, will do business again!</t>
+          <t>++++++++++++++ as advertised +++++++++++++</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Buyer: h***a</t>
+          <t>Buyer: u***l</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Spy Logan Shiny Black / Gray Sunglasses</t>
+          <t>Serengeti Verucchio Shiny Black / Polarized Phd CPG Sunglasses 7440</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>wonderful seller,  I highly recommend others to this seller, wonderful communication and service,  I'm very happy with my purchase,  thank you. It fits perfect, will definitely buy another.</t>
+          <t>I got it. thanks.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Buyer: d***d</t>
+          <t>Buyer: l***a</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5792,17 +5792,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Persol 3097S 101857 Light Brown / Brown Polarized Sunglasses PO3097</t>
+          <t>Tom Ford 5346 052 Dark Havana Eyeglasses TF5346 052 53mm</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>They included a free mask!</t>
+          <t>Speedy shipping, careful packaging, will do business again!</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Buyer: m***k</t>
+          <t>Buyer: h***a</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Serengeti Dante Shiny Silver / 555nm Green Sunglasses 7314</t>
+          <t>Spy Logan Shiny Black / Gray Sunglasses</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Very fast shipping with great communication!!</t>
+          <t>wonderful seller,  I highly recommend others to this seller, wonderful communication and service,  I'm very happy with my purchase,  thank you. It fits perfect, will definitely buy another.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Buyer: v***v</t>
+          <t>Buyer: d***d</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5846,17 +5846,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MONCLER MC019-V01 Gray Eyeglasses MC 019-V01</t>
+          <t>Persol 3097S 101857 Light Brown / Brown Polarized Sunglasses PO3097</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Very happy with item, thank you.</t>
+          <t>They included a free mask!</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Buyer: t***i</t>
+          <t>Buyer: m***k</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
